--- a/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
+++ b/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +457,7 @@
         <v>1672218000000</v>
       </c>
       <c r="B2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="C2">
         <v>24100</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15450000</v>
+        <v>3090000</v>
       </c>
       <c r="F2">
         <v>246620000</v>
@@ -475,39 +475,39 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="I2">
-        <v>262070000</v>
+        <v>249710000</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-28T09:00:00.000Z</v>
       </c>
       <c r="K2">
-        <v>262070000</v>
+        <v>249710000</v>
       </c>
       <c r="L2">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="M2">
-        <v>22600</v>
+        <v>23800</v>
       </c>
       <c r="N2">
-        <v>231170000</v>
+        <v>243530000</v>
       </c>
       <c r="O2">
-        <v>22600</v>
+        <v>23800</v>
       </c>
       <c r="P2">
-        <v>231170000</v>
+        <v>243530000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672218300000</v>
+        <v>1672218120000</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>32960000</v>
+        <v>12360000</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,2586 +525,6186 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="I3">
-        <v>32960000</v>
+        <v>12360000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-28T09:05:00.000Z</v>
+        <v>2022-12-28T09:02:00.000Z</v>
       </c>
       <c r="K3">
-        <v>295030000</v>
+        <v>262070000</v>
       </c>
       <c r="L3">
-        <v>28800</v>
+        <v>25600</v>
       </c>
       <c r="M3">
-        <v>-3200</v>
+        <v>-1200</v>
       </c>
       <c r="N3">
-        <v>-32960000</v>
+        <v>-12360000</v>
       </c>
       <c r="O3">
-        <v>19400</v>
+        <v>22600</v>
       </c>
       <c r="P3">
-        <v>198210000</v>
+        <v>231170000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672218600000</v>
+        <v>1672218240000</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="C4">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>30900000.000000004</v>
+        <v>5150000</v>
       </c>
       <c r="F4">
-        <v>17680000</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="I4">
-        <v>48580000</v>
+        <v>5150000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-28T09:10:00.000Z</v>
+        <v>2022-12-28T09:04:00.000Z</v>
       </c>
       <c r="K4">
-        <v>343610000</v>
+        <v>267220000</v>
       </c>
       <c r="L4">
-        <v>33500</v>
+        <v>26100</v>
       </c>
       <c r="M4">
-        <v>-1300</v>
+        <v>-500</v>
       </c>
       <c r="N4">
-        <v>-13220000.000000004</v>
+        <v>-5150000</v>
       </c>
       <c r="O4">
-        <v>18100</v>
+        <v>22100</v>
       </c>
       <c r="P4">
-        <v>184990000</v>
+        <v>226020000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672218900000</v>
+        <v>1672218360000</v>
       </c>
       <c r="B5">
-        <v>6411300</v>
+        <v>500</v>
       </c>
       <c r="C5">
-        <v>5177500</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2950200</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>96343715000</v>
+        <v>5150000</v>
       </c>
       <c r="F5">
-        <v>74364199000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>38493298000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14539000</v>
+        <v>500</v>
       </c>
       <c r="I5">
-        <v>209201212000</v>
+        <v>5150000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-28T09:15:00.000Z</v>
+        <v>2022-12-28T09:06:00.000Z</v>
       </c>
       <c r="K5">
-        <v>209544822000</v>
+        <v>272370000</v>
       </c>
       <c r="L5">
-        <v>14572500</v>
+        <v>26600</v>
       </c>
       <c r="M5">
-        <v>-1233800</v>
+        <v>-500</v>
       </c>
       <c r="N5">
-        <v>-21979516000</v>
+        <v>-5150000</v>
       </c>
       <c r="O5">
-        <v>-1215700</v>
+        <v>21600</v>
       </c>
       <c r="P5">
-        <v>-21794526000</v>
+        <v>220870000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672219200000</v>
+        <v>1672218480000</v>
       </c>
       <c r="B6">
-        <v>3278200</v>
+        <v>2200</v>
       </c>
       <c r="C6">
-        <v>3181300</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>48272881000</v>
+        <v>22660000</v>
       </c>
       <c r="F6">
-        <v>52519029000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>470064000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6483300</v>
+        <v>2200</v>
       </c>
       <c r="I6">
-        <v>101261974000</v>
+        <v>22660000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-28T09:20:00.000Z</v>
+        <v>2022-12-28T09:08:00.000Z</v>
       </c>
       <c r="K6">
-        <v>310806796000</v>
+        <v>295030000</v>
       </c>
       <c r="L6">
-        <v>21055800</v>
+        <v>28800</v>
       </c>
       <c r="M6">
-        <v>-96900</v>
+        <v>-2200</v>
       </c>
       <c r="N6">
-        <v>4246148000</v>
+        <v>-22660000</v>
       </c>
       <c r="O6">
-        <v>-1312600</v>
+        <v>19400</v>
       </c>
       <c r="P6">
-        <v>-17548378000</v>
+        <v>198210000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672219500000</v>
+        <v>1672218600000</v>
       </c>
       <c r="B7">
-        <v>4235100</v>
+        <v>3000</v>
       </c>
       <c r="C7">
-        <v>2374400</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>66574895000</v>
+        <v>30900000.000000004</v>
       </c>
       <c r="F7">
-        <v>37431452000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>512382000</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6629700</v>
+        <v>3000</v>
       </c>
       <c r="I7">
-        <v>104518729000</v>
+        <v>30900000.000000004</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-28T09:25:00.000Z</v>
+        <v>2022-12-28T09:10:00.000Z</v>
       </c>
       <c r="K7">
-        <v>415325525000</v>
+        <v>325930000</v>
       </c>
       <c r="L7">
-        <v>27685500</v>
+        <v>31800</v>
       </c>
       <c r="M7">
-        <v>-1860700</v>
+        <v>-3000</v>
       </c>
       <c r="N7">
-        <v>-29143443000</v>
+        <v>-30900000.000000004</v>
       </c>
       <c r="O7">
-        <v>-3173300</v>
+        <v>16400</v>
       </c>
       <c r="P7">
-        <v>-46691821000</v>
+        <v>167310000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672219800000</v>
+        <v>1672218720000</v>
       </c>
       <c r="B8">
-        <v>2991000</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3193000</v>
+        <v>1700</v>
       </c>
       <c r="D8">
-        <v>33400</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>44431572000</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>53220869000</v>
+        <v>17680000</v>
       </c>
       <c r="G8">
-        <v>597762000</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6217400</v>
+        <v>1700</v>
       </c>
       <c r="I8">
-        <v>98250203000</v>
+        <v>17680000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-28T09:30:00.000Z</v>
+        <v>2022-12-28T09:12:00.000Z</v>
       </c>
       <c r="K8">
-        <v>513575728000</v>
+        <v>343610000</v>
       </c>
       <c r="L8">
-        <v>33902900</v>
+        <v>33500</v>
       </c>
       <c r="M8">
-        <v>202000</v>
+        <v>1700</v>
       </c>
       <c r="N8">
-        <v>8789297000</v>
+        <v>17680000</v>
       </c>
       <c r="O8">
-        <v>-2971300</v>
+        <v>18100</v>
       </c>
       <c r="P8">
-        <v>-37902524000</v>
+        <v>184990000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672220100000</v>
+        <v>1672218840000</v>
       </c>
       <c r="B9">
-        <v>1919200</v>
+        <v>2673300</v>
       </c>
       <c r="C9">
-        <v>3514500</v>
+        <v>1770200</v>
       </c>
       <c r="D9">
-        <v>80000</v>
+        <v>2926000</v>
       </c>
       <c r="E9">
-        <v>29411111000</v>
+        <v>38331155000</v>
       </c>
       <c r="F9">
-        <v>55628796000</v>
+        <v>26514814000</v>
       </c>
       <c r="G9">
-        <v>767886999.9999999</v>
+        <v>37964072000</v>
       </c>
       <c r="H9">
-        <v>5513700</v>
+        <v>7369500</v>
       </c>
       <c r="I9">
-        <v>85807794000</v>
+        <v>102810041000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-28T09:35:00.000Z</v>
+        <v>2022-12-28T09:14:00.000Z</v>
       </c>
       <c r="K9">
-        <v>599383522000</v>
+        <v>103153651000</v>
       </c>
       <c r="L9">
-        <v>39416600</v>
+        <v>7403000</v>
       </c>
       <c r="M9">
-        <v>1595300</v>
+        <v>-903100</v>
       </c>
       <c r="N9">
-        <v>26217685000</v>
+        <v>-11816341000</v>
       </c>
       <c r="O9">
-        <v>-1376000</v>
+        <v>-885000</v>
       </c>
       <c r="P9">
-        <v>-11684839000</v>
+        <v>-11631351000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672220400000</v>
+        <v>1672218960000</v>
       </c>
       <c r="B10">
-        <v>4771200</v>
+        <v>1987000</v>
       </c>
       <c r="C10">
-        <v>1855400</v>
+        <v>1695100</v>
       </c>
       <c r="D10">
-        <v>29000</v>
+        <v>17300</v>
       </c>
       <c r="E10">
-        <v>82089049000</v>
+        <v>34026650000</v>
       </c>
       <c r="F10">
-        <v>29329156000</v>
+        <v>23634100000</v>
       </c>
       <c r="G10">
-        <v>395026000</v>
+        <v>421438000</v>
       </c>
       <c r="H10">
-        <v>6655600</v>
+        <v>3699400</v>
       </c>
       <c r="I10">
-        <v>111813231000</v>
+        <v>58082188000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-28T09:40:00.000Z</v>
+        <v>2022-12-28T09:16:00.000Z</v>
       </c>
       <c r="K10">
-        <v>711196753000</v>
+        <v>161235839000</v>
       </c>
       <c r="L10">
-        <v>46072200</v>
+        <v>11102400</v>
       </c>
       <c r="M10">
-        <v>-2915800</v>
+        <v>-291900</v>
       </c>
       <c r="N10">
-        <v>-52759893000</v>
+        <v>-10392550000</v>
       </c>
       <c r="O10">
-        <v>-4291800</v>
+        <v>-1176900</v>
       </c>
       <c r="P10">
-        <v>-64444732000</v>
+        <v>-22023901000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672220700000</v>
+        <v>1672219080000</v>
       </c>
       <c r="B11">
-        <v>5248900</v>
+        <v>1751000</v>
       </c>
       <c r="C11">
-        <v>1591200</v>
+        <v>1712200</v>
       </c>
       <c r="D11">
-        <v>28500</v>
+        <v>6900</v>
       </c>
       <c r="E11">
-        <v>75693717000</v>
+        <v>23985910000</v>
       </c>
       <c r="F11">
-        <v>28613929000</v>
+        <v>24215285000</v>
       </c>
       <c r="G11">
-        <v>535017000</v>
+        <v>107788000</v>
       </c>
       <c r="H11">
-        <v>6868600</v>
+        <v>3470100</v>
       </c>
       <c r="I11">
-        <v>104842663000</v>
+        <v>48308983000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-28T09:45:00.000Z</v>
+        <v>2022-12-28T09:18:00.000Z</v>
       </c>
       <c r="K11">
-        <v>816039416000</v>
+        <v>209544822000</v>
       </c>
       <c r="L11">
-        <v>52940800</v>
+        <v>14572500</v>
       </c>
       <c r="M11">
-        <v>-3657700</v>
+        <v>-38800</v>
       </c>
       <c r="N11">
-        <v>-47079788000</v>
+        <v>229375000</v>
       </c>
       <c r="O11">
-        <v>-7949500</v>
+        <v>-1215700</v>
       </c>
       <c r="P11">
-        <v>-111524520000</v>
+        <v>-21794526000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672221000000</v>
+        <v>1672219200000</v>
       </c>
       <c r="B12">
-        <v>3266200</v>
+        <v>1443900</v>
       </c>
       <c r="C12">
-        <v>1829700</v>
+        <v>1329200</v>
       </c>
       <c r="D12">
-        <v>35300</v>
+        <v>16800</v>
       </c>
       <c r="E12">
-        <v>50980412000</v>
+        <v>21288106000</v>
       </c>
       <c r="F12">
-        <v>28739702000</v>
+        <v>19978980000</v>
       </c>
       <c r="G12">
-        <v>647389000</v>
+        <v>197913000</v>
       </c>
       <c r="H12">
-        <v>5131200</v>
+        <v>2789900</v>
       </c>
       <c r="I12">
-        <v>80367503000</v>
+        <v>41464999000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-28T09:50:00.000Z</v>
+        <v>2022-12-28T09:20:00.000Z</v>
       </c>
       <c r="K12">
-        <v>896406919000</v>
+        <v>251009821000</v>
       </c>
       <c r="L12">
-        <v>58072000</v>
+        <v>17362400</v>
       </c>
       <c r="M12">
-        <v>-1436500</v>
+        <v>-114700</v>
       </c>
       <c r="N12">
-        <v>-22240710000</v>
+        <v>-1309126000</v>
       </c>
       <c r="O12">
-        <v>-9386000</v>
+        <v>-1330400</v>
       </c>
       <c r="P12">
-        <v>-133765230000</v>
+        <v>-23103652000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672221300000</v>
+        <v>1672219320000</v>
       </c>
       <c r="B13">
-        <v>1624800</v>
+        <v>1195500</v>
       </c>
       <c r="C13">
-        <v>3917400</v>
+        <v>1217800</v>
       </c>
       <c r="D13">
-        <v>62200</v>
+        <v>5900</v>
       </c>
       <c r="E13">
-        <v>26896668000</v>
+        <v>17722504000</v>
       </c>
       <c r="F13">
-        <v>64636099000</v>
+        <v>21626646000</v>
       </c>
       <c r="G13">
-        <v>829246000</v>
+        <v>257635000</v>
       </c>
       <c r="H13">
-        <v>5604400</v>
+        <v>2419200</v>
       </c>
       <c r="I13">
-        <v>92362013000</v>
+        <v>39606785000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-28T09:55:00.000Z</v>
+        <v>2022-12-28T09:22:00.000Z</v>
       </c>
       <c r="K13">
-        <v>988768932000</v>
+        <v>290616606000</v>
       </c>
       <c r="L13">
-        <v>63676400</v>
+        <v>19781600</v>
       </c>
       <c r="M13">
-        <v>2292600</v>
+        <v>22300</v>
       </c>
       <c r="N13">
-        <v>37739431000</v>
+        <v>3904142000</v>
       </c>
       <c r="O13">
-        <v>-7093400</v>
+        <v>-1308100</v>
       </c>
       <c r="P13">
-        <v>-96025799000</v>
+        <v>-19199510000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672221600000</v>
+        <v>1672219440000</v>
       </c>
       <c r="B14">
-        <v>3411100</v>
+        <v>1460100</v>
       </c>
       <c r="C14">
-        <v>2372700</v>
+        <v>1369700</v>
       </c>
       <c r="D14">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="E14">
-        <v>59594507000</v>
+        <v>23414917000</v>
       </c>
       <c r="F14">
-        <v>39070072000</v>
+        <v>23489331000</v>
       </c>
       <c r="G14">
-        <v>396476000</v>
+        <v>149326000</v>
       </c>
       <c r="H14">
-        <v>5800700</v>
+        <v>2833400</v>
       </c>
       <c r="I14">
-        <v>99061055000</v>
+        <v>47053574000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-28T10:00:00.000Z</v>
+        <v>2022-12-28T09:24:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1087829987000</v>
+        <v>337670180000</v>
       </c>
       <c r="L14">
-        <v>69477100</v>
+        <v>22615000</v>
       </c>
       <c r="M14">
-        <v>-1038400</v>
+        <v>-90400</v>
       </c>
       <c r="N14">
-        <v>-20524435000</v>
+        <v>74414000</v>
       </c>
       <c r="O14">
-        <v>-8131800</v>
+        <v>-1398500</v>
       </c>
       <c r="P14">
-        <v>-116550234000</v>
+        <v>-19125096000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672221900000</v>
+        <v>1672219560000</v>
       </c>
       <c r="B15">
-        <v>2578700</v>
+        <v>1908300</v>
       </c>
       <c r="C15">
-        <v>1422900</v>
+        <v>1093300</v>
       </c>
       <c r="D15">
-        <v>30000</v>
+        <v>9500</v>
       </c>
       <c r="E15">
-        <v>42730506000</v>
+        <v>31158503000</v>
       </c>
       <c r="F15">
-        <v>25268525000</v>
+        <v>15145864000</v>
       </c>
       <c r="G15">
-        <v>434127000</v>
+        <v>183517000</v>
       </c>
       <c r="H15">
-        <v>4031600</v>
+        <v>3011100</v>
       </c>
       <c r="I15">
-        <v>68433158000</v>
+        <v>46487884000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-28T10:05:00.000Z</v>
+        <v>2022-12-28T09:26:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1156263145000</v>
+        <v>384158064000</v>
       </c>
       <c r="L15">
-        <v>73508700</v>
+        <v>25626100</v>
       </c>
       <c r="M15">
-        <v>-1155800</v>
+        <v>-815000</v>
       </c>
       <c r="N15">
-        <v>-17461981000</v>
+        <v>-16012639000</v>
       </c>
       <c r="O15">
-        <v>-9287600</v>
+        <v>-2213500</v>
       </c>
       <c r="P15">
-        <v>-134012215000</v>
+        <v>-35137735000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672222200000</v>
+        <v>1672219680000</v>
       </c>
       <c r="B16">
-        <v>2023200</v>
+        <v>1505500</v>
       </c>
       <c r="C16">
-        <v>1437300</v>
+        <v>545700</v>
       </c>
       <c r="D16">
-        <v>34400</v>
+        <v>8200</v>
       </c>
       <c r="E16">
-        <v>35585550000</v>
+        <v>21263746000</v>
       </c>
       <c r="F16">
-        <v>28096391000</v>
+        <v>9709660000</v>
       </c>
       <c r="G16">
-        <v>1734880000</v>
+        <v>194055000</v>
       </c>
       <c r="H16">
-        <v>3494900</v>
+        <v>2059400</v>
       </c>
       <c r="I16">
-        <v>65416821000</v>
+        <v>31167461000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-28T10:10:00.000Z</v>
+        <v>2022-12-28T09:28:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1221679966000</v>
+        <v>415325525000</v>
       </c>
       <c r="L16">
-        <v>77003600</v>
+        <v>27685500</v>
       </c>
       <c r="M16">
-        <v>-585900</v>
+        <v>-959800</v>
       </c>
       <c r="N16">
-        <v>-7489159000</v>
+        <v>-11554086000</v>
       </c>
       <c r="O16">
-        <v>-9873500</v>
+        <v>-3173300</v>
       </c>
       <c r="P16">
-        <v>-141501374000</v>
+        <v>-46691821000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672222500000</v>
+        <v>1672219800000</v>
       </c>
       <c r="B17">
-        <v>2501600</v>
+        <v>1333900</v>
       </c>
       <c r="C17">
-        <v>1444200</v>
+        <v>1361300</v>
       </c>
       <c r="D17">
-        <v>11300</v>
+        <v>21900</v>
       </c>
       <c r="E17">
-        <v>39154505000</v>
+        <v>20406633000</v>
       </c>
       <c r="F17">
-        <v>27626481000</v>
+        <v>23403782000</v>
       </c>
       <c r="G17">
-        <v>250412000</v>
+        <v>433850000</v>
       </c>
       <c r="H17">
-        <v>3957100</v>
+        <v>2717100</v>
       </c>
       <c r="I17">
-        <v>67031398000</v>
+        <v>44244265000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-28T10:15:00.000Z</v>
+        <v>2022-12-28T09:30:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1288711364000</v>
+        <v>459569790000</v>
       </c>
       <c r="L17">
-        <v>80960700</v>
+        <v>30402600</v>
       </c>
       <c r="M17">
-        <v>-1057400</v>
+        <v>27400</v>
       </c>
       <c r="N17">
-        <v>-11528024000</v>
+        <v>2997149000</v>
       </c>
       <c r="O17">
-        <v>-10930900</v>
+        <v>-3145900</v>
       </c>
       <c r="P17">
-        <v>-153029398000</v>
+        <v>-43694672000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672222800000</v>
+        <v>1672219920000</v>
       </c>
       <c r="B18">
-        <v>2341800</v>
+        <v>981800</v>
       </c>
       <c r="C18">
-        <v>1909500</v>
+        <v>1292400</v>
       </c>
       <c r="D18">
-        <v>20400</v>
+        <v>11000</v>
       </c>
       <c r="E18">
-        <v>31267076000</v>
+        <v>12638161000</v>
       </c>
       <c r="F18">
-        <v>35747168000</v>
+        <v>21838998000</v>
       </c>
       <c r="G18">
-        <v>466180000</v>
+        <v>125682000</v>
       </c>
       <c r="H18">
-        <v>4271700</v>
+        <v>2285200</v>
       </c>
       <c r="I18">
-        <v>67480424000</v>
+        <v>34602841000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-28T10:20:00.000Z</v>
+        <v>2022-12-28T09:32:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1356191788000</v>
+        <v>494172631000</v>
       </c>
       <c r="L18">
-        <v>85232400</v>
+        <v>32687800</v>
       </c>
       <c r="M18">
-        <v>-432300</v>
+        <v>310600</v>
       </c>
       <c r="N18">
-        <v>4480092000</v>
+        <v>9200837000</v>
       </c>
       <c r="O18">
-        <v>-11363200</v>
+        <v>-2835300</v>
       </c>
       <c r="P18">
-        <v>-148549306000</v>
+        <v>-34493835000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672223100000</v>
+        <v>1672220040000</v>
       </c>
       <c r="B19">
-        <v>1726400</v>
+        <v>1044000</v>
       </c>
       <c r="C19">
-        <v>3743600</v>
+        <v>1101700</v>
       </c>
       <c r="D19">
-        <v>26600</v>
+        <v>1800</v>
       </c>
       <c r="E19">
-        <v>26866928000</v>
+        <v>17037179000</v>
       </c>
       <c r="F19">
-        <v>59898068000</v>
+        <v>18381740000</v>
       </c>
       <c r="G19">
-        <v>1119991000</v>
+        <v>55857000</v>
       </c>
       <c r="H19">
-        <v>5496600</v>
+        <v>2147500</v>
       </c>
       <c r="I19">
-        <v>87884987000</v>
+        <v>35474776000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-28T10:25:00.000Z</v>
+        <v>2022-12-28T09:34:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1444076775000</v>
+        <v>529647407000</v>
       </c>
       <c r="L19">
-        <v>90729000</v>
+        <v>34835300</v>
       </c>
       <c r="M19">
-        <v>2017200</v>
+        <v>57700</v>
       </c>
       <c r="N19">
-        <v>33031140000</v>
+        <v>1344561000</v>
       </c>
       <c r="O19">
-        <v>-9346000</v>
+        <v>-2777600</v>
       </c>
       <c r="P19">
-        <v>-115518166000</v>
+        <v>-33149274000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672223400000</v>
+        <v>1672220160000</v>
       </c>
       <c r="B20">
-        <v>2608100</v>
+        <v>948200</v>
       </c>
       <c r="C20">
-        <v>6216600</v>
+        <v>1753100</v>
       </c>
       <c r="D20">
-        <v>19600</v>
+        <v>77200</v>
       </c>
       <c r="E20">
-        <v>37913317000</v>
+        <v>12197713000</v>
       </c>
       <c r="F20">
-        <v>86599618000</v>
+        <v>26050588000</v>
       </c>
       <c r="G20">
-        <v>1309529000</v>
+        <v>718046999.9999999</v>
       </c>
       <c r="H20">
-        <v>8844300</v>
+        <v>2778500</v>
       </c>
       <c r="I20">
-        <v>125822464000</v>
+        <v>38966348000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-28T10:30:00.000Z</v>
+        <v>2022-12-28T09:36:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1569899239000</v>
+        <v>568613755000</v>
       </c>
       <c r="L20">
-        <v>99573300</v>
+        <v>37613800</v>
       </c>
       <c r="M20">
-        <v>3608500</v>
+        <v>804900</v>
       </c>
       <c r="N20">
-        <v>48686301000</v>
+        <v>13852875000</v>
       </c>
       <c r="O20">
-        <v>-5737500</v>
+        <v>-1972700</v>
       </c>
       <c r="P20">
-        <v>-66831865000</v>
+        <v>-19296399000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672223700000</v>
+        <v>1672220280000</v>
       </c>
       <c r="B21">
-        <v>5138800</v>
+        <v>602300</v>
       </c>
       <c r="C21">
-        <v>5880100</v>
+        <v>1199000</v>
       </c>
       <c r="D21">
-        <v>136300</v>
+        <v>1500</v>
       </c>
       <c r="E21">
-        <v>76551713000</v>
+        <v>11562997000</v>
       </c>
       <c r="F21">
-        <v>78925582000</v>
+        <v>19174557000</v>
       </c>
       <c r="G21">
-        <v>1805102000</v>
+        <v>32213000</v>
       </c>
       <c r="H21">
-        <v>11155200</v>
+        <v>1802800</v>
       </c>
       <c r="I21">
-        <v>157282397000</v>
+        <v>30769767000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-28T10:35:00.000Z</v>
+        <v>2022-12-28T09:38:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1727181636000</v>
+        <v>599383522000</v>
       </c>
       <c r="L21">
-        <v>110728500</v>
+        <v>39416600</v>
       </c>
       <c r="M21">
-        <v>741300</v>
+        <v>596700</v>
       </c>
       <c r="N21">
-        <v>2373869000</v>
+        <v>7611560000</v>
       </c>
       <c r="O21">
-        <v>-4996200</v>
+        <v>-1376000</v>
       </c>
       <c r="P21">
-        <v>-64457996000</v>
+        <v>-11684839000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672224000000</v>
+        <v>1672220400000</v>
       </c>
       <c r="B22">
-        <v>2415900</v>
+        <v>1961500</v>
       </c>
       <c r="C22">
-        <v>2040900</v>
+        <v>920800</v>
       </c>
       <c r="D22">
-        <v>5400</v>
+        <v>6300</v>
       </c>
       <c r="E22">
-        <v>41889211000</v>
+        <v>36109351000</v>
       </c>
       <c r="F22">
-        <v>39869993000</v>
+        <v>14336789000</v>
       </c>
       <c r="G22">
-        <v>271335000</v>
+        <v>95467000</v>
       </c>
       <c r="H22">
-        <v>4462200</v>
+        <v>2888600</v>
       </c>
       <c r="I22">
-        <v>82030539000</v>
+        <v>50541607000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-28T10:40:00.000Z</v>
+        <v>2022-12-28T09:40:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1809212175000</v>
+        <v>649925129000</v>
       </c>
       <c r="L22">
-        <v>115190700</v>
+        <v>42305200</v>
       </c>
       <c r="M22">
-        <v>-375000</v>
+        <v>-1040700</v>
       </c>
       <c r="N22">
-        <v>-2019218000</v>
+        <v>-21772562000</v>
       </c>
       <c r="O22">
-        <v>-5371200</v>
+        <v>-2416700</v>
       </c>
       <c r="P22">
-        <v>-66477214000</v>
+        <v>-33457401000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672224300000</v>
+        <v>1672220520000</v>
       </c>
       <c r="B23">
-        <v>1105400</v>
+        <v>2149300</v>
       </c>
       <c r="C23">
-        <v>3660300</v>
+        <v>533700</v>
       </c>
       <c r="D23">
-        <v>14500</v>
+        <v>22100</v>
       </c>
       <c r="E23">
-        <v>19811017000</v>
+        <v>34615071000</v>
       </c>
       <c r="F23">
-        <v>67321523000</v>
+        <v>9030750000</v>
       </c>
       <c r="G23">
-        <v>318043000</v>
+        <v>245535000</v>
       </c>
       <c r="H23">
-        <v>4780200</v>
+        <v>2705100</v>
       </c>
       <c r="I23">
-        <v>87450583000</v>
+        <v>43891356000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-28T10:45:00.000Z</v>
+        <v>2022-12-28T09:42:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1896662758000</v>
+        <v>693816485000</v>
       </c>
       <c r="L23">
-        <v>119970900</v>
+        <v>45010300</v>
       </c>
       <c r="M23">
-        <v>2554900</v>
+        <v>-1615600</v>
       </c>
       <c r="N23">
-        <v>47510506000</v>
+        <v>-25584321000</v>
       </c>
       <c r="O23">
-        <v>-2816300</v>
+        <v>-4032300</v>
       </c>
       <c r="P23">
-        <v>-18966708000</v>
+        <v>-59041722000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672224600000</v>
+        <v>1672220640000</v>
       </c>
       <c r="B24">
-        <v>2184600</v>
+        <v>1366900</v>
       </c>
       <c r="C24">
-        <v>5573300</v>
+        <v>651500</v>
       </c>
       <c r="D24">
-        <v>30100</v>
+        <v>2200</v>
       </c>
       <c r="E24">
-        <v>33872204000</v>
+        <v>23407155000</v>
       </c>
       <c r="F24">
-        <v>96517576000</v>
+        <v>10616083000</v>
       </c>
       <c r="G24">
-        <v>423905000</v>
+        <v>93396000</v>
       </c>
       <c r="H24">
-        <v>7788000</v>
+        <v>2020600</v>
       </c>
       <c r="I24">
-        <v>130813685000</v>
+        <v>34116634000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-28T10:50:00.000Z</v>
+        <v>2022-12-28T09:44:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2027476443000</v>
+        <v>727933119000</v>
       </c>
       <c r="L24">
-        <v>127758900</v>
+        <v>47030900</v>
       </c>
       <c r="M24">
-        <v>3388700</v>
+        <v>-715400</v>
       </c>
       <c r="N24">
-        <v>62645372000</v>
+        <v>-12791072000</v>
       </c>
       <c r="O24">
-        <v>572400</v>
+        <v>-4747700</v>
       </c>
       <c r="P24">
-        <v>43678664000</v>
+        <v>-71832794000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672224900000</v>
+        <v>1672220760000</v>
       </c>
       <c r="B25">
-        <v>2857200</v>
+        <v>2304700</v>
       </c>
       <c r="C25">
-        <v>3628300</v>
+        <v>662600</v>
       </c>
       <c r="D25">
-        <v>27600</v>
+        <v>9300</v>
       </c>
       <c r="E25">
-        <v>44644653000</v>
+        <v>33614300000</v>
       </c>
       <c r="F25">
-        <v>61126131000</v>
+        <v>12389655000</v>
       </c>
       <c r="G25">
-        <v>371587000</v>
+        <v>269665000</v>
       </c>
       <c r="H25">
-        <v>6513100</v>
+        <v>2976600</v>
       </c>
       <c r="I25">
-        <v>106142371000</v>
+        <v>46273620000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-28T10:55:00.000Z</v>
+        <v>2022-12-28T09:46:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2133618814000</v>
+        <v>774206739000</v>
       </c>
       <c r="L25">
-        <v>134272000</v>
+        <v>50007500</v>
       </c>
       <c r="M25">
-        <v>771100</v>
+        <v>-1642100</v>
       </c>
       <c r="N25">
-        <v>16481478000</v>
+        <v>-21224645000</v>
       </c>
       <c r="O25">
-        <v>1343500</v>
+        <v>-6389800</v>
       </c>
       <c r="P25">
-        <v>60160142000</v>
+        <v>-93057439000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672225200000</v>
+        <v>1672220880000</v>
       </c>
       <c r="B26">
-        <v>3539500</v>
+        <v>2237700</v>
       </c>
       <c r="C26">
-        <v>1115300</v>
+        <v>678000</v>
       </c>
       <c r="D26">
-        <v>25700</v>
+        <v>17600</v>
       </c>
       <c r="E26">
-        <v>56340980000</v>
+        <v>30036889000</v>
       </c>
       <c r="F26">
-        <v>21783061000</v>
+        <v>11569808000</v>
       </c>
       <c r="G26">
-        <v>700024000</v>
+        <v>225980000</v>
       </c>
       <c r="H26">
-        <v>4680500</v>
+        <v>2933300</v>
       </c>
       <c r="I26">
-        <v>78824065000</v>
+        <v>41832677000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-28T11:00:00.000Z</v>
+        <v>2022-12-28T09:48:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2212442879000</v>
+        <v>816039416000</v>
       </c>
       <c r="L26">
-        <v>138952500</v>
+        <v>52940800</v>
       </c>
       <c r="M26">
-        <v>-2424200</v>
+        <v>-1559700</v>
       </c>
       <c r="N26">
-        <v>-34557919000</v>
+        <v>-18467081000</v>
       </c>
       <c r="O26">
-        <v>-1080700</v>
+        <v>-7949500</v>
       </c>
       <c r="P26">
-        <v>25602223000</v>
+        <v>-111524520000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672225500000</v>
+        <v>1672221000000</v>
       </c>
       <c r="B27">
-        <v>2363800</v>
+        <v>1590700</v>
       </c>
       <c r="C27">
-        <v>2279700</v>
+        <v>664500</v>
       </c>
       <c r="D27">
-        <v>13100</v>
+        <v>24100</v>
       </c>
       <c r="E27">
-        <v>40529959000</v>
+        <v>24644101000</v>
       </c>
       <c r="F27">
-        <v>37701451000</v>
+        <v>10583682000</v>
       </c>
       <c r="G27">
-        <v>86303000</v>
+        <v>477445000</v>
       </c>
       <c r="H27">
-        <v>4656600</v>
+        <v>2279300</v>
       </c>
       <c r="I27">
-        <v>78317713000</v>
+        <v>35705228000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-28T11:05:00.000Z</v>
+        <v>2022-12-28T09:50:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2290760592000</v>
+        <v>851744644000</v>
       </c>
       <c r="L27">
-        <v>143609100</v>
+        <v>55220100</v>
       </c>
       <c r="M27">
-        <v>-84100</v>
+        <v>-926200</v>
       </c>
       <c r="N27">
-        <v>-2828508000</v>
+        <v>-14060419000</v>
       </c>
       <c r="O27">
-        <v>-1164800</v>
+        <v>-8875700</v>
       </c>
       <c r="P27">
-        <v>22773715000</v>
+        <v>-125584939000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672225800000</v>
+        <v>1672221120000</v>
       </c>
       <c r="B28">
-        <v>2637800</v>
+        <v>1214700</v>
       </c>
       <c r="C28">
-        <v>939100</v>
+        <v>703500</v>
       </c>
       <c r="D28">
-        <v>20300</v>
+        <v>10000</v>
       </c>
       <c r="E28">
-        <v>41586452000</v>
+        <v>17618214000</v>
       </c>
       <c r="F28">
-        <v>20246706000</v>
+        <v>11730351000</v>
       </c>
       <c r="G28">
-        <v>529770000</v>
+        <v>150718000</v>
       </c>
       <c r="H28">
-        <v>3597200</v>
+        <v>1928200</v>
       </c>
       <c r="I28">
-        <v>62362928000</v>
+        <v>29499283000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-28T11:10:00.000Z</v>
+        <v>2022-12-28T09:52:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2353123520000</v>
+        <v>881243927000</v>
       </c>
       <c r="L28">
-        <v>147206300</v>
+        <v>57148300</v>
       </c>
       <c r="M28">
-        <v>-1698700</v>
+        <v>-511200</v>
       </c>
       <c r="N28">
-        <v>-21339746000</v>
+        <v>-5887863000</v>
       </c>
       <c r="O28">
-        <v>-2863500</v>
+        <v>-9386900</v>
       </c>
       <c r="P28">
-        <v>1433969000</v>
+        <v>-131472802000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672226100000</v>
+        <v>1672221240000</v>
       </c>
       <c r="B29">
-        <v>1696000</v>
+        <v>772400</v>
       </c>
       <c r="C29">
-        <v>1372700</v>
+        <v>1027000</v>
       </c>
       <c r="D29">
-        <v>4600</v>
+        <v>10300</v>
       </c>
       <c r="E29">
-        <v>30077917000</v>
+        <v>13563271000</v>
       </c>
       <c r="F29">
-        <v>28495370000</v>
+        <v>14765249000</v>
       </c>
       <c r="G29">
-        <v>82420000</v>
+        <v>173146000</v>
       </c>
       <c r="H29">
-        <v>3073300</v>
+        <v>1809700</v>
       </c>
       <c r="I29">
-        <v>58655707000</v>
+        <v>28501666000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-28T11:15:00.000Z</v>
+        <v>2022-12-28T09:54:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2411779227000</v>
+        <v>909745593000</v>
       </c>
       <c r="L29">
-        <v>150279600</v>
+        <v>58958000</v>
       </c>
       <c r="M29">
-        <v>-323300</v>
+        <v>254600</v>
       </c>
       <c r="N29">
-        <v>-1582547000</v>
+        <v>1201978000</v>
       </c>
       <c r="O29">
-        <v>-3186800</v>
+        <v>-9132300</v>
       </c>
       <c r="P29">
-        <v>-148578000</v>
+        <v>-130270824000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672226400000</v>
+        <v>1672221360000</v>
       </c>
       <c r="B30">
-        <v>3521400</v>
+        <v>613100</v>
       </c>
       <c r="C30">
-        <v>1518400</v>
+        <v>1736400</v>
       </c>
       <c r="D30">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="E30">
-        <v>60754021000</v>
+        <v>8019388000</v>
       </c>
       <c r="F30">
-        <v>30952147000</v>
+        <v>27984364000</v>
       </c>
       <c r="G30">
-        <v>161740000</v>
+        <v>201558000</v>
       </c>
       <c r="H30">
-        <v>5051800</v>
+        <v>2362700</v>
       </c>
       <c r="I30">
-        <v>91867908000</v>
+        <v>36205310000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-28T11:20:00.000Z</v>
+        <v>2022-12-28T09:56:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2503647135000</v>
+        <v>945950903000</v>
       </c>
       <c r="L30">
-        <v>155331400</v>
+        <v>61320700</v>
       </c>
       <c r="M30">
-        <v>-2003000</v>
+        <v>1123300</v>
       </c>
       <c r="N30">
-        <v>-29801874000</v>
+        <v>19964976000</v>
       </c>
       <c r="O30">
-        <v>-5189800</v>
+        <v>-8009000</v>
       </c>
       <c r="P30">
-        <v>-29950452000</v>
+        <v>-110305848000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672226700000</v>
+        <v>1672221480000</v>
       </c>
       <c r="B31">
-        <v>1650700</v>
+        <v>700100</v>
       </c>
       <c r="C31">
-        <v>1938700</v>
+        <v>1615700</v>
       </c>
       <c r="D31">
-        <v>9800</v>
+        <v>39900</v>
       </c>
       <c r="E31">
-        <v>27723144000</v>
+        <v>14032106000</v>
       </c>
       <c r="F31">
-        <v>37270901000</v>
+        <v>28312155000</v>
       </c>
       <c r="G31">
-        <v>485634000</v>
+        <v>473768000</v>
       </c>
       <c r="H31">
-        <v>3599200</v>
+        <v>2355700</v>
       </c>
       <c r="I31">
-        <v>65479679000</v>
+        <v>42818029000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-28T11:25:00.000Z</v>
+        <v>2022-12-28T09:58:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2569126814000</v>
+        <v>988768932000</v>
       </c>
       <c r="L31">
-        <v>158930600</v>
+        <v>63676400</v>
       </c>
       <c r="M31">
-        <v>288000</v>
+        <v>915600</v>
       </c>
       <c r="N31">
-        <v>9547757000</v>
+        <v>14280049000</v>
       </c>
       <c r="O31">
-        <v>-4901800</v>
+        <v>-7093400</v>
       </c>
       <c r="P31">
-        <v>-20402695000</v>
+        <v>-96025799000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672227000000</v>
+        <v>1672221600000</v>
       </c>
       <c r="B32">
-        <v>800</v>
+        <v>1048800</v>
       </c>
       <c r="C32">
-        <v>1100</v>
+        <v>1565600</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E32">
-        <v>13058000</v>
+        <v>17958977000</v>
       </c>
       <c r="F32">
-        <v>13445000</v>
+        <v>25160094000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>84184000</v>
       </c>
       <c r="H32">
-        <v>1900</v>
+        <v>2619100</v>
       </c>
       <c r="I32">
-        <v>26503000</v>
+        <v>43203255000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-28T11:30:00.000Z</v>
+        <v>2022-12-28T10:00:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2569153317000</v>
+        <v>1031972187000</v>
       </c>
       <c r="L32">
-        <v>158932500</v>
+        <v>66295500</v>
       </c>
       <c r="M32">
-        <v>300</v>
+        <v>516800</v>
       </c>
       <c r="N32">
-        <v>387000</v>
+        <v>7201117000</v>
       </c>
       <c r="O32">
-        <v>-4901500</v>
+        <v>-6576600</v>
       </c>
       <c r="P32">
-        <v>-20402308000</v>
+        <v>-88824682000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672232100000</v>
+        <v>1672221720000</v>
       </c>
       <c r="B33">
-        <v>1500</v>
+        <v>1861300</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>557800</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E33">
-        <v>17250000</v>
+        <v>33356722000</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>8782311000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>227524000</v>
       </c>
       <c r="H33">
-        <v>1500</v>
+        <v>2424800</v>
       </c>
       <c r="I33">
-        <v>17250000</v>
+        <v>42366557000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-28T12:55:00.000Z</v>
+        <v>2022-12-28T10:02:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2569170567000</v>
+        <v>1074338744000</v>
       </c>
       <c r="L33">
-        <v>158934000</v>
+        <v>68720300</v>
       </c>
       <c r="M33">
-        <v>-1500</v>
+        <v>-1303500</v>
       </c>
       <c r="N33">
-        <v>-17250000</v>
+        <v>-24574411000</v>
       </c>
       <c r="O33">
-        <v>-4903000</v>
+        <v>-7880100</v>
       </c>
       <c r="P33">
-        <v>-20419558000</v>
+        <v>-113399093000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672232400000</v>
+        <v>1672221840000</v>
       </c>
       <c r="B34">
-        <v>5145200</v>
+        <v>795300</v>
       </c>
       <c r="C34">
-        <v>3047200</v>
+        <v>554100</v>
       </c>
       <c r="D34">
-        <v>174100</v>
+        <v>6600</v>
       </c>
       <c r="E34">
-        <v>80893116000</v>
+        <v>12666115000</v>
       </c>
       <c r="F34">
-        <v>53489321000</v>
+        <v>11212033000</v>
       </c>
       <c r="G34">
-        <v>2541504000</v>
+        <v>85828000</v>
       </c>
       <c r="H34">
-        <v>8366500</v>
+        <v>1356000</v>
       </c>
       <c r="I34">
-        <v>136923941000</v>
+        <v>23963976000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-28T13:00:00.000Z</v>
+        <v>2022-12-28T10:04:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2706094508000</v>
+        <v>1098302720000</v>
       </c>
       <c r="L34">
-        <v>167300500</v>
+        <v>70076300</v>
       </c>
       <c r="M34">
-        <v>-2098000</v>
+        <v>-241200</v>
       </c>
       <c r="N34">
-        <v>-27403795000</v>
+        <v>-1454082000</v>
       </c>
       <c r="O34">
-        <v>-7001000</v>
+        <v>-8121300</v>
       </c>
       <c r="P34">
-        <v>-47823353000</v>
+        <v>-114853175000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672232700000</v>
+        <v>1672221960000</v>
       </c>
       <c r="B35">
-        <v>2510000</v>
+        <v>927700</v>
       </c>
       <c r="C35">
-        <v>3888700</v>
+        <v>732600</v>
       </c>
       <c r="D35">
-        <v>43800</v>
+        <v>2100</v>
       </c>
       <c r="E35">
-        <v>42645031000</v>
+        <v>15759639000</v>
       </c>
       <c r="F35">
-        <v>58757509000</v>
+        <v>10784464000</v>
       </c>
       <c r="G35">
-        <v>549664000</v>
+        <v>69157000</v>
       </c>
       <c r="H35">
-        <v>6442500</v>
+        <v>1662400</v>
       </c>
       <c r="I35">
-        <v>101952204000</v>
+        <v>26613260000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-28T13:05:00.000Z</v>
+        <v>2022-12-28T10:06:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2808046712000</v>
+        <v>1124915980000</v>
       </c>
       <c r="L35">
-        <v>173743000</v>
+        <v>71738700</v>
       </c>
       <c r="M35">
-        <v>1378700</v>
+        <v>-195100</v>
       </c>
       <c r="N35">
-        <v>16112478000</v>
+        <v>-4975175000</v>
       </c>
       <c r="O35">
-        <v>-5622300</v>
+        <v>-8316400</v>
       </c>
       <c r="P35">
-        <v>-31710875000</v>
+        <v>-119828350000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672233000000</v>
+        <v>1672222080000</v>
       </c>
       <c r="B36">
-        <v>2269900</v>
+        <v>1356700</v>
       </c>
       <c r="C36">
-        <v>2040600</v>
+        <v>385500</v>
       </c>
       <c r="D36">
-        <v>12100</v>
+        <v>27800</v>
       </c>
       <c r="E36">
-        <v>37565667000</v>
+        <v>22583560000</v>
       </c>
       <c r="F36">
-        <v>36901761000</v>
+        <v>8399695000</v>
       </c>
       <c r="G36">
-        <v>159357000</v>
+        <v>363910000</v>
       </c>
       <c r="H36">
-        <v>4322600</v>
+        <v>1770000</v>
       </c>
       <c r="I36">
-        <v>74626785000</v>
+        <v>31347165000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-28T13:10:00.000Z</v>
+        <v>2022-12-28T10:08:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2882673497000</v>
+        <v>1156263145000</v>
       </c>
       <c r="L36">
-        <v>178065600</v>
+        <v>73508700</v>
       </c>
       <c r="M36">
-        <v>-229300</v>
+        <v>-971200</v>
       </c>
       <c r="N36">
-        <v>-663906000</v>
+        <v>-14183865000</v>
       </c>
       <c r="O36">
-        <v>-5851600</v>
+        <v>-9287600</v>
       </c>
       <c r="P36">
-        <v>-32374781000</v>
+        <v>-134012215000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672233300000</v>
+        <v>1672222200000</v>
       </c>
       <c r="B37">
-        <v>1485200</v>
+        <v>1106800</v>
       </c>
       <c r="C37">
-        <v>5371900</v>
+        <v>463200</v>
       </c>
       <c r="D37">
-        <v>83300</v>
+        <v>14100</v>
       </c>
       <c r="E37">
-        <v>26272112000</v>
+        <v>19272972000</v>
       </c>
       <c r="F37">
-        <v>97087828000</v>
+        <v>9236161000</v>
       </c>
       <c r="G37">
-        <v>762616000</v>
+        <v>319965000</v>
       </c>
       <c r="H37">
-        <v>6940400</v>
+        <v>1584100</v>
       </c>
       <c r="I37">
-        <v>124122556000</v>
+        <v>28829098000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-28T13:15:00.000Z</v>
+        <v>2022-12-28T10:10:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3006796053000</v>
+        <v>1185092243000</v>
       </c>
       <c r="L37">
-        <v>185006000</v>
+        <v>75092800</v>
       </c>
       <c r="M37">
-        <v>3886700</v>
+        <v>-643600</v>
       </c>
       <c r="N37">
-        <v>70815716000</v>
+        <v>-10036811000</v>
       </c>
       <c r="O37">
-        <v>-1964900</v>
+        <v>-9931200</v>
       </c>
       <c r="P37">
-        <v>38440935000</v>
+        <v>-144049026000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672233600000</v>
+        <v>1672222320000</v>
       </c>
       <c r="B38">
-        <v>2797600</v>
+        <v>556500</v>
       </c>
       <c r="C38">
-        <v>4374500</v>
+        <v>696700</v>
       </c>
       <c r="D38">
-        <v>124700</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>45354105000</v>
+        <v>9239328000</v>
       </c>
       <c r="F38">
-        <v>65687213000</v>
+        <v>13445829000</v>
       </c>
       <c r="G38">
-        <v>4720488000</v>
+        <v>3254999.9999999995</v>
       </c>
       <c r="H38">
-        <v>7296800</v>
+        <v>1253300</v>
       </c>
       <c r="I38">
-        <v>115761806000</v>
+        <v>22688412000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-28T13:20:00.000Z</v>
+        <v>2022-12-28T10:12:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3122557859000</v>
+        <v>1207780655000</v>
       </c>
       <c r="L38">
-        <v>192302800</v>
+        <v>76346100</v>
       </c>
       <c r="M38">
-        <v>1576900</v>
+        <v>140200</v>
       </c>
       <c r="N38">
-        <v>20333108000</v>
+        <v>4206501000</v>
       </c>
       <c r="O38">
-        <v>-388000</v>
+        <v>-9791000</v>
       </c>
       <c r="P38">
-        <v>58774043000</v>
+        <v>-139842525000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672233900000</v>
+        <v>1672222440000</v>
       </c>
       <c r="B39">
-        <v>3965900</v>
+        <v>656200</v>
       </c>
       <c r="C39">
-        <v>4519200</v>
+        <v>539800</v>
       </c>
       <c r="D39">
-        <v>169500</v>
+        <v>21900</v>
       </c>
       <c r="E39">
-        <v>61229534000</v>
+        <v>11334086000</v>
       </c>
       <c r="F39">
-        <v>81277967000</v>
+        <v>10790742000</v>
       </c>
       <c r="G39">
-        <v>2631777000</v>
+        <v>1424280000</v>
       </c>
       <c r="H39">
-        <v>8654600</v>
+        <v>1217900</v>
       </c>
       <c r="I39">
-        <v>145139278000</v>
+        <v>23549108000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-28T13:25:00.000Z</v>
+        <v>2022-12-28T10:14:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3267697137000</v>
+        <v>1231329763000</v>
       </c>
       <c r="L39">
-        <v>200957400</v>
+        <v>77564000</v>
       </c>
       <c r="M39">
-        <v>553300</v>
+        <v>-116400</v>
       </c>
       <c r="N39">
-        <v>20048433000</v>
+        <v>-543344000</v>
       </c>
       <c r="O39">
-        <v>165300</v>
+        <v>-9907400</v>
       </c>
       <c r="P39">
-        <v>78822476000</v>
+        <v>-140385869000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672234200000</v>
+        <v>1672222560000</v>
       </c>
       <c r="B40">
-        <v>2883600</v>
+        <v>1329800</v>
       </c>
       <c r="C40">
-        <v>2255400</v>
+        <v>399400</v>
       </c>
       <c r="D40">
-        <v>41100</v>
+        <v>3700</v>
       </c>
       <c r="E40">
-        <v>49682953000</v>
+        <v>22002889000</v>
       </c>
       <c r="F40">
-        <v>43713114000</v>
+        <v>6964554000</v>
       </c>
       <c r="G40">
-        <v>533309000</v>
+        <v>35932000</v>
       </c>
       <c r="H40">
-        <v>5180100</v>
+        <v>1732900</v>
       </c>
       <c r="I40">
-        <v>93929376000</v>
+        <v>29003375000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-28T13:30:00.000Z</v>
+        <v>2022-12-28T10:16:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3361626513000</v>
+        <v>1260333138000</v>
       </c>
       <c r="L40">
-        <v>206137500</v>
+        <v>79296900</v>
       </c>
       <c r="M40">
-        <v>-628200</v>
+        <v>-930400</v>
       </c>
       <c r="N40">
-        <v>-5969839000</v>
+        <v>-15038335000</v>
       </c>
       <c r="O40">
-        <v>-462900</v>
+        <v>-10837800</v>
       </c>
       <c r="P40">
-        <v>72852637000</v>
+        <v>-155424204000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672234500000</v>
+        <v>1672222680000</v>
       </c>
       <c r="B41">
-        <v>2039900</v>
+        <v>875500</v>
       </c>
       <c r="C41">
-        <v>6003200</v>
+        <v>782400</v>
       </c>
       <c r="D41">
-        <v>59000</v>
+        <v>5900</v>
       </c>
       <c r="E41">
-        <v>36670826000</v>
+        <v>12890780000</v>
       </c>
       <c r="F41">
-        <v>114226222000</v>
+        <v>15285586000</v>
       </c>
       <c r="G41">
-        <v>3119521000</v>
+        <v>201860000</v>
       </c>
       <c r="H41">
-        <v>8102100</v>
+        <v>1663800</v>
       </c>
       <c r="I41">
-        <v>154016569000</v>
+        <v>28378226000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-28T13:35:00.000Z</v>
+        <v>2022-12-28T10:18:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3515643082000</v>
+        <v>1288711364000</v>
       </c>
       <c r="L41">
-        <v>214239600</v>
+        <v>80960700</v>
       </c>
       <c r="M41">
-        <v>3963300</v>
+        <v>-93100</v>
       </c>
       <c r="N41">
-        <v>77555396000</v>
+        <v>2394806000</v>
       </c>
       <c r="O41">
-        <v>3500400</v>
+        <v>-10930900</v>
       </c>
       <c r="P41">
-        <v>150408033000</v>
+        <v>-153029398000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672234800000</v>
+        <v>1672222800000</v>
       </c>
       <c r="B42">
-        <v>3751300</v>
+        <v>787200</v>
       </c>
       <c r="C42">
-        <v>9241700</v>
+        <v>626900</v>
       </c>
       <c r="D42">
-        <v>122700</v>
+        <v>12400</v>
       </c>
       <c r="E42">
-        <v>64368882000</v>
+        <v>12934770000</v>
       </c>
       <c r="F42">
-        <v>166229888000</v>
+        <v>13604059000</v>
       </c>
       <c r="G42">
-        <v>2151448000</v>
+        <v>290585000</v>
       </c>
       <c r="H42">
-        <v>13115700</v>
+        <v>1426500</v>
       </c>
       <c r="I42">
-        <v>232750218000</v>
+        <v>26829414000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-28T13:40:00.000Z</v>
+        <v>2022-12-28T10:20:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3748393300000</v>
+        <v>1315540778000</v>
       </c>
       <c r="L42">
-        <v>227355300</v>
+        <v>82387200</v>
       </c>
       <c r="M42">
-        <v>5490400</v>
+        <v>-160300</v>
       </c>
       <c r="N42">
-        <v>101861006000</v>
+        <v>669289000</v>
       </c>
       <c r="O42">
-        <v>8990800</v>
+        <v>-11091200</v>
       </c>
       <c r="P42">
-        <v>252269039000</v>
+        <v>-152360109000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672235100000</v>
+        <v>1672222920000</v>
       </c>
       <c r="B43">
-        <v>3817700</v>
+        <v>1262700</v>
       </c>
       <c r="C43">
-        <v>6082700</v>
+        <v>704300</v>
       </c>
       <c r="D43">
-        <v>44400</v>
+        <v>8000</v>
       </c>
       <c r="E43">
-        <v>64925551000</v>
+        <v>13523384000</v>
       </c>
       <c r="F43">
-        <v>106084281000</v>
+        <v>12554815000</v>
       </c>
       <c r="G43">
-        <v>702357000</v>
+        <v>175595000</v>
       </c>
       <c r="H43">
-        <v>9944800</v>
+        <v>1975000</v>
       </c>
       <c r="I43">
-        <v>171712189000</v>
+        <v>26253794000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-28T13:45:00.000Z</v>
+        <v>2022-12-28T10:22:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3920105489000</v>
+        <v>1341794572000</v>
       </c>
       <c r="L43">
-        <v>237300100</v>
+        <v>84362200</v>
       </c>
       <c r="M43">
-        <v>2265000</v>
+        <v>-558400</v>
       </c>
       <c r="N43">
-        <v>41158730000</v>
+        <v>-968569000</v>
       </c>
       <c r="O43">
-        <v>11255800</v>
+        <v>-11649600</v>
       </c>
       <c r="P43">
-        <v>293427769000</v>
+        <v>-153328678000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672235400000</v>
+        <v>1672223040000</v>
       </c>
       <c r="B44">
-        <v>7391900</v>
+        <v>666900</v>
       </c>
       <c r="C44">
-        <v>2741300</v>
+        <v>1246500</v>
       </c>
       <c r="D44">
-        <v>52300</v>
+        <v>5300</v>
       </c>
       <c r="E44">
-        <v>110477831000</v>
+        <v>9132521000</v>
       </c>
       <c r="F44">
-        <v>54373422000</v>
+        <v>21822837000</v>
       </c>
       <c r="G44">
-        <v>747819000</v>
+        <v>177560000</v>
       </c>
       <c r="H44">
-        <v>10185500</v>
+        <v>1918700</v>
       </c>
       <c r="I44">
-        <v>165599072000</v>
+        <v>31132918000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-28T13:50:00.000Z</v>
+        <v>2022-12-28T10:24:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4085704561000</v>
+        <v>1372927490000</v>
       </c>
       <c r="L44">
-        <v>247485600</v>
+        <v>86280900</v>
       </c>
       <c r="M44">
-        <v>-4650600</v>
+        <v>579600</v>
       </c>
       <c r="N44">
-        <v>-56104409000</v>
+        <v>12690316000</v>
       </c>
       <c r="O44">
-        <v>6605200</v>
+        <v>-11070000</v>
       </c>
       <c r="P44">
-        <v>237323360000</v>
+        <v>-140638362000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672235700000</v>
+        <v>1672223160000</v>
       </c>
       <c r="B45">
-        <v>3512800</v>
+        <v>623900</v>
       </c>
       <c r="C45">
-        <v>2715400</v>
+        <v>1554700</v>
       </c>
       <c r="D45">
-        <v>52400</v>
+        <v>2900</v>
       </c>
       <c r="E45">
-        <v>53547551000</v>
+        <v>8791978000</v>
       </c>
       <c r="F45">
-        <v>45073909000</v>
+        <v>23157168000</v>
       </c>
       <c r="G45">
-        <v>1072170000</v>
+        <v>18011000</v>
       </c>
       <c r="H45">
-        <v>6280600</v>
+        <v>2181500</v>
       </c>
       <c r="I45">
-        <v>99693630000</v>
+        <v>31967157000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-28T13:55:00.000Z</v>
+        <v>2022-12-28T10:26:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4185398191000</v>
+        <v>1404894647000</v>
       </c>
       <c r="L45">
-        <v>253766200</v>
+        <v>88462400</v>
       </c>
       <c r="M45">
-        <v>-797400</v>
+        <v>930800</v>
       </c>
       <c r="N45">
-        <v>-8473642000</v>
+        <v>14365190000</v>
       </c>
       <c r="O45">
-        <v>5807800</v>
+        <v>-10139200</v>
       </c>
       <c r="P45">
-        <v>228849718000</v>
+        <v>-126273172000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672236000000</v>
+        <v>1672223280000</v>
       </c>
       <c r="B46">
-        <v>2200900</v>
+        <v>727500</v>
       </c>
       <c r="C46">
-        <v>5405000</v>
+        <v>1520700</v>
       </c>
       <c r="D46">
-        <v>91300</v>
+        <v>18400</v>
       </c>
       <c r="E46">
-        <v>37918561000</v>
+        <v>13751351000</v>
       </c>
       <c r="F46">
-        <v>102784763000</v>
+        <v>24506357000</v>
       </c>
       <c r="G46">
-        <v>1209929000</v>
+        <v>924420000</v>
       </c>
       <c r="H46">
-        <v>7697200</v>
+        <v>2266600</v>
       </c>
       <c r="I46">
-        <v>141913253000</v>
+        <v>39182128000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-28T14:00:00.000Z</v>
+        <v>2022-12-28T10:28:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4327311444000</v>
+        <v>1444076775000</v>
       </c>
       <c r="L46">
-        <v>261463400</v>
+        <v>90729000</v>
       </c>
       <c r="M46">
-        <v>3204100</v>
+        <v>793200</v>
       </c>
       <c r="N46">
-        <v>64866202000</v>
+        <v>10755006000</v>
       </c>
       <c r="O46">
-        <v>9011900</v>
+        <v>-9346000</v>
       </c>
       <c r="P46">
-        <v>293715920000</v>
+        <v>-115518166000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672236300000</v>
+        <v>1672223400000</v>
       </c>
       <c r="B47">
-        <v>2882400</v>
+        <v>890600</v>
       </c>
       <c r="C47">
-        <v>9115400</v>
+        <v>2088500</v>
       </c>
       <c r="D47">
-        <v>6900</v>
+        <v>15400</v>
       </c>
       <c r="E47">
-        <v>51608010000</v>
+        <v>14568656000</v>
       </c>
       <c r="F47">
-        <v>157362557000</v>
+        <v>29759119000</v>
       </c>
       <c r="G47">
-        <v>88342000</v>
+        <v>1083512000</v>
       </c>
       <c r="H47">
-        <v>12004700</v>
+        <v>2994500</v>
       </c>
       <c r="I47">
-        <v>209058909000</v>
+        <v>45411287000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-28T14:05:00.000Z</v>
+        <v>2022-12-28T10:30:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4536370353000</v>
+        <v>1489488062000</v>
       </c>
       <c r="L47">
-        <v>273468100</v>
+        <v>93723500</v>
       </c>
       <c r="M47">
-        <v>6233000</v>
+        <v>1197900</v>
       </c>
       <c r="N47">
-        <v>105754547000</v>
+        <v>15190463000</v>
       </c>
       <c r="O47">
-        <v>15244900</v>
+        <v>-8148100</v>
       </c>
       <c r="P47">
-        <v>399470467000</v>
+        <v>-100327703000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672236600000</v>
+        <v>1672223520000</v>
       </c>
       <c r="B48">
-        <v>5840300</v>
+        <v>622200</v>
       </c>
       <c r="C48">
-        <v>20606500</v>
+        <v>3111500</v>
       </c>
       <c r="D48">
-        <v>182400</v>
+        <v>3100</v>
       </c>
       <c r="E48">
-        <v>114719349000</v>
+        <v>8314082000</v>
       </c>
       <c r="F48">
-        <v>372017169000</v>
+        <v>42584418000</v>
       </c>
       <c r="G48">
-        <v>3628151000</v>
+        <v>86377000</v>
       </c>
       <c r="H48">
-        <v>26629200</v>
+        <v>3736800</v>
       </c>
       <c r="I48">
-        <v>490364669000</v>
+        <v>50984877000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-28T14:10:00.000Z</v>
+        <v>2022-12-28T10:32:00.000Z</v>
       </c>
       <c r="K48">
-        <v>5026735022000</v>
+        <v>1540472939000</v>
       </c>
       <c r="L48">
-        <v>300097300</v>
+        <v>97460300</v>
       </c>
       <c r="M48">
-        <v>14766200</v>
+        <v>2489300</v>
       </c>
       <c r="N48">
-        <v>257297820000</v>
+        <v>34270336000</v>
       </c>
       <c r="O48">
-        <v>30011100</v>
+        <v>-5658800</v>
       </c>
       <c r="P48">
-        <v>656768287000</v>
+        <v>-66057367000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672236900000</v>
+        <v>1672223640000</v>
       </c>
       <c r="B49">
-        <v>7699000</v>
+        <v>1986300</v>
       </c>
       <c r="C49">
-        <v>7053200</v>
+        <v>3625200</v>
       </c>
       <c r="D49">
-        <v>64300</v>
+        <v>82200</v>
       </c>
       <c r="E49">
-        <v>141328962000</v>
+        <v>27037837000</v>
       </c>
       <c r="F49">
-        <v>136290627000</v>
+        <v>47360263000</v>
       </c>
       <c r="G49">
-        <v>980113000</v>
+        <v>1010765000</v>
       </c>
       <c r="H49">
-        <v>14816500</v>
+        <v>5693700</v>
       </c>
       <c r="I49">
-        <v>278599702000</v>
+        <v>75408865000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-28T14:15:00.000Z</v>
+        <v>2022-12-28T10:34:00.000Z</v>
       </c>
       <c r="K49">
-        <v>5305334724000</v>
+        <v>1615881804000</v>
       </c>
       <c r="L49">
-        <v>314913800</v>
+        <v>103154000</v>
       </c>
       <c r="M49">
-        <v>-645800</v>
+        <v>1638900</v>
       </c>
       <c r="N49">
-        <v>-5038335000</v>
+        <v>20322426000</v>
       </c>
       <c r="O49">
-        <v>29365300</v>
+        <v>-4019900</v>
       </c>
       <c r="P49">
-        <v>651729952000</v>
+        <v>-45734941000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672237200000</v>
+        <v>1672223760000</v>
       </c>
       <c r="B50">
-        <v>9127700</v>
+        <v>3133700</v>
       </c>
       <c r="C50">
-        <v>7339300</v>
+        <v>2005500</v>
       </c>
       <c r="D50">
-        <v>85000</v>
+        <v>31300</v>
       </c>
       <c r="E50">
-        <v>154911921000</v>
+        <v>47962254000</v>
       </c>
       <c r="F50">
-        <v>138078879000</v>
+        <v>27412037000</v>
       </c>
       <c r="G50">
-        <v>2489547000</v>
+        <v>306753000</v>
       </c>
       <c r="H50">
-        <v>16552000</v>
+        <v>5170500</v>
       </c>
       <c r="I50">
-        <v>295480347000</v>
+        <v>75681044000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-28T14:20:00.000Z</v>
+        <v>2022-12-28T10:36:00.000Z</v>
       </c>
       <c r="K50">
-        <v>5600815071000</v>
+        <v>1691562848000</v>
       </c>
       <c r="L50">
-        <v>331465800</v>
+        <v>108324500</v>
       </c>
       <c r="M50">
-        <v>-1788400</v>
+        <v>-1128200</v>
       </c>
       <c r="N50">
-        <v>-16833042000</v>
+        <v>-20550217000</v>
       </c>
       <c r="O50">
-        <v>27576900</v>
+        <v>-5148100</v>
       </c>
       <c r="P50">
-        <v>634896910000</v>
+        <v>-66285158000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672237500000</v>
+        <v>1672223880000</v>
       </c>
       <c r="B51">
-        <v>9399500</v>
+        <v>1114100</v>
       </c>
       <c r="C51">
-        <v>6253600</v>
+        <v>1266000</v>
       </c>
       <c r="D51">
-        <v>166600</v>
+        <v>23900</v>
       </c>
       <c r="E51">
-        <v>143053115000</v>
+        <v>16582201000</v>
       </c>
       <c r="F51">
-        <v>111070689000</v>
+        <v>18409363000</v>
       </c>
       <c r="G51">
-        <v>4475485000</v>
+        <v>627224000</v>
       </c>
       <c r="H51">
-        <v>15819700</v>
+        <v>2404000</v>
       </c>
       <c r="I51">
-        <v>258599289000</v>
+        <v>35618788000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-28T14:25:00.000Z</v>
+        <v>2022-12-28T10:38:00.000Z</v>
       </c>
       <c r="K51">
-        <v>5859414360000</v>
+        <v>1727181636000</v>
       </c>
       <c r="L51">
-        <v>347285500</v>
+        <v>110728500</v>
       </c>
       <c r="M51">
-        <v>-3145900</v>
+        <v>151900</v>
       </c>
       <c r="N51">
-        <v>-31982426000</v>
+        <v>1827162000</v>
       </c>
       <c r="O51">
-        <v>24431000</v>
+        <v>-4996200</v>
       </c>
       <c r="P51">
-        <v>602914484000</v>
+        <v>-64457996000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672237800000</v>
+        <v>1672224000000</v>
       </c>
       <c r="B52">
-        <v>17500</v>
+        <v>1335300</v>
       </c>
       <c r="C52">
-        <v>2500</v>
+        <v>675400</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E52">
-        <v>213369000</v>
+        <v>24215187000</v>
       </c>
       <c r="F52">
-        <v>46050000</v>
+        <v>12990151000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>78600000</v>
       </c>
       <c r="H52">
-        <v>20000</v>
+        <v>2011400</v>
       </c>
       <c r="I52">
-        <v>259419000</v>
+        <v>37283938000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-28T14:30:00.000Z</v>
+        <v>2022-12-28T10:40:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5859673779000</v>
+        <v>1764465574000</v>
       </c>
       <c r="L52">
-        <v>347305500</v>
+        <v>112739900</v>
       </c>
       <c r="M52">
-        <v>-15000</v>
+        <v>-659900</v>
       </c>
       <c r="N52">
-        <v>-167319000</v>
+        <v>-11225036000</v>
       </c>
       <c r="O52">
-        <v>24416000</v>
+        <v>-5656100</v>
       </c>
       <c r="P52">
-        <v>602747165000</v>
+        <v>-75683032000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672238400000</v>
+        <v>1672224120000</v>
       </c>
       <c r="B53">
-        <v>377600</v>
+        <v>770500</v>
       </c>
       <c r="C53">
-        <v>12500</v>
+        <v>880400</v>
       </c>
       <c r="D53">
-        <v>1153300</v>
+        <v>700</v>
       </c>
       <c r="E53">
-        <v>2471703000</v>
+        <v>13439234000</v>
       </c>
       <c r="F53">
-        <v>120461000</v>
+        <v>17386061000</v>
       </c>
       <c r="G53">
-        <v>13410531000</v>
+        <v>6735000</v>
       </c>
       <c r="H53">
-        <v>1543400</v>
+        <v>1651600</v>
       </c>
       <c r="I53">
-        <v>16002695000</v>
+        <v>30832030000</v>
       </c>
       <c r="J53" t="str">
-        <v>2022-12-28T14:40:00.000Z</v>
+        <v>2022-12-28T10:42:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5875676474000</v>
+        <v>1795297604000</v>
       </c>
       <c r="L53">
-        <v>348848900</v>
+        <v>114391500</v>
       </c>
       <c r="M53">
-        <v>-365100</v>
+        <v>109900</v>
       </c>
       <c r="N53">
-        <v>-2351242000</v>
+        <v>3946827000</v>
       </c>
       <c r="O53">
-        <v>24050900</v>
+        <v>-5546200</v>
       </c>
       <c r="P53">
-        <v>600395923000</v>
+        <v>-71736205000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672238700000</v>
+        <v>1672224240000</v>
       </c>
       <c r="B54">
-        <v>1825000</v>
+        <v>542900</v>
       </c>
       <c r="C54">
-        <v>1998600</v>
+        <v>897400</v>
       </c>
       <c r="D54">
-        <v>20889000</v>
+        <v>4100</v>
       </c>
       <c r="E54">
-        <v>35307051000</v>
+        <v>7770512000</v>
       </c>
       <c r="F54">
-        <v>56569864000</v>
+        <v>16593451000</v>
       </c>
       <c r="G54">
-        <v>425844378000</v>
+        <v>186883000</v>
       </c>
       <c r="H54">
-        <v>24712600</v>
+        <v>1444400</v>
       </c>
       <c r="I54">
-        <v>517721293000</v>
+        <v>24550846000</v>
       </c>
       <c r="J54" t="str">
-        <v>2022-12-28T14:45:00.000Z</v>
+        <v>2022-12-28T10:44:00.000Z</v>
       </c>
       <c r="K54">
+        <v>1819848450000</v>
+      </c>
+      <c r="L54">
+        <v>115835900</v>
+      </c>
+      <c r="M54">
+        <v>354500</v>
+      </c>
+      <c r="N54">
+        <v>8822939000</v>
+      </c>
+      <c r="O54">
+        <v>-5191700</v>
+      </c>
+      <c r="P54">
+        <v>-62913266000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1672224360000</v>
+      </c>
+      <c r="B55">
+        <v>302000</v>
+      </c>
+      <c r="C55">
+        <v>1301100</v>
+      </c>
+      <c r="D55">
+        <v>13900</v>
+      </c>
+      <c r="E55">
+        <v>6211463000</v>
+      </c>
+      <c r="F55">
+        <v>27435676000</v>
+      </c>
+      <c r="G55">
+        <v>308060000</v>
+      </c>
+      <c r="H55">
+        <v>1617000</v>
+      </c>
+      <c r="I55">
+        <v>33955199000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-28T10:46:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>1853803649000</v>
+      </c>
+      <c r="L55">
+        <v>117452900</v>
+      </c>
+      <c r="M55">
+        <v>999100</v>
+      </c>
+      <c r="N55">
+        <v>21224213000</v>
+      </c>
+      <c r="O55">
+        <v>-4192600</v>
+      </c>
+      <c r="P55">
+        <v>-41689053000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1672224480000</v>
+      </c>
+      <c r="B56">
+        <v>570600</v>
+      </c>
+      <c r="C56">
+        <v>1946900</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="E56">
+        <v>10063832000</v>
+      </c>
+      <c r="F56">
+        <v>32786177000</v>
+      </c>
+      <c r="G56">
+        <v>9100000</v>
+      </c>
+      <c r="H56">
+        <v>2518000</v>
+      </c>
+      <c r="I56">
+        <v>42859109000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-28T10:48:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>1896662758000</v>
+      </c>
+      <c r="L56">
+        <v>119970900</v>
+      </c>
+      <c r="M56">
+        <v>1376300</v>
+      </c>
+      <c r="N56">
+        <v>22722345000</v>
+      </c>
+      <c r="O56">
+        <v>-2816300</v>
+      </c>
+      <c r="P56">
+        <v>-18966708000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672224600000</v>
+      </c>
+      <c r="B57">
+        <v>685700</v>
+      </c>
+      <c r="C57">
+        <v>2031000</v>
+      </c>
+      <c r="D57">
+        <v>5500</v>
+      </c>
+      <c r="E57">
+        <v>11738888000</v>
+      </c>
+      <c r="F57">
+        <v>34228577000</v>
+      </c>
+      <c r="G57">
+        <v>92480000</v>
+      </c>
+      <c r="H57">
+        <v>2722200</v>
+      </c>
+      <c r="I57">
+        <v>46059945000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-28T10:50:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>1942722703000</v>
+      </c>
+      <c r="L57">
+        <v>122693100</v>
+      </c>
+      <c r="M57">
+        <v>1345300</v>
+      </c>
+      <c r="N57">
+        <v>22489689000</v>
+      </c>
+      <c r="O57">
+        <v>-1471000</v>
+      </c>
+      <c r="P57">
+        <v>3522981000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672224720000</v>
+      </c>
+      <c r="B58">
+        <v>931300</v>
+      </c>
+      <c r="C58">
+        <v>2500500</v>
+      </c>
+      <c r="D58">
+        <v>4400</v>
+      </c>
+      <c r="E58">
+        <v>13116082000</v>
+      </c>
+      <c r="F58">
+        <v>44071302000</v>
+      </c>
+      <c r="G58">
+        <v>95241000</v>
+      </c>
+      <c r="H58">
+        <v>3436200</v>
+      </c>
+      <c r="I58">
+        <v>57282625000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-28T10:52:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2000005328000</v>
+      </c>
+      <c r="L58">
+        <v>126129300</v>
+      </c>
+      <c r="M58">
+        <v>1569200</v>
+      </c>
+      <c r="N58">
+        <v>30955220000</v>
+      </c>
+      <c r="O58">
+        <v>98200</v>
+      </c>
+      <c r="P58">
+        <v>34478201000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672224840000</v>
+      </c>
+      <c r="B59">
+        <v>1072500</v>
+      </c>
+      <c r="C59">
+        <v>1982200</v>
+      </c>
+      <c r="D59">
+        <v>20200</v>
+      </c>
+      <c r="E59">
+        <v>16447880000</v>
+      </c>
+      <c r="F59">
+        <v>36013175000</v>
+      </c>
+      <c r="G59">
+        <v>236184000</v>
+      </c>
+      <c r="H59">
+        <v>3074900</v>
+      </c>
+      <c r="I59">
+        <v>52697239000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-28T10:54:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2052702567000</v>
+      </c>
+      <c r="L59">
+        <v>129204200</v>
+      </c>
+      <c r="M59">
+        <v>909700</v>
+      </c>
+      <c r="N59">
+        <v>19565295000</v>
+      </c>
+      <c r="O59">
+        <v>1007900</v>
+      </c>
+      <c r="P59">
+        <v>54043496000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672224960000</v>
+      </c>
+      <c r="B60">
+        <v>1206900</v>
+      </c>
+      <c r="C60">
+        <v>1754900</v>
+      </c>
+      <c r="D60">
+        <v>21700</v>
+      </c>
+      <c r="E60">
+        <v>20401040000</v>
+      </c>
+      <c r="F60">
+        <v>26689587000</v>
+      </c>
+      <c r="G60">
+        <v>281347000</v>
+      </c>
+      <c r="H60">
+        <v>2983500</v>
+      </c>
+      <c r="I60">
+        <v>47371974000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-28T10:56:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2100074541000</v>
+      </c>
+      <c r="L60">
+        <v>132187700</v>
+      </c>
+      <c r="M60">
+        <v>548000</v>
+      </c>
+      <c r="N60">
+        <v>6288547000</v>
+      </c>
+      <c r="O60">
+        <v>1555900</v>
+      </c>
+      <c r="P60">
+        <v>60332043000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672225080000</v>
+      </c>
+      <c r="B61">
+        <v>1145400</v>
+      </c>
+      <c r="C61">
+        <v>933000</v>
+      </c>
+      <c r="D61">
+        <v>5900</v>
+      </c>
+      <c r="E61">
+        <v>16812967000</v>
+      </c>
+      <c r="F61">
+        <v>16641066000</v>
+      </c>
+      <c r="G61">
+        <v>90240000</v>
+      </c>
+      <c r="H61">
+        <v>2084300</v>
+      </c>
+      <c r="I61">
+        <v>33544273000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-28T10:58:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2133618814000</v>
+      </c>
+      <c r="L61">
+        <v>134272000</v>
+      </c>
+      <c r="M61">
+        <v>-212400</v>
+      </c>
+      <c r="N61">
+        <v>-171901000</v>
+      </c>
+      <c r="O61">
+        <v>1343500</v>
+      </c>
+      <c r="P61">
+        <v>60160142000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672225200000</v>
+      </c>
+      <c r="B62">
+        <v>1659000</v>
+      </c>
+      <c r="C62">
+        <v>557500</v>
+      </c>
+      <c r="D62">
+        <v>12800</v>
+      </c>
+      <c r="E62">
+        <v>26553396000</v>
+      </c>
+      <c r="F62">
+        <v>10121956000</v>
+      </c>
+      <c r="G62">
+        <v>376680000</v>
+      </c>
+      <c r="H62">
+        <v>2229300</v>
+      </c>
+      <c r="I62">
+        <v>37052032000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-28T11:00:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2170670846000</v>
+      </c>
+      <c r="L62">
+        <v>136501300</v>
+      </c>
+      <c r="M62">
+        <v>-1101500</v>
+      </c>
+      <c r="N62">
+        <v>-16431440000</v>
+      </c>
+      <c r="O62">
+        <v>242000</v>
+      </c>
+      <c r="P62">
+        <v>43728702000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672225320000</v>
+      </c>
+      <c r="B63">
+        <v>1566700</v>
+      </c>
+      <c r="C63">
+        <v>410500</v>
+      </c>
+      <c r="D63">
+        <v>9700</v>
+      </c>
+      <c r="E63">
+        <v>24506559000</v>
+      </c>
+      <c r="F63">
+        <v>7938686000</v>
+      </c>
+      <c r="G63">
+        <v>124318000</v>
+      </c>
+      <c r="H63">
+        <v>1986900</v>
+      </c>
+      <c r="I63">
+        <v>32569563000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-28T11:02:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2203240409000</v>
+      </c>
+      <c r="L63">
+        <v>138488200</v>
+      </c>
+      <c r="M63">
+        <v>-1156200</v>
+      </c>
+      <c r="N63">
+        <v>-16567873000</v>
+      </c>
+      <c r="O63">
+        <v>-914200</v>
+      </c>
+      <c r="P63">
+        <v>27160829000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672225440000</v>
+      </c>
+      <c r="B64">
+        <v>824500</v>
+      </c>
+      <c r="C64">
+        <v>960800</v>
+      </c>
+      <c r="D64">
+        <v>5800</v>
+      </c>
+      <c r="E64">
+        <v>13654420000</v>
+      </c>
+      <c r="F64">
+        <v>16319306000</v>
+      </c>
+      <c r="G64">
+        <v>219800000</v>
+      </c>
+      <c r="H64">
+        <v>1791100</v>
+      </c>
+      <c r="I64">
+        <v>30193526000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-28T11:04:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2233433935000</v>
+      </c>
+      <c r="L64">
+        <v>140279300</v>
+      </c>
+      <c r="M64">
+        <v>136300</v>
+      </c>
+      <c r="N64">
+        <v>2664886000</v>
+      </c>
+      <c r="O64">
+        <v>-777900</v>
+      </c>
+      <c r="P64">
+        <v>29825715000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672225560000</v>
+      </c>
+      <c r="B65">
+        <v>1053700</v>
+      </c>
+      <c r="C65">
+        <v>947700</v>
+      </c>
+      <c r="D65">
+        <v>5300</v>
+      </c>
+      <c r="E65">
+        <v>17683969000</v>
+      </c>
+      <c r="F65">
+        <v>15475127000</v>
+      </c>
+      <c r="G65">
+        <v>36209000</v>
+      </c>
+      <c r="H65">
+        <v>2006700</v>
+      </c>
+      <c r="I65">
+        <v>33195305000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-28T11:06:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2266629240000</v>
+      </c>
+      <c r="L65">
+        <v>142286000</v>
+      </c>
+      <c r="M65">
+        <v>-106000</v>
+      </c>
+      <c r="N65">
+        <v>-2208842000</v>
+      </c>
+      <c r="O65">
+        <v>-883900</v>
+      </c>
+      <c r="P65">
+        <v>27616873000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672225680000</v>
+      </c>
+      <c r="B66">
+        <v>799400</v>
+      </c>
+      <c r="C66">
+        <v>518500</v>
+      </c>
+      <c r="D66">
+        <v>5200</v>
+      </c>
+      <c r="E66">
+        <v>14472595000</v>
+      </c>
+      <c r="F66">
+        <v>9629437000</v>
+      </c>
+      <c r="G66">
+        <v>29320000</v>
+      </c>
+      <c r="H66">
+        <v>1323100</v>
+      </c>
+      <c r="I66">
+        <v>24131352000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-28T11:08:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2290760592000</v>
+      </c>
+      <c r="L66">
+        <v>143609100</v>
+      </c>
+      <c r="M66">
+        <v>-280900</v>
+      </c>
+      <c r="N66">
+        <v>-4843158000</v>
+      </c>
+      <c r="O66">
+        <v>-1164800</v>
+      </c>
+      <c r="P66">
+        <v>22773715000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672225800000</v>
+      </c>
+      <c r="B67">
+        <v>1709400</v>
+      </c>
+      <c r="C67">
+        <v>355900</v>
+      </c>
+      <c r="D67">
+        <v>19300</v>
+      </c>
+      <c r="E67">
+        <v>25367016000</v>
+      </c>
+      <c r="F67">
+        <v>7784125000</v>
+      </c>
+      <c r="G67">
+        <v>467470000</v>
+      </c>
+      <c r="H67">
+        <v>2084600</v>
+      </c>
+      <c r="I67">
+        <v>33618611000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-28T11:10:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2324379203000</v>
+      </c>
+      <c r="L67">
+        <v>145693700</v>
+      </c>
+      <c r="M67">
+        <v>-1353500</v>
+      </c>
+      <c r="N67">
+        <v>-17582891000</v>
+      </c>
+      <c r="O67">
+        <v>-2518300</v>
+      </c>
+      <c r="P67">
+        <v>5190824000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672225920000</v>
+      </c>
+      <c r="B68">
+        <v>572400</v>
+      </c>
+      <c r="C68">
+        <v>341600</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>9197560000</v>
+      </c>
+      <c r="F68">
+        <v>7394278000</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>914000</v>
+      </c>
+      <c r="I68">
+        <v>16591838000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-28T11:12:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2340971041000</v>
+      </c>
+      <c r="L68">
+        <v>146607700</v>
+      </c>
+      <c r="M68">
+        <v>-230800</v>
+      </c>
+      <c r="N68">
+        <v>-1803282000</v>
+      </c>
+      <c r="O68">
+        <v>-2749100</v>
+      </c>
+      <c r="P68">
+        <v>3387542000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672226040000</v>
+      </c>
+      <c r="B69">
+        <v>676400</v>
+      </c>
+      <c r="C69">
+        <v>543100</v>
+      </c>
+      <c r="D69">
+        <v>1000</v>
+      </c>
+      <c r="E69">
+        <v>13994761000</v>
+      </c>
+      <c r="F69">
+        <v>10238061000</v>
+      </c>
+      <c r="G69">
+        <v>62300000</v>
+      </c>
+      <c r="H69">
+        <v>1220500</v>
+      </c>
+      <c r="I69">
+        <v>24295122000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-28T11:14:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2365266163000</v>
+      </c>
+      <c r="L69">
+        <v>147828200</v>
+      </c>
+      <c r="M69">
+        <v>-133300</v>
+      </c>
+      <c r="N69">
+        <v>-3756700000</v>
+      </c>
+      <c r="O69">
+        <v>-2882400</v>
+      </c>
+      <c r="P69">
+        <v>-369158000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672226160000</v>
+      </c>
+      <c r="B70">
+        <v>660600</v>
+      </c>
+      <c r="C70">
+        <v>554100</v>
+      </c>
+      <c r="D70">
+        <v>4600</v>
+      </c>
+      <c r="E70">
+        <v>10471478000</v>
+      </c>
+      <c r="F70">
+        <v>12098612000</v>
+      </c>
+      <c r="G70">
+        <v>82420000</v>
+      </c>
+      <c r="H70">
+        <v>1219300</v>
+      </c>
+      <c r="I70">
+        <v>22652510000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-28T11:16:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2387918673000</v>
+      </c>
+      <c r="L70">
+        <v>149047500</v>
+      </c>
+      <c r="M70">
+        <v>-106500</v>
+      </c>
+      <c r="N70">
+        <v>1627134000</v>
+      </c>
+      <c r="O70">
+        <v>-2988900</v>
+      </c>
+      <c r="P70">
+        <v>1257976000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672226280000</v>
+      </c>
+      <c r="B71">
+        <v>715000</v>
+      </c>
+      <c r="C71">
+        <v>517100</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>12633554000</v>
+      </c>
+      <c r="F71">
+        <v>11227000000</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1232100</v>
+      </c>
+      <c r="I71">
+        <v>23860554000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-28T11:18:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>2411779227000</v>
+      </c>
+      <c r="L71">
+        <v>150279600</v>
+      </c>
+      <c r="M71">
+        <v>-197900</v>
+      </c>
+      <c r="N71">
+        <v>-1406554000</v>
+      </c>
+      <c r="O71">
+        <v>-3186800</v>
+      </c>
+      <c r="P71">
+        <v>-148578000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672226400000</v>
+      </c>
+      <c r="B72">
+        <v>1368500</v>
+      </c>
+      <c r="C72">
+        <v>529800</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>25078373000</v>
+      </c>
+      <c r="F72">
+        <v>10489619000</v>
+      </c>
+      <c r="G72">
+        <v>4240000</v>
+      </c>
+      <c r="H72">
+        <v>1898400</v>
+      </c>
+      <c r="I72">
+        <v>35572232000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-28T11:20:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>2447351459000</v>
+      </c>
+      <c r="L72">
+        <v>152178000</v>
+      </c>
+      <c r="M72">
+        <v>-838700</v>
+      </c>
+      <c r="N72">
+        <v>-14588754000</v>
+      </c>
+      <c r="O72">
+        <v>-4025500</v>
+      </c>
+      <c r="P72">
+        <v>-14737332000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672226520000</v>
+      </c>
+      <c r="B73">
+        <v>1612600</v>
+      </c>
+      <c r="C73">
+        <v>703600</v>
+      </c>
+      <c r="D73">
+        <v>11900</v>
+      </c>
+      <c r="E73">
+        <v>26637524000</v>
+      </c>
+      <c r="F73">
+        <v>13647851000</v>
+      </c>
+      <c r="G73">
+        <v>157500000</v>
+      </c>
+      <c r="H73">
+        <v>2328100</v>
+      </c>
+      <c r="I73">
+        <v>40442875000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-28T11:22:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>2487794334000</v>
+      </c>
+      <c r="L73">
+        <v>154506100</v>
+      </c>
+      <c r="M73">
+        <v>-909000</v>
+      </c>
+      <c r="N73">
+        <v>-12989673000</v>
+      </c>
+      <c r="O73">
+        <v>-4934500</v>
+      </c>
+      <c r="P73">
+        <v>-27727005000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672226640000</v>
+      </c>
+      <c r="B74">
+        <v>973500</v>
+      </c>
+      <c r="C74">
+        <v>664600</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>16181430000</v>
+      </c>
+      <c r="F74">
+        <v>14318657000</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1638100</v>
+      </c>
+      <c r="I74">
+        <v>30500087000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-28T11:24:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>2518294421000</v>
+      </c>
+      <c r="L74">
+        <v>156144200</v>
+      </c>
+      <c r="M74">
+        <v>-308900</v>
+      </c>
+      <c r="N74">
+        <v>-1862773000</v>
+      </c>
+      <c r="O74">
+        <v>-5243400</v>
+      </c>
+      <c r="P74">
+        <v>-29589778000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672226760000</v>
+      </c>
+      <c r="B75">
+        <v>628000</v>
+      </c>
+      <c r="C75">
+        <v>851100</v>
+      </c>
+      <c r="D75">
+        <v>1200</v>
+      </c>
+      <c r="E75">
+        <v>10570140000</v>
+      </c>
+      <c r="F75">
+        <v>13787180000</v>
+      </c>
+      <c r="G75">
+        <v>27838000</v>
+      </c>
+      <c r="H75">
+        <v>1480300</v>
+      </c>
+      <c r="I75">
+        <v>24385158000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-28T11:26:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>2542679579000</v>
+      </c>
+      <c r="L75">
+        <v>157624500</v>
+      </c>
+      <c r="M75">
+        <v>223100</v>
+      </c>
+      <c r="N75">
+        <v>3217040000</v>
+      </c>
+      <c r="O75">
+        <v>-5020300</v>
+      </c>
+      <c r="P75">
+        <v>-26372738000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672226880000</v>
+      </c>
+      <c r="B76">
+        <v>589500</v>
+      </c>
+      <c r="C76">
+        <v>708000</v>
+      </c>
+      <c r="D76">
+        <v>8600</v>
+      </c>
+      <c r="E76">
+        <v>10009698000</v>
+      </c>
+      <c r="F76">
+        <v>15979741000</v>
+      </c>
+      <c r="G76">
+        <v>457796000</v>
+      </c>
+      <c r="H76">
+        <v>1306100</v>
+      </c>
+      <c r="I76">
+        <v>26447235000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-28T11:28:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>2569126814000</v>
+      </c>
+      <c r="L76">
+        <v>158930600</v>
+      </c>
+      <c r="M76">
+        <v>118500</v>
+      </c>
+      <c r="N76">
+        <v>5970043000</v>
+      </c>
+      <c r="O76">
+        <v>-4901800</v>
+      </c>
+      <c r="P76">
+        <v>-20402695000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672227000000</v>
+      </c>
+      <c r="B77">
+        <v>800</v>
+      </c>
+      <c r="C77">
+        <v>1100</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>13058000</v>
+      </c>
+      <c r="F77">
+        <v>13445000</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1900</v>
+      </c>
+      <c r="I77">
+        <v>26503000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-28T11:30:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>2569153317000</v>
+      </c>
+      <c r="L77">
+        <v>158932500</v>
+      </c>
+      <c r="M77">
+        <v>300</v>
+      </c>
+      <c r="N77">
+        <v>387000</v>
+      </c>
+      <c r="O77">
+        <v>-4901500</v>
+      </c>
+      <c r="P77">
+        <v>-20402308000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672232280000</v>
+      </c>
+      <c r="B78">
+        <v>1500</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>17250000</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1500</v>
+      </c>
+      <c r="I78">
+        <v>17250000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-28T12:58:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>2569170567000</v>
+      </c>
+      <c r="L78">
+        <v>158934000</v>
+      </c>
+      <c r="M78">
+        <v>-1500</v>
+      </c>
+      <c r="N78">
+        <v>-17250000</v>
+      </c>
+      <c r="O78">
+        <v>-4903000</v>
+      </c>
+      <c r="P78">
+        <v>-20419558000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672232400000</v>
+      </c>
+      <c r="B79">
+        <v>3252100</v>
+      </c>
+      <c r="C79">
+        <v>1931800</v>
+      </c>
+      <c r="D79">
+        <v>159500</v>
+      </c>
+      <c r="E79">
+        <v>49601871000</v>
+      </c>
+      <c r="F79">
+        <v>34124652000</v>
+      </c>
+      <c r="G79">
+        <v>2244710000</v>
+      </c>
+      <c r="H79">
+        <v>5343400</v>
+      </c>
+      <c r="I79">
+        <v>85971233000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-28T13:00:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>2655141800000</v>
+      </c>
+      <c r="L79">
+        <v>164277400</v>
+      </c>
+      <c r="M79">
+        <v>-1320300</v>
+      </c>
+      <c r="N79">
+        <v>-15477219000</v>
+      </c>
+      <c r="O79">
+        <v>-6223300</v>
+      </c>
+      <c r="P79">
+        <v>-35896777000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672232520000</v>
+      </c>
+      <c r="B80">
+        <v>1311900</v>
+      </c>
+      <c r="C80">
+        <v>845700</v>
+      </c>
+      <c r="D80">
+        <v>5900</v>
+      </c>
+      <c r="E80">
+        <v>23782687000</v>
+      </c>
+      <c r="F80">
+        <v>13925198000</v>
+      </c>
+      <c r="G80">
+        <v>216764000</v>
+      </c>
+      <c r="H80">
+        <v>2163500</v>
+      </c>
+      <c r="I80">
+        <v>37924649000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-28T13:02:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>2693066449000</v>
+      </c>
+      <c r="L80">
+        <v>166440900</v>
+      </c>
+      <c r="M80">
+        <v>-466200</v>
+      </c>
+      <c r="N80">
+        <v>-9857489000</v>
+      </c>
+      <c r="O80">
+        <v>-6689500</v>
+      </c>
+      <c r="P80">
+        <v>-45754266000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672232640000</v>
+      </c>
+      <c r="B81">
+        <v>1226600</v>
+      </c>
+      <c r="C81">
+        <v>913200</v>
+      </c>
+      <c r="D81">
+        <v>22500</v>
+      </c>
+      <c r="E81">
+        <v>18068957000</v>
+      </c>
+      <c r="F81">
+        <v>17369967000</v>
+      </c>
+      <c r="G81">
+        <v>243687000</v>
+      </c>
+      <c r="H81">
+        <v>2162300</v>
+      </c>
+      <c r="I81">
+        <v>35682611000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-28T13:04:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>2728749060000</v>
+      </c>
+      <c r="L81">
+        <v>168603200</v>
+      </c>
+      <c r="M81">
+        <v>-313400</v>
+      </c>
+      <c r="N81">
+        <v>-698990000</v>
+      </c>
+      <c r="O81">
+        <v>-7002900</v>
+      </c>
+      <c r="P81">
+        <v>-46453256000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672232760000</v>
+      </c>
+      <c r="B82">
+        <v>815100</v>
+      </c>
+      <c r="C82">
+        <v>1694700</v>
+      </c>
+      <c r="D82">
+        <v>2200</v>
+      </c>
+      <c r="E82">
+        <v>13022816000</v>
+      </c>
+      <c r="F82">
+        <v>24671686000</v>
+      </c>
+      <c r="G82">
+        <v>21680000</v>
+      </c>
+      <c r="H82">
+        <v>2512000</v>
+      </c>
+      <c r="I82">
+        <v>37716182000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-28T13:06:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>2766465242000</v>
+      </c>
+      <c r="L82">
+        <v>171115200</v>
+      </c>
+      <c r="M82">
+        <v>879600</v>
+      </c>
+      <c r="N82">
+        <v>11648870000</v>
+      </c>
+      <c r="O82">
+        <v>-6123300</v>
+      </c>
+      <c r="P82">
+        <v>-34804386000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672232880000</v>
+      </c>
+      <c r="B83">
+        <v>1049500</v>
+      </c>
+      <c r="C83">
+        <v>1550500</v>
+      </c>
+      <c r="D83">
+        <v>27800</v>
+      </c>
+      <c r="E83">
+        <v>19061816000</v>
+      </c>
+      <c r="F83">
+        <v>22155327000</v>
+      </c>
+      <c r="G83">
+        <v>364327000</v>
+      </c>
+      <c r="H83">
+        <v>2627800</v>
+      </c>
+      <c r="I83">
+        <v>41581470000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-28T13:08:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>2808046712000</v>
+      </c>
+      <c r="L83">
+        <v>173743000</v>
+      </c>
+      <c r="M83">
+        <v>501000</v>
+      </c>
+      <c r="N83">
+        <v>3093511000</v>
+      </c>
+      <c r="O83">
+        <v>-5622300</v>
+      </c>
+      <c r="P83">
+        <v>-31710875000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672233000000</v>
+      </c>
+      <c r="B84">
+        <v>963200</v>
+      </c>
+      <c r="C84">
+        <v>499400</v>
+      </c>
+      <c r="D84">
+        <v>4100</v>
+      </c>
+      <c r="E84">
+        <v>14731442000</v>
+      </c>
+      <c r="F84">
+        <v>9034309000</v>
+      </c>
+      <c r="G84">
+        <v>23535000</v>
+      </c>
+      <c r="H84">
+        <v>1466700</v>
+      </c>
+      <c r="I84">
+        <v>23789286000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-28T13:10:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>2831835998000</v>
+      </c>
+      <c r="L84">
+        <v>175209700</v>
+      </c>
+      <c r="M84">
+        <v>-463800</v>
+      </c>
+      <c r="N84">
+        <v>-5697133000</v>
+      </c>
+      <c r="O84">
+        <v>-6086100</v>
+      </c>
+      <c r="P84">
+        <v>-37408008000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672233120000</v>
+      </c>
+      <c r="B85">
+        <v>926800</v>
+      </c>
+      <c r="C85">
+        <v>828100</v>
+      </c>
+      <c r="D85">
+        <v>8000</v>
+      </c>
+      <c r="E85">
+        <v>15084626000</v>
+      </c>
+      <c r="F85">
+        <v>14981872000</v>
+      </c>
+      <c r="G85">
+        <v>135822000</v>
+      </c>
+      <c r="H85">
+        <v>1762900</v>
+      </c>
+      <c r="I85">
+        <v>30202320000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-28T13:12:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>2862038318000</v>
+      </c>
+      <c r="L85">
+        <v>176972600</v>
+      </c>
+      <c r="M85">
+        <v>-98700</v>
+      </c>
+      <c r="N85">
+        <v>-102754000</v>
+      </c>
+      <c r="O85">
+        <v>-6184800</v>
+      </c>
+      <c r="P85">
+        <v>-37510762000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672233240000</v>
+      </c>
+      <c r="B86">
+        <v>683100</v>
+      </c>
+      <c r="C86">
+        <v>1899700</v>
+      </c>
+      <c r="D86">
+        <v>6000</v>
+      </c>
+      <c r="E86">
+        <v>12002517000</v>
+      </c>
+      <c r="F86">
+        <v>34936366000</v>
+      </c>
+      <c r="G86">
+        <v>96801000</v>
+      </c>
+      <c r="H86">
+        <v>2588800</v>
+      </c>
+      <c r="I86">
+        <v>47035684000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-28T13:14:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>2909074002000</v>
+      </c>
+      <c r="L86">
+        <v>179561400</v>
+      </c>
+      <c r="M86">
+        <v>1216600</v>
+      </c>
+      <c r="N86">
+        <v>22933849000</v>
+      </c>
+      <c r="O86">
+        <v>-4968200</v>
+      </c>
+      <c r="P86">
+        <v>-14576913000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672233360000</v>
+      </c>
+      <c r="B87">
+        <v>480600</v>
+      </c>
+      <c r="C87">
+        <v>2370900</v>
+      </c>
+      <c r="D87">
+        <v>24900</v>
+      </c>
+      <c r="E87">
+        <v>9444432000</v>
+      </c>
+      <c r="F87">
+        <v>38789688000</v>
+      </c>
+      <c r="G87">
+        <v>459443000</v>
+      </c>
+      <c r="H87">
+        <v>2876400</v>
+      </c>
+      <c r="I87">
+        <v>48693563000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-28T13:16:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>2957767565000</v>
+      </c>
+      <c r="L87">
+        <v>182437800</v>
+      </c>
+      <c r="M87">
+        <v>1890300</v>
+      </c>
+      <c r="N87">
+        <v>29345256000</v>
+      </c>
+      <c r="O87">
+        <v>-3077900</v>
+      </c>
+      <c r="P87">
+        <v>14768343000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672233480000</v>
+      </c>
+      <c r="B88">
+        <v>701400</v>
+      </c>
+      <c r="C88">
+        <v>1814400</v>
+      </c>
+      <c r="D88">
+        <v>52400</v>
+      </c>
+      <c r="E88">
+        <v>12574762000</v>
+      </c>
+      <c r="F88">
+        <v>36247354000</v>
+      </c>
+      <c r="G88">
+        <v>206372000</v>
+      </c>
+      <c r="H88">
+        <v>2568200</v>
+      </c>
+      <c r="I88">
+        <v>49028488000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-28T13:18:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>3006796053000</v>
+      </c>
+      <c r="L88">
+        <v>185006000</v>
+      </c>
+      <c r="M88">
+        <v>1113000</v>
+      </c>
+      <c r="N88">
+        <v>23672592000</v>
+      </c>
+      <c r="O88">
+        <v>-1964900</v>
+      </c>
+      <c r="P88">
+        <v>38440935000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672233600000</v>
+      </c>
+      <c r="B89">
+        <v>1028300</v>
+      </c>
+      <c r="C89">
+        <v>1665600</v>
+      </c>
+      <c r="D89">
+        <v>40800</v>
+      </c>
+      <c r="E89">
+        <v>16178575000</v>
+      </c>
+      <c r="F89">
+        <v>27746512000</v>
+      </c>
+      <c r="G89">
+        <v>1970813000</v>
+      </c>
+      <c r="H89">
+        <v>2734700</v>
+      </c>
+      <c r="I89">
+        <v>45895900000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-28T13:20:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>3052691953000</v>
+      </c>
+      <c r="L89">
+        <v>187740700</v>
+      </c>
+      <c r="M89">
+        <v>637300</v>
+      </c>
+      <c r="N89">
+        <v>11567937000</v>
+      </c>
+      <c r="O89">
+        <v>-1327600</v>
+      </c>
+      <c r="P89">
+        <v>50008872000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672233720000</v>
+      </c>
+      <c r="B90">
+        <v>1073700</v>
+      </c>
+      <c r="C90">
+        <v>1966300</v>
+      </c>
+      <c r="D90">
+        <v>21200</v>
+      </c>
+      <c r="E90">
+        <v>16045968000</v>
+      </c>
+      <c r="F90">
+        <v>27471254000</v>
+      </c>
+      <c r="G90">
+        <v>192365000</v>
+      </c>
+      <c r="H90">
+        <v>3061200</v>
+      </c>
+      <c r="I90">
+        <v>43709587000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-28T13:22:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>3096401540000</v>
+      </c>
+      <c r="L90">
+        <v>190801900</v>
+      </c>
+      <c r="M90">
+        <v>892600</v>
+      </c>
+      <c r="N90">
+        <v>11425286000</v>
+      </c>
+      <c r="O90">
+        <v>-435000</v>
+      </c>
+      <c r="P90">
+        <v>61434158000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672233840000</v>
+      </c>
+      <c r="B91">
+        <v>1569300</v>
+      </c>
+      <c r="C91">
+        <v>1593800</v>
+      </c>
+      <c r="D91">
+        <v>167400</v>
+      </c>
+      <c r="E91">
+        <v>25956959000</v>
+      </c>
+      <c r="F91">
+        <v>23733665000</v>
+      </c>
+      <c r="G91">
+        <v>3308196000</v>
+      </c>
+      <c r="H91">
+        <v>3330500</v>
+      </c>
+      <c r="I91">
+        <v>52998820000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-28T13:24:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>3149400360000</v>
+      </c>
+      <c r="L91">
+        <v>194132400</v>
+      </c>
+      <c r="M91">
+        <v>24500</v>
+      </c>
+      <c r="N91">
+        <v>-2223294000</v>
+      </c>
+      <c r="O91">
+        <v>-410500</v>
+      </c>
+      <c r="P91">
+        <v>59210864000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672233960000</v>
+      </c>
+      <c r="B92">
+        <v>1679700</v>
+      </c>
+      <c r="C92">
+        <v>1398500</v>
+      </c>
+      <c r="D92">
+        <v>25700</v>
+      </c>
+      <c r="E92">
+        <v>25173801000</v>
+      </c>
+      <c r="F92">
+        <v>26555086000</v>
+      </c>
+      <c r="G92">
+        <v>164031000</v>
+      </c>
+      <c r="H92">
+        <v>3103900</v>
+      </c>
+      <c r="I92">
+        <v>51892918000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-28T13:26:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>3201293278000</v>
+      </c>
+      <c r="L92">
+        <v>197236300</v>
+      </c>
+      <c r="M92">
+        <v>-281200</v>
+      </c>
+      <c r="N92">
+        <v>1381285000</v>
+      </c>
+      <c r="O92">
+        <v>-691700</v>
+      </c>
+      <c r="P92">
+        <v>60592149000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672234080000</v>
+      </c>
+      <c r="B93">
+        <v>1412500</v>
+      </c>
+      <c r="C93">
+        <v>2269500</v>
+      </c>
+      <c r="D93">
+        <v>39100</v>
+      </c>
+      <c r="E93">
+        <v>23228336000</v>
+      </c>
+      <c r="F93">
+        <v>41458663000</v>
+      </c>
+      <c r="G93">
+        <v>1716860000</v>
+      </c>
+      <c r="H93">
+        <v>3721100</v>
+      </c>
+      <c r="I93">
+        <v>66403859000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-28T13:28:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>3267697137000</v>
+      </c>
+      <c r="L93">
+        <v>200957400</v>
+      </c>
+      <c r="M93">
+        <v>857000</v>
+      </c>
+      <c r="N93">
+        <v>18230327000</v>
+      </c>
+      <c r="O93">
+        <v>165300</v>
+      </c>
+      <c r="P93">
+        <v>78822476000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672234200000</v>
+      </c>
+      <c r="B94">
+        <v>1155000</v>
+      </c>
+      <c r="C94">
+        <v>861000</v>
+      </c>
+      <c r="D94">
+        <v>5500</v>
+      </c>
+      <c r="E94">
+        <v>20337512000</v>
+      </c>
+      <c r="F94">
+        <v>16275675000</v>
+      </c>
+      <c r="G94">
+        <v>92785000</v>
+      </c>
+      <c r="H94">
+        <v>2021500</v>
+      </c>
+      <c r="I94">
+        <v>36705972000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-28T13:30:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>3304403109000</v>
+      </c>
+      <c r="L94">
+        <v>202978900</v>
+      </c>
+      <c r="M94">
+        <v>-294000</v>
+      </c>
+      <c r="N94">
+        <v>-4061837000</v>
+      </c>
+      <c r="O94">
+        <v>-128700</v>
+      </c>
+      <c r="P94">
+        <v>74760639000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672234320000</v>
+      </c>
+      <c r="B95">
+        <v>1068700</v>
+      </c>
+      <c r="C95">
+        <v>904700</v>
+      </c>
+      <c r="D95">
+        <v>34200</v>
+      </c>
+      <c r="E95">
+        <v>17876511000</v>
+      </c>
+      <c r="F95">
+        <v>17554313000</v>
+      </c>
+      <c r="G95">
+        <v>417127000</v>
+      </c>
+      <c r="H95">
+        <v>2007600</v>
+      </c>
+      <c r="I95">
+        <v>35847951000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-28T13:32:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>3340251060000</v>
+      </c>
+      <c r="L95">
+        <v>204986500</v>
+      </c>
+      <c r="M95">
+        <v>-164000</v>
+      </c>
+      <c r="N95">
+        <v>-322198000</v>
+      </c>
+      <c r="O95">
+        <v>-292700</v>
+      </c>
+      <c r="P95">
+        <v>74438441000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672234440000</v>
+      </c>
+      <c r="B96">
+        <v>1341400</v>
+      </c>
+      <c r="C96">
+        <v>1054000</v>
+      </c>
+      <c r="D96">
+        <v>2300</v>
+      </c>
+      <c r="E96">
+        <v>21505694000</v>
+      </c>
+      <c r="F96">
+        <v>21464974000</v>
+      </c>
+      <c r="G96">
+        <v>29877000</v>
+      </c>
+      <c r="H96">
+        <v>2397700</v>
+      </c>
+      <c r="I96">
+        <v>43000545000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-28T13:34:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>3383251605000</v>
+      </c>
+      <c r="L96">
+        <v>207384200</v>
+      </c>
+      <c r="M96">
+        <v>-287400</v>
+      </c>
+      <c r="N96">
+        <v>-40720000</v>
+      </c>
+      <c r="O96">
+        <v>-580100</v>
+      </c>
+      <c r="P96">
+        <v>74397721000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672234560000</v>
+      </c>
+      <c r="B97">
+        <v>618900</v>
+      </c>
+      <c r="C97">
+        <v>1427300</v>
+      </c>
+      <c r="D97">
+        <v>32500</v>
+      </c>
+      <c r="E97">
+        <v>11539162000</v>
+      </c>
+      <c r="F97">
+        <v>27205181000</v>
+      </c>
+      <c r="G97">
+        <v>239781000</v>
+      </c>
+      <c r="H97">
+        <v>2078700</v>
+      </c>
+      <c r="I97">
+        <v>38984124000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-28T13:36:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>3422235729000</v>
+      </c>
+      <c r="L97">
+        <v>209462900</v>
+      </c>
+      <c r="M97">
+        <v>808400</v>
+      </c>
+      <c r="N97">
+        <v>15666019000</v>
+      </c>
+      <c r="O97">
+        <v>228300</v>
+      </c>
+      <c r="P97">
+        <v>90063740000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672234680000</v>
+      </c>
+      <c r="B98">
+        <v>739500</v>
+      </c>
+      <c r="C98">
+        <v>4011600</v>
+      </c>
+      <c r="D98">
+        <v>25600</v>
+      </c>
+      <c r="E98">
+        <v>15094900000</v>
+      </c>
+      <c r="F98">
+        <v>75439193000</v>
+      </c>
+      <c r="G98">
+        <v>2873260000</v>
+      </c>
+      <c r="H98">
+        <v>4776700</v>
+      </c>
+      <c r="I98">
+        <v>93407353000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-28T13:38:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>3515643082000</v>
+      </c>
+      <c r="L98">
+        <v>214239600</v>
+      </c>
+      <c r="M98">
+        <v>3272100</v>
+      </c>
+      <c r="N98">
+        <v>60344293000</v>
+      </c>
+      <c r="O98">
+        <v>3500400</v>
+      </c>
+      <c r="P98">
+        <v>150408033000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672234800000</v>
+      </c>
+      <c r="B99">
+        <v>1580400</v>
+      </c>
+      <c r="C99">
+        <v>5026600</v>
+      </c>
+      <c r="D99">
+        <v>111500</v>
+      </c>
+      <c r="E99">
+        <v>26184080000</v>
+      </c>
+      <c r="F99">
+        <v>89311564000</v>
+      </c>
+      <c r="G99">
+        <v>1835821000</v>
+      </c>
+      <c r="H99">
+        <v>6718500</v>
+      </c>
+      <c r="I99">
+        <v>117331465000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-28T13:40:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>3632974547000</v>
+      </c>
+      <c r="L99">
+        <v>220958100</v>
+      </c>
+      <c r="M99">
+        <v>3446200</v>
+      </c>
+      <c r="N99">
+        <v>63127484000</v>
+      </c>
+      <c r="O99">
+        <v>6946600</v>
+      </c>
+      <c r="P99">
+        <v>213535517000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672234920000</v>
+      </c>
+      <c r="B100">
+        <v>1608200</v>
+      </c>
+      <c r="C100">
+        <v>3207200</v>
+      </c>
+      <c r="D100">
+        <v>7000</v>
+      </c>
+      <c r="E100">
+        <v>27897592000</v>
+      </c>
+      <c r="F100">
+        <v>58290476000</v>
+      </c>
+      <c r="G100">
+        <v>239745000</v>
+      </c>
+      <c r="H100">
+        <v>4822400</v>
+      </c>
+      <c r="I100">
+        <v>86427813000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-28T13:42:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>3719402360000</v>
+      </c>
+      <c r="L100">
+        <v>225780500</v>
+      </c>
+      <c r="M100">
+        <v>1599000</v>
+      </c>
+      <c r="N100">
+        <v>30392884000</v>
+      </c>
+      <c r="O100">
+        <v>8545600</v>
+      </c>
+      <c r="P100">
+        <v>243928401000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672235040000</v>
+      </c>
+      <c r="B101">
+        <v>1417700</v>
+      </c>
+      <c r="C101">
+        <v>2093600</v>
+      </c>
+      <c r="D101">
+        <v>9100</v>
+      </c>
+      <c r="E101">
+        <v>23760070000</v>
+      </c>
+      <c r="F101">
+        <v>37511180000</v>
+      </c>
+      <c r="G101">
+        <v>97625000</v>
+      </c>
+      <c r="H101">
+        <v>3520400</v>
+      </c>
+      <c r="I101">
+        <v>61368875000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-28T13:44:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>3780771235000</v>
+      </c>
+      <c r="L101">
+        <v>229300900</v>
+      </c>
+      <c r="M101">
+        <v>675900</v>
+      </c>
+      <c r="N101">
+        <v>13751110000</v>
+      </c>
+      <c r="O101">
+        <v>9221500</v>
+      </c>
+      <c r="P101">
+        <v>257679511000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672235160000</v>
+      </c>
+      <c r="B102">
+        <v>1067500</v>
+      </c>
+      <c r="C102">
+        <v>2842800</v>
+      </c>
+      <c r="D102">
+        <v>27900</v>
+      </c>
+      <c r="E102">
+        <v>18635547000</v>
+      </c>
+      <c r="F102">
+        <v>51280130000</v>
+      </c>
+      <c r="G102">
+        <v>474970000</v>
+      </c>
+      <c r="H102">
+        <v>3938200</v>
+      </c>
+      <c r="I102">
+        <v>70390647000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-28T13:46:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>3851161882000</v>
+      </c>
+      <c r="L102">
+        <v>233239100</v>
+      </c>
+      <c r="M102">
+        <v>1775300</v>
+      </c>
+      <c r="N102">
+        <v>32644583000</v>
+      </c>
+      <c r="O102">
+        <v>10996800</v>
+      </c>
+      <c r="P102">
+        <v>290324094000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672235280000</v>
+      </c>
+      <c r="B103">
+        <v>1895200</v>
+      </c>
+      <c r="C103">
+        <v>2154200</v>
+      </c>
+      <c r="D103">
+        <v>11600</v>
+      </c>
+      <c r="E103">
+        <v>32817144000</v>
+      </c>
+      <c r="F103">
+        <v>35920819000</v>
+      </c>
+      <c r="G103">
+        <v>205644000</v>
+      </c>
+      <c r="H103">
+        <v>4061000</v>
+      </c>
+      <c r="I103">
+        <v>68943607000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-28T13:48:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>3920105489000</v>
+      </c>
+      <c r="L103">
+        <v>237300100</v>
+      </c>
+      <c r="M103">
+        <v>259000</v>
+      </c>
+      <c r="N103">
+        <v>3103675000</v>
+      </c>
+      <c r="O103">
+        <v>11255800</v>
+      </c>
+      <c r="P103">
+        <v>293427769000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672235400000</v>
+      </c>
+      <c r="B104">
+        <v>3499200</v>
+      </c>
+      <c r="C104">
+        <v>1509200</v>
+      </c>
+      <c r="D104">
+        <v>23600</v>
+      </c>
+      <c r="E104">
+        <v>55291449000</v>
+      </c>
+      <c r="F104">
+        <v>30335264000</v>
+      </c>
+      <c r="G104">
+        <v>347284000</v>
+      </c>
+      <c r="H104">
+        <v>5032000</v>
+      </c>
+      <c r="I104">
+        <v>85973997000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-28T13:50:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>4006079486000</v>
+      </c>
+      <c r="L104">
+        <v>242332100</v>
+      </c>
+      <c r="M104">
+        <v>-1990000</v>
+      </c>
+      <c r="N104">
+        <v>-24956185000</v>
+      </c>
+      <c r="O104">
+        <v>9265800</v>
+      </c>
+      <c r="P104">
+        <v>268471584000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672235520000</v>
+      </c>
+      <c r="B105">
+        <v>2927800</v>
+      </c>
+      <c r="C105">
+        <v>810900</v>
+      </c>
+      <c r="D105">
+        <v>18500</v>
+      </c>
+      <c r="E105">
+        <v>39528854000</v>
+      </c>
+      <c r="F105">
+        <v>15522470000</v>
+      </c>
+      <c r="G105">
+        <v>320755000</v>
+      </c>
+      <c r="H105">
+        <v>3757200</v>
+      </c>
+      <c r="I105">
+        <v>55372079000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-28T13:52:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>4061451565000</v>
+      </c>
+      <c r="L105">
+        <v>246089300</v>
+      </c>
+      <c r="M105">
+        <v>-2116900</v>
+      </c>
+      <c r="N105">
+        <v>-24006384000</v>
+      </c>
+      <c r="O105">
+        <v>7148900</v>
+      </c>
+      <c r="P105">
+        <v>244465200000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672235640000</v>
+      </c>
+      <c r="B106">
+        <v>1653300</v>
+      </c>
+      <c r="C106">
+        <v>872100</v>
+      </c>
+      <c r="D106">
+        <v>10800</v>
+      </c>
+      <c r="E106">
+        <v>27261698000</v>
+      </c>
+      <c r="F106">
+        <v>15130702000</v>
+      </c>
+      <c r="G106">
+        <v>87590000</v>
+      </c>
+      <c r="H106">
+        <v>2536200</v>
+      </c>
+      <c r="I106">
+        <v>42479990000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-28T13:54:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>4103931555000</v>
+      </c>
+      <c r="L106">
+        <v>248625500</v>
+      </c>
+      <c r="M106">
+        <v>-781200</v>
+      </c>
+      <c r="N106">
+        <v>-12130996000</v>
+      </c>
+      <c r="O106">
+        <v>6367700</v>
+      </c>
+      <c r="P106">
+        <v>232334204000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672235760000</v>
+      </c>
+      <c r="B107">
+        <v>2047900</v>
+      </c>
+      <c r="C107">
+        <v>1234800</v>
+      </c>
+      <c r="D107">
+        <v>3800</v>
+      </c>
+      <c r="E107">
+        <v>31228881000</v>
+      </c>
+      <c r="F107">
+        <v>20611405000</v>
+      </c>
+      <c r="G107">
+        <v>38644000</v>
+      </c>
+      <c r="H107">
+        <v>3286500</v>
+      </c>
+      <c r="I107">
+        <v>51878930000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-28T13:56:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>4155810485000</v>
+      </c>
+      <c r="L107">
+        <v>251912000</v>
+      </c>
+      <c r="M107">
+        <v>-813100</v>
+      </c>
+      <c r="N107">
+        <v>-10617476000</v>
+      </c>
+      <c r="O107">
+        <v>5554600</v>
+      </c>
+      <c r="P107">
+        <v>221716728000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672235880000</v>
+      </c>
+      <c r="B108">
+        <v>776500</v>
+      </c>
+      <c r="C108">
+        <v>1029700</v>
+      </c>
+      <c r="D108">
+        <v>48000</v>
+      </c>
+      <c r="E108">
+        <v>10714500000</v>
+      </c>
+      <c r="F108">
+        <v>17847490000</v>
+      </c>
+      <c r="G108">
+        <v>1025716000</v>
+      </c>
+      <c r="H108">
+        <v>1854200</v>
+      </c>
+      <c r="I108">
+        <v>29587706000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-28T13:58:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>4185398191000</v>
+      </c>
+      <c r="L108">
+        <v>253766200</v>
+      </c>
+      <c r="M108">
+        <v>253200</v>
+      </c>
+      <c r="N108">
+        <v>7132990000</v>
+      </c>
+      <c r="O108">
+        <v>5807800</v>
+      </c>
+      <c r="P108">
+        <v>228849718000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672236000000</v>
+      </c>
+      <c r="B109">
+        <v>810800</v>
+      </c>
+      <c r="C109">
+        <v>1725300</v>
+      </c>
+      <c r="D109">
+        <v>33100</v>
+      </c>
+      <c r="E109">
+        <v>12997261000</v>
+      </c>
+      <c r="F109">
+        <v>29030792000</v>
+      </c>
+      <c r="G109">
+        <v>455425000</v>
+      </c>
+      <c r="H109">
+        <v>2569200</v>
+      </c>
+      <c r="I109">
+        <v>42483478000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-28T14:00:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>4227881669000</v>
+      </c>
+      <c r="L109">
+        <v>256335400</v>
+      </c>
+      <c r="M109">
+        <v>914500</v>
+      </c>
+      <c r="N109">
+        <v>16033531000</v>
+      </c>
+      <c r="O109">
+        <v>6722300</v>
+      </c>
+      <c r="P109">
+        <v>244883249000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672236120000</v>
+      </c>
+      <c r="B110">
+        <v>1160300</v>
+      </c>
+      <c r="C110">
+        <v>1881300</v>
+      </c>
+      <c r="D110">
+        <v>55500</v>
+      </c>
+      <c r="E110">
+        <v>20665648000</v>
+      </c>
+      <c r="F110">
+        <v>37983058000</v>
+      </c>
+      <c r="G110">
+        <v>720469000</v>
+      </c>
+      <c r="H110">
+        <v>3097100</v>
+      </c>
+      <c r="I110">
+        <v>59369175000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-28T14:02:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>4287250844000</v>
+      </c>
+      <c r="L110">
+        <v>259432500</v>
+      </c>
+      <c r="M110">
+        <v>721000</v>
+      </c>
+      <c r="N110">
+        <v>17317410000</v>
+      </c>
+      <c r="O110">
+        <v>7443300</v>
+      </c>
+      <c r="P110">
+        <v>262200659000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672236240000</v>
+      </c>
+      <c r="B111">
+        <v>723600</v>
+      </c>
+      <c r="C111">
+        <v>3865100</v>
+      </c>
+      <c r="D111">
+        <v>4500</v>
+      </c>
+      <c r="E111">
+        <v>13521098000</v>
+      </c>
+      <c r="F111">
+        <v>69833444000</v>
+      </c>
+      <c r="G111">
+        <v>41721000</v>
+      </c>
+      <c r="H111">
+        <v>4593200</v>
+      </c>
+      <c r="I111">
+        <v>83396263000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-28T14:04:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>4370647107000</v>
+      </c>
+      <c r="L111">
+        <v>264025700</v>
+      </c>
+      <c r="M111">
+        <v>3141500</v>
+      </c>
+      <c r="N111">
+        <v>56312346000</v>
+      </c>
+      <c r="O111">
+        <v>10584800</v>
+      </c>
+      <c r="P111">
+        <v>318513005000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672236360000</v>
+      </c>
+      <c r="B112">
+        <v>1075400</v>
+      </c>
+      <c r="C112">
+        <v>2014600</v>
+      </c>
+      <c r="D112">
+        <v>1600</v>
+      </c>
+      <c r="E112">
+        <v>19305666000</v>
+      </c>
+      <c r="F112">
+        <v>34654530000</v>
+      </c>
+      <c r="G112">
+        <v>35471000</v>
+      </c>
+      <c r="H112">
+        <v>3091600</v>
+      </c>
+      <c r="I112">
+        <v>53995667000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-28T14:06:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>4424642774000</v>
+      </c>
+      <c r="L112">
+        <v>267117300</v>
+      </c>
+      <c r="M112">
+        <v>939200</v>
+      </c>
+      <c r="N112">
+        <v>15348864000</v>
+      </c>
+      <c r="O112">
+        <v>11524000</v>
+      </c>
+      <c r="P112">
+        <v>333861869000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672236480000</v>
+      </c>
+      <c r="B113">
+        <v>1313200</v>
+      </c>
+      <c r="C113">
+        <v>5034100</v>
+      </c>
+      <c r="D113">
+        <v>3500</v>
+      </c>
+      <c r="E113">
+        <v>23036898000</v>
+      </c>
+      <c r="F113">
+        <v>88645496000</v>
+      </c>
+      <c r="G113">
+        <v>45185000</v>
+      </c>
+      <c r="H113">
+        <v>6350800</v>
+      </c>
+      <c r="I113">
+        <v>111727579000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-28T14:08:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>4536370353000</v>
+      </c>
+      <c r="L113">
+        <v>273468100</v>
+      </c>
+      <c r="M113">
+        <v>3720900</v>
+      </c>
+      <c r="N113">
+        <v>65608598000</v>
+      </c>
+      <c r="O113">
+        <v>15244900</v>
+      </c>
+      <c r="P113">
+        <v>399470467000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672236600000</v>
+      </c>
+      <c r="B114">
+        <v>845400</v>
+      </c>
+      <c r="C114">
+        <v>7937200</v>
+      </c>
+      <c r="D114">
+        <v>34900</v>
+      </c>
+      <c r="E114">
+        <v>17242164000</v>
+      </c>
+      <c r="F114">
+        <v>147823898000</v>
+      </c>
+      <c r="G114">
+        <v>749135000</v>
+      </c>
+      <c r="H114">
+        <v>8817500</v>
+      </c>
+      <c r="I114">
+        <v>165815197000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-28T14:10:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>4702185550000</v>
+      </c>
+      <c r="L114">
+        <v>282285600</v>
+      </c>
+      <c r="M114">
+        <v>7091800</v>
+      </c>
+      <c r="N114">
+        <v>130581734000</v>
+      </c>
+      <c r="O114">
+        <v>22336700</v>
+      </c>
+      <c r="P114">
+        <v>530052201000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672236720000</v>
+      </c>
+      <c r="B115">
+        <v>2765300</v>
+      </c>
+      <c r="C115">
+        <v>10201700</v>
+      </c>
+      <c r="D115">
+        <v>135200</v>
+      </c>
+      <c r="E115">
+        <v>51735656000</v>
+      </c>
+      <c r="F115">
+        <v>183001225000</v>
+      </c>
+      <c r="G115">
+        <v>2515261000</v>
+      </c>
+      <c r="H115">
+        <v>13102200</v>
+      </c>
+      <c r="I115">
+        <v>237252142000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-28T14:12:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>4939437692000</v>
+      </c>
+      <c r="L115">
+        <v>295387800</v>
+      </c>
+      <c r="M115">
+        <v>7436400</v>
+      </c>
+      <c r="N115">
+        <v>131265569000</v>
+      </c>
+      <c r="O115">
+        <v>29773100</v>
+      </c>
+      <c r="P115">
+        <v>661317770000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672236840000</v>
+      </c>
+      <c r="B116">
+        <v>4523900</v>
+      </c>
+      <c r="C116">
+        <v>3920900</v>
+      </c>
+      <c r="D116">
+        <v>16900</v>
+      </c>
+      <c r="E116">
+        <v>86437385000</v>
+      </c>
+      <c r="F116">
+        <v>66464666000</v>
+      </c>
+      <c r="G116">
+        <v>560345000</v>
+      </c>
+      <c r="H116">
+        <v>8461700</v>
+      </c>
+      <c r="I116">
+        <v>153462396000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-28T14:14:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>5092900088000</v>
+      </c>
+      <c r="L116">
+        <v>303849500</v>
+      </c>
+      <c r="M116">
+        <v>-603000</v>
+      </c>
+      <c r="N116">
+        <v>-19972719000</v>
+      </c>
+      <c r="O116">
+        <v>29170100</v>
+      </c>
+      <c r="P116">
+        <v>641345051000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672236960000</v>
+      </c>
+      <c r="B117">
+        <v>2476400</v>
+      </c>
+      <c r="C117">
+        <v>2481500</v>
+      </c>
+      <c r="D117">
+        <v>20200</v>
+      </c>
+      <c r="E117">
+        <v>42214190000</v>
+      </c>
+      <c r="F117">
+        <v>49984458000</v>
+      </c>
+      <c r="G117">
+        <v>318145000</v>
+      </c>
+      <c r="H117">
+        <v>4978100</v>
+      </c>
+      <c r="I117">
+        <v>92516793000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-28T14:16:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>5185416881000</v>
+      </c>
+      <c r="L117">
+        <v>308827600</v>
+      </c>
+      <c r="M117">
+        <v>5100</v>
+      </c>
+      <c r="N117">
+        <v>7770268000</v>
+      </c>
+      <c r="O117">
+        <v>29175200</v>
+      </c>
+      <c r="P117">
+        <v>649115319000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672237080000</v>
+      </c>
+      <c r="B118">
+        <v>2928300</v>
+      </c>
+      <c r="C118">
+        <v>3118400</v>
+      </c>
+      <c r="D118">
+        <v>39500</v>
+      </c>
+      <c r="E118">
+        <v>58418916000</v>
+      </c>
+      <c r="F118">
+        <v>61033549000</v>
+      </c>
+      <c r="G118">
+        <v>465378000</v>
+      </c>
+      <c r="H118">
+        <v>6086200</v>
+      </c>
+      <c r="I118">
+        <v>119917843000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-28T14:18:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>5305334724000</v>
+      </c>
+      <c r="L118">
+        <v>314913800</v>
+      </c>
+      <c r="M118">
+        <v>190100</v>
+      </c>
+      <c r="N118">
+        <v>2614633000</v>
+      </c>
+      <c r="O118">
+        <v>29365300</v>
+      </c>
+      <c r="P118">
+        <v>651729952000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672237200000</v>
+      </c>
+      <c r="B119">
+        <v>3478500</v>
+      </c>
+      <c r="C119">
+        <v>2613400</v>
+      </c>
+      <c r="D119">
+        <v>44500</v>
+      </c>
+      <c r="E119">
+        <v>67149396000</v>
+      </c>
+      <c r="F119">
+        <v>50868697000</v>
+      </c>
+      <c r="G119">
+        <v>1100368000</v>
+      </c>
+      <c r="H119">
+        <v>6136400</v>
+      </c>
+      <c r="I119">
+        <v>119118461000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-28T14:20:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>5424453185000</v>
+      </c>
+      <c r="L119">
+        <v>321050200</v>
+      </c>
+      <c r="M119">
+        <v>-865100</v>
+      </c>
+      <c r="N119">
+        <v>-16280699000</v>
+      </c>
+      <c r="O119">
+        <v>28500200</v>
+      </c>
+      <c r="P119">
+        <v>635449253000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672237320000</v>
+      </c>
+      <c r="B120">
+        <v>4457500</v>
+      </c>
+      <c r="C120">
+        <v>3275300</v>
+      </c>
+      <c r="D120">
+        <v>27000</v>
+      </c>
+      <c r="E120">
+        <v>67185545000</v>
+      </c>
+      <c r="F120">
+        <v>57646883000</v>
+      </c>
+      <c r="G120">
+        <v>505133000</v>
+      </c>
+      <c r="H120">
+        <v>7759800</v>
+      </c>
+      <c r="I120">
+        <v>125337561000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-28T14:22:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>5549790746000</v>
+      </c>
+      <c r="L120">
+        <v>328810000</v>
+      </c>
+      <c r="M120">
+        <v>-1182200</v>
+      </c>
+      <c r="N120">
+        <v>-9538662000</v>
+      </c>
+      <c r="O120">
+        <v>27318000</v>
+      </c>
+      <c r="P120">
+        <v>625910591000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672237440000</v>
+      </c>
+      <c r="B121">
+        <v>1996600</v>
+      </c>
+      <c r="C121">
+        <v>2868800</v>
+      </c>
+      <c r="D121">
+        <v>15100</v>
+      </c>
+      <c r="E121">
+        <v>34505194000</v>
+      </c>
+      <c r="F121">
+        <v>55801813000</v>
+      </c>
+      <c r="G121">
+        <v>909446000</v>
+      </c>
+      <c r="H121">
+        <v>4880500</v>
+      </c>
+      <c r="I121">
+        <v>91216453000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-28T14:24:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>5641007199000</v>
+      </c>
+      <c r="L121">
+        <v>333690500</v>
+      </c>
+      <c r="M121">
+        <v>872200</v>
+      </c>
+      <c r="N121">
+        <v>21296619000</v>
+      </c>
+      <c r="O121">
+        <v>28190200</v>
+      </c>
+      <c r="P121">
+        <v>647207210000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672237560000</v>
+      </c>
+      <c r="B122">
+        <v>2514500</v>
+      </c>
+      <c r="C122">
+        <v>2423900</v>
+      </c>
+      <c r="D122">
+        <v>120300</v>
+      </c>
+      <c r="E122">
+        <v>39447707000</v>
+      </c>
+      <c r="F122">
+        <v>44476569000</v>
+      </c>
+      <c r="G122">
+        <v>3832101000</v>
+      </c>
+      <c r="H122">
+        <v>5058700</v>
+      </c>
+      <c r="I122">
+        <v>87756377000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-28T14:26:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>5728763576000</v>
+      </c>
+      <c r="L122">
+        <v>338749200</v>
+      </c>
+      <c r="M122">
+        <v>-90600</v>
+      </c>
+      <c r="N122">
+        <v>5028862000</v>
+      </c>
+      <c r="O122">
+        <v>28099600</v>
+      </c>
+      <c r="P122">
+        <v>652236072000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672237680000</v>
+      </c>
+      <c r="B123">
+        <v>6080100</v>
+      </c>
+      <c r="C123">
+        <v>2411500</v>
+      </c>
+      <c r="D123">
+        <v>44700</v>
+      </c>
+      <c r="E123">
+        <v>89677194000</v>
+      </c>
+      <c r="F123">
+        <v>40355606000</v>
+      </c>
+      <c r="G123">
+        <v>617984000</v>
+      </c>
+      <c r="H123">
+        <v>8536300</v>
+      </c>
+      <c r="I123">
+        <v>130650784000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-28T14:28:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>5859414360000</v>
+      </c>
+      <c r="L123">
+        <v>347285500</v>
+      </c>
+      <c r="M123">
+        <v>-3668600</v>
+      </c>
+      <c r="N123">
+        <v>-49321588000</v>
+      </c>
+      <c r="O123">
+        <v>24431000</v>
+      </c>
+      <c r="P123">
+        <v>602914484000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672237800000</v>
+      </c>
+      <c r="B124">
+        <v>17500</v>
+      </c>
+      <c r="C124">
+        <v>2500</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>213369000</v>
+      </c>
+      <c r="F124">
+        <v>46050000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>20000</v>
+      </c>
+      <c r="I124">
+        <v>259419000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2022-12-28T14:30:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>5859673779000</v>
+      </c>
+      <c r="L124">
+        <v>347305500</v>
+      </c>
+      <c r="M124">
+        <v>-15000</v>
+      </c>
+      <c r="N124">
+        <v>-167319000</v>
+      </c>
+      <c r="O124">
+        <v>24416000</v>
+      </c>
+      <c r="P124">
+        <v>602747165000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672238640000</v>
+      </c>
+      <c r="B125">
+        <v>2199800</v>
+      </c>
+      <c r="C125">
+        <v>2011100</v>
+      </c>
+      <c r="D125">
+        <v>22042300</v>
+      </c>
+      <c r="E125">
+        <v>37746554000</v>
+      </c>
+      <c r="F125">
+        <v>56690325000</v>
+      </c>
+      <c r="G125">
+        <v>439254909000</v>
+      </c>
+      <c r="H125">
+        <v>26253200</v>
+      </c>
+      <c r="I125">
+        <v>533691788000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2022-12-28T14:44:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>6393365567000</v>
+      </c>
+      <c r="L125">
+        <v>373558700</v>
+      </c>
+      <c r="M125">
+        <v>-188700</v>
+      </c>
+      <c r="N125">
+        <v>18943771000</v>
+      </c>
+      <c r="O125">
+        <v>24227300</v>
+      </c>
+      <c r="P125">
+        <v>621690936000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672238760000</v>
+      </c>
+      <c r="B126">
+        <v>2800</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>32200000</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>2800</v>
+      </c>
+      <c r="I126">
+        <v>32200000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2022-12-28T14:46:00.000Z</v>
+      </c>
+      <c r="K126">
         <v>6393397767000</v>
       </c>
-      <c r="L54">
+      <c r="L126">
         <v>373561500</v>
       </c>
-      <c r="M54">
-        <v>173600</v>
-      </c>
-      <c r="N54">
-        <v>21262813000</v>
-      </c>
-      <c r="O54">
+      <c r="M126">
+        <v>-2800</v>
+      </c>
+      <c r="N126">
+        <v>-32200000</v>
+      </c>
+      <c r="O126">
         <v>24224500</v>
       </c>
-      <c r="P54">
+      <c r="P126">
         <v>621658736000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
+++ b/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
@@ -816,25 +816,25 @@
         <v>2926000</v>
       </c>
       <c r="E9">
-        <v>38331155000</v>
+        <v>30971721800</v>
       </c>
       <c r="F9">
-        <v>26514814000</v>
+        <v>24693936700</v>
       </c>
       <c r="G9">
-        <v>37964072000</v>
+        <v>36082655300</v>
       </c>
       <c r="H9">
         <v>7369500</v>
       </c>
       <c r="I9">
-        <v>102810041000</v>
+        <v>91748313800</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-28T09:14:00.000Z</v>
       </c>
       <c r="K9">
-        <v>103153651000</v>
+        <v>92091923800</v>
       </c>
       <c r="L9">
         <v>7403000</v>
@@ -843,13 +843,13 @@
         <v>-903100</v>
       </c>
       <c r="N9">
-        <v>-11816341000</v>
+        <v>-6277785100</v>
       </c>
       <c r="O9">
         <v>-885000</v>
       </c>
       <c r="P9">
-        <v>-11631351000</v>
+        <v>-6092795100</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>17300</v>
       </c>
       <c r="E10">
-        <v>34026650000</v>
+        <v>30116164400</v>
       </c>
       <c r="F10">
-        <v>23634100000</v>
+        <v>21478258000</v>
       </c>
       <c r="G10">
         <v>421438000</v>
@@ -878,13 +878,13 @@
         <v>3699400</v>
       </c>
       <c r="I10">
-        <v>58082188000</v>
+        <v>52015860400</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-28T09:16:00.000Z</v>
       </c>
       <c r="K10">
-        <v>161235839000</v>
+        <v>144107784200</v>
       </c>
       <c r="L10">
         <v>11102400</v>
@@ -893,13 +893,13 @@
         <v>-291900</v>
       </c>
       <c r="N10">
-        <v>-10392550000</v>
+        <v>-8637906400</v>
       </c>
       <c r="O10">
         <v>-1176900</v>
       </c>
       <c r="P10">
-        <v>-22023901000</v>
+        <v>-14730701500</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>6900</v>
       </c>
       <c r="E11">
-        <v>23985910000</v>
+        <v>21010388500</v>
       </c>
       <c r="F11">
-        <v>24215285000</v>
+        <v>22369932200</v>
       </c>
       <c r="G11">
-        <v>107788000</v>
+        <v>104291500</v>
       </c>
       <c r="H11">
         <v>3470100</v>
       </c>
       <c r="I11">
-        <v>48308983000</v>
+        <v>43484612200</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-28T09:18:00.000Z</v>
       </c>
       <c r="K11">
-        <v>209544822000</v>
+        <v>187592396400</v>
       </c>
       <c r="L11">
         <v>14572500</v>
@@ -943,13 +943,13 @@
         <v>-38800</v>
       </c>
       <c r="N11">
-        <v>229375000</v>
+        <v>1359543700</v>
       </c>
       <c r="O11">
         <v>-1215700</v>
       </c>
       <c r="P11">
-        <v>-21794526000</v>
+        <v>-13371157800</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>16800</v>
       </c>
       <c r="E12">
-        <v>21288106000</v>
+        <v>18573523300</v>
       </c>
       <c r="F12">
-        <v>19978980000</v>
+        <v>15106857000</v>
       </c>
       <c r="G12">
         <v>197913000</v>
@@ -978,13 +978,13 @@
         <v>2789900</v>
       </c>
       <c r="I12">
-        <v>41464999000</v>
+        <v>33878293300</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-28T09:20:00.000Z</v>
       </c>
       <c r="K12">
-        <v>251009821000</v>
+        <v>221470689700</v>
       </c>
       <c r="L12">
         <v>17362400</v>
@@ -993,13 +993,13 @@
         <v>-114700</v>
       </c>
       <c r="N12">
-        <v>-1309126000</v>
+        <v>-3466666300</v>
       </c>
       <c r="O12">
         <v>-1330400</v>
       </c>
       <c r="P12">
-        <v>-23103652000</v>
+        <v>-16837824100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>5900</v>
       </c>
       <c r="E13">
-        <v>17722504000</v>
+        <v>15958969300</v>
       </c>
       <c r="F13">
-        <v>21626646000</v>
+        <v>20679993600</v>
       </c>
       <c r="G13">
         <v>257635000</v>
@@ -1028,13 +1028,13 @@
         <v>2419200</v>
       </c>
       <c r="I13">
-        <v>39606785000</v>
+        <v>36896597900</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-28T09:22:00.000Z</v>
       </c>
       <c r="K13">
-        <v>290616606000</v>
+        <v>258367287600</v>
       </c>
       <c r="L13">
         <v>19781600</v>
@@ -1043,13 +1043,13 @@
         <v>22300</v>
       </c>
       <c r="N13">
-        <v>3904142000</v>
+        <v>4721024300</v>
       </c>
       <c r="O13">
         <v>-1308100</v>
       </c>
       <c r="P13">
-        <v>-19199510000</v>
+        <v>-12116799800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>3600</v>
       </c>
       <c r="E14">
-        <v>23414917000</v>
+        <v>18320216800</v>
       </c>
       <c r="F14">
-        <v>23489331000</v>
+        <v>20224698900</v>
       </c>
       <c r="G14">
-        <v>149326000</v>
+        <v>145729600</v>
       </c>
       <c r="H14">
         <v>2833400</v>
       </c>
       <c r="I14">
-        <v>47053574000</v>
+        <v>38690645300</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-28T09:24:00.000Z</v>
       </c>
       <c r="K14">
-        <v>337670180000</v>
+        <v>297057932900</v>
       </c>
       <c r="L14">
         <v>22615000</v>
@@ -1093,13 +1093,13 @@
         <v>-90400</v>
       </c>
       <c r="N14">
-        <v>74414000</v>
+        <v>1904482100</v>
       </c>
       <c r="O14">
         <v>-1398500</v>
       </c>
       <c r="P14">
-        <v>-19125096000</v>
+        <v>-10212317700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>9500</v>
       </c>
       <c r="E15">
-        <v>31158503000</v>
+        <v>28417546700</v>
       </c>
       <c r="F15">
-        <v>15145864000</v>
+        <v>13033978000</v>
       </c>
       <c r="G15">
-        <v>183517000</v>
+        <v>181718800</v>
       </c>
       <c r="H15">
         <v>3011100</v>
       </c>
       <c r="I15">
-        <v>46487884000</v>
+        <v>41633243500</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-28T09:26:00.000Z</v>
       </c>
       <c r="K15">
-        <v>384158064000</v>
+        <v>338691176400</v>
       </c>
       <c r="L15">
         <v>25626100</v>
@@ -1143,13 +1143,13 @@
         <v>-815000</v>
       </c>
       <c r="N15">
-        <v>-16012639000</v>
+        <v>-15383568700</v>
       </c>
       <c r="O15">
         <v>-2213500</v>
       </c>
       <c r="P15">
-        <v>-35137735000</v>
+        <v>-25595886400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>8200</v>
       </c>
       <c r="E16">
-        <v>21263746000</v>
+        <v>18261451300</v>
       </c>
       <c r="F16">
-        <v>9709660000</v>
+        <v>8575295500</v>
       </c>
       <c r="G16">
-        <v>194055000</v>
+        <v>95453700</v>
       </c>
       <c r="H16">
         <v>2059400</v>
       </c>
       <c r="I16">
-        <v>31167461000</v>
+        <v>26932200500</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-28T09:28:00.000Z</v>
       </c>
       <c r="K16">
-        <v>415325525000</v>
+        <v>365623376900</v>
       </c>
       <c r="L16">
         <v>27685500</v>
@@ -1193,13 +1193,13 @@
         <v>-959800</v>
       </c>
       <c r="N16">
-        <v>-11554086000</v>
+        <v>-9686155800</v>
       </c>
       <c r="O16">
         <v>-3173300</v>
       </c>
       <c r="P16">
-        <v>-46691821000</v>
+        <v>-35282042200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>21900</v>
       </c>
       <c r="E17">
-        <v>20406633000</v>
+        <v>19995844200</v>
       </c>
       <c r="F17">
-        <v>23403782000</v>
+        <v>19308980900</v>
       </c>
       <c r="G17">
-        <v>433850000</v>
+        <v>407876000</v>
       </c>
       <c r="H17">
         <v>2717100</v>
       </c>
       <c r="I17">
-        <v>44244265000</v>
+        <v>39712701100</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-28T09:30:00.000Z</v>
       </c>
       <c r="K17">
-        <v>459569790000</v>
+        <v>405336078000</v>
       </c>
       <c r="L17">
         <v>30402600</v>
@@ -1243,13 +1243,13 @@
         <v>27400</v>
       </c>
       <c r="N17">
-        <v>2997149000</v>
+        <v>-686863300</v>
       </c>
       <c r="O17">
         <v>-3145900</v>
       </c>
       <c r="P17">
-        <v>-43694672000</v>
+        <v>-35968905500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>11000</v>
       </c>
       <c r="E18">
-        <v>12638161000</v>
+        <v>10690310800</v>
       </c>
       <c r="F18">
-        <v>21838998000</v>
+        <v>19043296500</v>
       </c>
       <c r="G18">
         <v>125682000</v>
@@ -1278,13 +1278,13 @@
         <v>2285200</v>
       </c>
       <c r="I18">
-        <v>34602841000</v>
+        <v>29859289300</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-28T09:32:00.000Z</v>
       </c>
       <c r="K18">
-        <v>494172631000</v>
+        <v>435195367300</v>
       </c>
       <c r="L18">
         <v>32687800</v>
@@ -1293,13 +1293,13 @@
         <v>310600</v>
       </c>
       <c r="N18">
-        <v>9200837000</v>
+        <v>8352985700</v>
       </c>
       <c r="O18">
         <v>-2835300</v>
       </c>
       <c r="P18">
-        <v>-34493835000</v>
+        <v>-27615919800</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>1800</v>
       </c>
       <c r="E19">
-        <v>17037179000</v>
+        <v>16520296400</v>
       </c>
       <c r="F19">
-        <v>18381740000</v>
+        <v>17299423400</v>
       </c>
       <c r="G19">
         <v>55857000</v>
@@ -1328,13 +1328,13 @@
         <v>2147500</v>
       </c>
       <c r="I19">
-        <v>35474776000</v>
+        <v>33875576800</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-28T09:34:00.000Z</v>
       </c>
       <c r="K19">
-        <v>529647407000</v>
+        <v>469070944100</v>
       </c>
       <c r="L19">
         <v>34835300</v>
@@ -1343,13 +1343,13 @@
         <v>57700</v>
       </c>
       <c r="N19">
-        <v>1344561000</v>
+        <v>779127000</v>
       </c>
       <c r="O19">
         <v>-2777600</v>
       </c>
       <c r="P19">
-        <v>-33149274000</v>
+        <v>-26836792800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>77200</v>
       </c>
       <c r="E20">
-        <v>12197713000</v>
+        <v>10767544600</v>
       </c>
       <c r="F20">
-        <v>26050588000</v>
+        <v>21329214100</v>
       </c>
       <c r="G20">
-        <v>718046999.9999999</v>
+        <v>672492599.9999999</v>
       </c>
       <c r="H20">
         <v>2778500</v>
       </c>
       <c r="I20">
-        <v>38966348000</v>
+        <v>32769251300</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-28T09:36:00.000Z</v>
       </c>
       <c r="K20">
-        <v>568613755000</v>
+        <v>501840195400</v>
       </c>
       <c r="L20">
         <v>37613800</v>
@@ -1393,13 +1393,13 @@
         <v>804900</v>
       </c>
       <c r="N20">
-        <v>13852875000</v>
+        <v>10561669500</v>
       </c>
       <c r="O20">
         <v>-1972700</v>
       </c>
       <c r="P20">
-        <v>-19296399000</v>
+        <v>-16275123300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>1500</v>
       </c>
       <c r="E21">
-        <v>11562997000</v>
+        <v>9416645500</v>
       </c>
       <c r="F21">
-        <v>19174557000</v>
+        <v>16684949100</v>
       </c>
       <c r="G21">
         <v>32213000</v>
@@ -1428,13 +1428,13 @@
         <v>1802800</v>
       </c>
       <c r="I21">
-        <v>30769767000</v>
+        <v>26133807600</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-28T09:38:00.000Z</v>
       </c>
       <c r="K21">
-        <v>599383522000</v>
+        <v>527974003000</v>
       </c>
       <c r="L21">
         <v>39416600</v>
@@ -1443,13 +1443,13 @@
         <v>596700</v>
       </c>
       <c r="N21">
-        <v>7611560000</v>
+        <v>7268303600</v>
       </c>
       <c r="O21">
         <v>-1376000</v>
       </c>
       <c r="P21">
-        <v>-11684839000</v>
+        <v>-9006819700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>6300</v>
       </c>
       <c r="E22">
-        <v>36109351000</v>
+        <v>28699368400</v>
       </c>
       <c r="F22">
-        <v>14336789000</v>
+        <v>12682644800</v>
       </c>
       <c r="G22">
-        <v>95467000</v>
+        <v>89772700</v>
       </c>
       <c r="H22">
         <v>2888600</v>
       </c>
       <c r="I22">
-        <v>50541607000</v>
+        <v>41471785900</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-28T09:40:00.000Z</v>
       </c>
       <c r="K22">
-        <v>649925129000</v>
+        <v>569445788900</v>
       </c>
       <c r="L22">
         <v>42305200</v>
@@ -1493,13 +1493,13 @@
         <v>-1040700</v>
       </c>
       <c r="N22">
-        <v>-21772562000</v>
+        <v>-16016723600</v>
       </c>
       <c r="O22">
         <v>-2416700</v>
       </c>
       <c r="P22">
-        <v>-33457401000</v>
+        <v>-25023543300</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>22100</v>
       </c>
       <c r="E23">
-        <v>34615071000</v>
+        <v>32394094200</v>
       </c>
       <c r="F23">
-        <v>9030750000</v>
+        <v>7803278700</v>
       </c>
       <c r="G23">
         <v>245535000</v>
@@ -1528,13 +1528,13 @@
         <v>2705100</v>
       </c>
       <c r="I23">
-        <v>43891356000</v>
+        <v>40442907900</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-28T09:42:00.000Z</v>
       </c>
       <c r="K23">
-        <v>693816485000</v>
+        <v>609888696800</v>
       </c>
       <c r="L23">
         <v>45010300</v>
@@ -1543,13 +1543,13 @@
         <v>-1615600</v>
       </c>
       <c r="N23">
-        <v>-25584321000</v>
+        <v>-24590815500</v>
       </c>
       <c r="O23">
         <v>-4032300</v>
       </c>
       <c r="P23">
-        <v>-59041722000</v>
+        <v>-49614358800</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>2200</v>
       </c>
       <c r="E24">
-        <v>23407155000</v>
+        <v>20748816000</v>
       </c>
       <c r="F24">
-        <v>10616083000</v>
+        <v>10021678000</v>
       </c>
       <c r="G24">
         <v>93396000</v>
@@ -1578,13 +1578,13 @@
         <v>2020600</v>
       </c>
       <c r="I24">
-        <v>34116634000</v>
+        <v>30863890000</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-28T09:44:00.000Z</v>
       </c>
       <c r="K24">
-        <v>727933119000</v>
+        <v>640752586800</v>
       </c>
       <c r="L24">
         <v>47030900</v>
@@ -1593,13 +1593,13 @@
         <v>-715400</v>
       </c>
       <c r="N24">
-        <v>-12791072000</v>
+        <v>-10727138000</v>
       </c>
       <c r="O24">
         <v>-4747700</v>
       </c>
       <c r="P24">
-        <v>-71832794000</v>
+        <v>-60341496800</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>9300</v>
       </c>
       <c r="E25">
-        <v>33614300000</v>
+        <v>32305210400</v>
       </c>
       <c r="F25">
-        <v>12389655000</v>
+        <v>12187157700</v>
       </c>
       <c r="G25">
-        <v>269665000</v>
+        <v>226008700</v>
       </c>
       <c r="H25">
         <v>2976600</v>
       </c>
       <c r="I25">
-        <v>46273620000</v>
+        <v>44718376800</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-28T09:46:00.000Z</v>
       </c>
       <c r="K25">
-        <v>774206739000</v>
+        <v>685470963600</v>
       </c>
       <c r="L25">
         <v>50007500</v>
@@ -1643,13 +1643,13 @@
         <v>-1642100</v>
       </c>
       <c r="N25">
-        <v>-21224645000</v>
+        <v>-20118052700</v>
       </c>
       <c r="O25">
         <v>-6389800</v>
       </c>
       <c r="P25">
-        <v>-93057439000</v>
+        <v>-80459549500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>17600</v>
       </c>
       <c r="E26">
-        <v>30036889000</v>
+        <v>27119609200</v>
       </c>
       <c r="F26">
-        <v>11569808000</v>
+        <v>11239838300</v>
       </c>
       <c r="G26">
         <v>225980000</v>
@@ -1678,13 +1678,13 @@
         <v>2933300</v>
       </c>
       <c r="I26">
-        <v>41832677000</v>
+        <v>38585427500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-28T09:48:00.000Z</v>
       </c>
       <c r="K26">
-        <v>816039416000</v>
+        <v>724056391100</v>
       </c>
       <c r="L26">
         <v>52940800</v>
@@ -1693,13 +1693,13 @@
         <v>-1559700</v>
       </c>
       <c r="N26">
-        <v>-18467081000</v>
+        <v>-15879770900</v>
       </c>
       <c r="O26">
         <v>-7949500</v>
       </c>
       <c r="P26">
-        <v>-111524520000</v>
+        <v>-96339320400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>24100</v>
       </c>
       <c r="E27">
-        <v>24644101000</v>
+        <v>20947201600</v>
       </c>
       <c r="F27">
-        <v>10583682000</v>
+        <v>8658209400</v>
       </c>
       <c r="G27">
         <v>477445000</v>
@@ -1728,13 +1728,13 @@
         <v>2279300</v>
       </c>
       <c r="I27">
-        <v>35705228000</v>
+        <v>30082856000</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-28T09:50:00.000Z</v>
       </c>
       <c r="K27">
-        <v>851744644000</v>
+        <v>754139247100</v>
       </c>
       <c r="L27">
         <v>55220100</v>
@@ -1743,13 +1743,13 @@
         <v>-926200</v>
       </c>
       <c r="N27">
-        <v>-14060419000</v>
+        <v>-12288992200</v>
       </c>
       <c r="O27">
         <v>-8875700</v>
       </c>
       <c r="P27">
-        <v>-125584939000</v>
+        <v>-108628312600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>10000</v>
       </c>
       <c r="E28">
-        <v>17618214000</v>
+        <v>15560773500</v>
       </c>
       <c r="F28">
-        <v>11730351000</v>
+        <v>10232949900</v>
       </c>
       <c r="G28">
-        <v>150718000</v>
+        <v>99769000</v>
       </c>
       <c r="H28">
         <v>1928200</v>
       </c>
       <c r="I28">
-        <v>29499283000</v>
+        <v>25893492400</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-28T09:52:00.000Z</v>
       </c>
       <c r="K28">
-        <v>881243927000</v>
+        <v>780032739500</v>
       </c>
       <c r="L28">
         <v>57148300</v>
@@ -1793,13 +1793,13 @@
         <v>-511200</v>
       </c>
       <c r="N28">
-        <v>-5887863000</v>
+        <v>-5327823600</v>
       </c>
       <c r="O28">
         <v>-9386900</v>
       </c>
       <c r="P28">
-        <v>-131472802000</v>
+        <v>-113956136200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>10300</v>
       </c>
       <c r="E29">
-        <v>13563271000</v>
+        <v>12291444100</v>
       </c>
       <c r="F29">
-        <v>14765249000</v>
+        <v>14193920900</v>
       </c>
       <c r="G29">
-        <v>173146000</v>
+        <v>103216000</v>
       </c>
       <c r="H29">
         <v>1809700</v>
       </c>
       <c r="I29">
-        <v>28501666000</v>
+        <v>26588581000</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-28T09:54:00.000Z</v>
       </c>
       <c r="K29">
-        <v>909745593000</v>
+        <v>806621320500</v>
       </c>
       <c r="L29">
         <v>58958000</v>
@@ -1843,13 +1843,13 @@
         <v>254600</v>
       </c>
       <c r="N29">
-        <v>1201978000</v>
+        <v>1902476800</v>
       </c>
       <c r="O29">
         <v>-9132300</v>
       </c>
       <c r="P29">
-        <v>-130270824000</v>
+        <v>-112053659400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>13200</v>
       </c>
       <c r="E30">
-        <v>8019388000</v>
+        <v>7644463300</v>
       </c>
       <c r="F30">
-        <v>27984364000</v>
+        <v>27342206800</v>
       </c>
       <c r="G30">
         <v>201558000</v>
@@ -1878,13 +1878,13 @@
         <v>2362700</v>
       </c>
       <c r="I30">
-        <v>36205310000</v>
+        <v>35188228100</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-28T09:56:00.000Z</v>
       </c>
       <c r="K30">
-        <v>945950903000</v>
+        <v>841809548600</v>
       </c>
       <c r="L30">
         <v>61320700</v>
@@ -1893,13 +1893,13 @@
         <v>1123300</v>
       </c>
       <c r="N30">
-        <v>19964976000</v>
+        <v>19697743500</v>
       </c>
       <c r="O30">
         <v>-8009000</v>
       </c>
       <c r="P30">
-        <v>-110305848000</v>
+        <v>-92355915900</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>39900</v>
       </c>
       <c r="E31">
-        <v>14032106000</v>
+        <v>12545294300</v>
       </c>
       <c r="F31">
-        <v>28312155000</v>
+        <v>26547321600</v>
       </c>
       <c r="G31">
-        <v>473768000</v>
+        <v>390251600</v>
       </c>
       <c r="H31">
         <v>2355700</v>
       </c>
       <c r="I31">
-        <v>42818029000</v>
+        <v>39482867500</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-28T09:58:00.000Z</v>
       </c>
       <c r="K31">
-        <v>988768932000</v>
+        <v>881292416100</v>
       </c>
       <c r="L31">
         <v>63676400</v>
@@ -1943,13 +1943,13 @@
         <v>915600</v>
       </c>
       <c r="N31">
-        <v>14280049000</v>
+        <v>14002027300</v>
       </c>
       <c r="O31">
         <v>-7093400</v>
       </c>
       <c r="P31">
-        <v>-96025799000</v>
+        <v>-78353888600</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>4700</v>
       </c>
       <c r="E32">
-        <v>17958977000</v>
+        <v>16336800800</v>
       </c>
       <c r="F32">
-        <v>25160094000</v>
+        <v>22686969600</v>
       </c>
       <c r="G32">
         <v>84184000</v>
@@ -1978,13 +1978,13 @@
         <v>2619100</v>
       </c>
       <c r="I32">
-        <v>43203255000</v>
+        <v>39107954400</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-28T10:00:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1031972187000</v>
+        <v>920400370500</v>
       </c>
       <c r="L32">
         <v>66295500</v>
@@ -1993,13 +1993,13 @@
         <v>516800</v>
       </c>
       <c r="N32">
-        <v>7201117000</v>
+        <v>6350168800</v>
       </c>
       <c r="O32">
         <v>-6576600</v>
       </c>
       <c r="P32">
-        <v>-88824682000</v>
+        <v>-72003719800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>5700</v>
       </c>
       <c r="E33">
-        <v>33356722000</v>
+        <v>32140839100</v>
       </c>
       <c r="F33">
-        <v>8782311000</v>
+        <v>8428465200</v>
       </c>
       <c r="G33">
         <v>227524000</v>
@@ -2028,13 +2028,13 @@
         <v>2424800</v>
       </c>
       <c r="I33">
-        <v>42366557000</v>
+        <v>40796828300</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-28T10:02:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1074338744000</v>
+        <v>961197198800</v>
       </c>
       <c r="L33">
         <v>68720300</v>
@@ -2043,13 +2043,13 @@
         <v>-1303500</v>
       </c>
       <c r="N33">
-        <v>-24574411000</v>
+        <v>-23712373900</v>
       </c>
       <c r="O33">
         <v>-7880100</v>
       </c>
       <c r="P33">
-        <v>-113399093000</v>
+        <v>-95716093700</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>6600</v>
       </c>
       <c r="E34">
-        <v>12666115000</v>
+        <v>11614467700</v>
       </c>
       <c r="F34">
-        <v>11212033000</v>
+        <v>9384662200</v>
       </c>
       <c r="G34">
         <v>85828000</v>
@@ -2078,13 +2078,13 @@
         <v>1356000</v>
       </c>
       <c r="I34">
-        <v>23963976000</v>
+        <v>21084957900</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-28T10:04:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1098302720000</v>
+        <v>982282156700</v>
       </c>
       <c r="L34">
         <v>70076300</v>
@@ -2093,13 +2093,13 @@
         <v>-241200</v>
       </c>
       <c r="N34">
-        <v>-1454082000</v>
+        <v>-2229805500</v>
       </c>
       <c r="O34">
         <v>-8121300</v>
       </c>
       <c r="P34">
-        <v>-114853175000</v>
+        <v>-97945899200</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>2100</v>
       </c>
       <c r="E35">
-        <v>15759639000</v>
+        <v>14539160700</v>
       </c>
       <c r="F35">
-        <v>10784464000</v>
+        <v>10228120900</v>
       </c>
       <c r="G35">
         <v>69157000</v>
@@ -2128,13 +2128,13 @@
         <v>1662400</v>
       </c>
       <c r="I35">
-        <v>26613260000</v>
+        <v>24836438600</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-28T10:06:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1124915980000</v>
+        <v>1007118595300</v>
       </c>
       <c r="L35">
         <v>71738700</v>
@@ -2143,13 +2143,13 @@
         <v>-195100</v>
       </c>
       <c r="N35">
-        <v>-4975175000</v>
+        <v>-4311039800</v>
       </c>
       <c r="O35">
         <v>-8316400</v>
       </c>
       <c r="P35">
-        <v>-119828350000</v>
+        <v>-102256939000</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>27800</v>
       </c>
       <c r="E36">
-        <v>22583560000</v>
+        <v>21098346700</v>
       </c>
       <c r="F36">
-        <v>8399695000</v>
+        <v>7950444700</v>
       </c>
       <c r="G36">
         <v>363910000</v>
@@ -2178,13 +2178,13 @@
         <v>1770000</v>
       </c>
       <c r="I36">
-        <v>31347165000</v>
+        <v>29412701400</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-28T10:08:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1156263145000</v>
+        <v>1036531296700</v>
       </c>
       <c r="L36">
         <v>73508700</v>
@@ -2193,13 +2193,13 @@
         <v>-971200</v>
       </c>
       <c r="N36">
-        <v>-14183865000</v>
+        <v>-13147902000</v>
       </c>
       <c r="O36">
         <v>-9287600</v>
       </c>
       <c r="P36">
-        <v>-134012215000</v>
+        <v>-115404841000</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>14100</v>
       </c>
       <c r="E37">
-        <v>19272972000</v>
+        <v>18589356300</v>
       </c>
       <c r="F37">
-        <v>9236161000</v>
+        <v>7955642800</v>
       </c>
       <c r="G37">
-        <v>319965000</v>
+        <v>311973000</v>
       </c>
       <c r="H37">
         <v>1584100</v>
       </c>
       <c r="I37">
-        <v>28829098000</v>
+        <v>26856972100</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-28T10:10:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1185092243000</v>
+        <v>1063388268800</v>
       </c>
       <c r="L37">
         <v>75092800</v>
@@ -2243,13 +2243,13 @@
         <v>-643600</v>
       </c>
       <c r="N37">
-        <v>-10036811000</v>
+        <v>-10633713500</v>
       </c>
       <c r="O37">
         <v>-9931200</v>
       </c>
       <c r="P37">
-        <v>-144049026000</v>
+        <v>-126038554500</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>100</v>
       </c>
       <c r="E38">
-        <v>9239328000</v>
+        <v>8578189800</v>
       </c>
       <c r="F38">
-        <v>13445829000</v>
+        <v>12352123800</v>
       </c>
       <c r="G38">
         <v>3254999.9999999995</v>
@@ -2278,13 +2278,13 @@
         <v>1253300</v>
       </c>
       <c r="I38">
-        <v>22688412000</v>
+        <v>20933568600</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-28T10:12:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1207780655000</v>
+        <v>1084321837400</v>
       </c>
       <c r="L38">
         <v>76346100</v>
@@ -2293,13 +2293,13 @@
         <v>140200</v>
       </c>
       <c r="N38">
-        <v>4206501000</v>
+        <v>3773934000</v>
       </c>
       <c r="O38">
         <v>-9791000</v>
       </c>
       <c r="P38">
-        <v>-139842525000</v>
+        <v>-122264620500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>21900</v>
       </c>
       <c r="E39">
-        <v>11334086000</v>
+        <v>9621700100</v>
       </c>
       <c r="F39">
-        <v>10790742000</v>
+        <v>10389044100</v>
       </c>
       <c r="G39">
-        <v>1424280000</v>
+        <v>1415888400</v>
       </c>
       <c r="H39">
         <v>1217900</v>
       </c>
       <c r="I39">
-        <v>23549108000</v>
+        <v>21426632600</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-28T10:14:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1231329763000</v>
+        <v>1105748470000</v>
       </c>
       <c r="L39">
         <v>77564000</v>
@@ -2343,13 +2343,13 @@
         <v>-116400</v>
       </c>
       <c r="N39">
-        <v>-543344000</v>
+        <v>767344000</v>
       </c>
       <c r="O39">
         <v>-9907400</v>
       </c>
       <c r="P39">
-        <v>-140385869000</v>
+        <v>-121497276500</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>3700</v>
       </c>
       <c r="E40">
-        <v>22002889000</v>
+        <v>15643354900</v>
       </c>
       <c r="F40">
-        <v>6964554000</v>
+        <v>5987232300</v>
       </c>
       <c r="G40">
-        <v>35932000</v>
+        <v>33734200</v>
       </c>
       <c r="H40">
         <v>1732900</v>
       </c>
       <c r="I40">
-        <v>29003375000</v>
+        <v>21664321400</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-28T10:16:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1260333138000</v>
+        <v>1127412791400</v>
       </c>
       <c r="L40">
         <v>79296900</v>
@@ -2393,13 +2393,13 @@
         <v>-930400</v>
       </c>
       <c r="N40">
-        <v>-15038335000</v>
+        <v>-9656122600</v>
       </c>
       <c r="O40">
         <v>-10837800</v>
       </c>
       <c r="P40">
-        <v>-155424204000</v>
+        <v>-131153399100</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>5900</v>
       </c>
       <c r="E41">
-        <v>12890780000</v>
+        <v>12069901700</v>
       </c>
       <c r="F41">
-        <v>15285586000</v>
+        <v>14476096300</v>
       </c>
       <c r="G41">
         <v>201860000</v>
@@ -2428,13 +2428,13 @@
         <v>1663800</v>
       </c>
       <c r="I41">
-        <v>28378226000</v>
+        <v>26747858000</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-28T10:18:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1288711364000</v>
+        <v>1154160649400</v>
       </c>
       <c r="L41">
         <v>80960700</v>
@@ -2443,13 +2443,13 @@
         <v>-93100</v>
       </c>
       <c r="N41">
-        <v>2394806000</v>
+        <v>2406194600</v>
       </c>
       <c r="O41">
         <v>-10930900</v>
       </c>
       <c r="P41">
-        <v>-153029398000</v>
+        <v>-128747204500</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>12400</v>
       </c>
       <c r="E42">
-        <v>12934770000</v>
+        <v>11911794000</v>
       </c>
       <c r="F42">
-        <v>13604059000</v>
+        <v>13004559100</v>
       </c>
       <c r="G42">
-        <v>290585000</v>
+        <v>192583100</v>
       </c>
       <c r="H42">
         <v>1426500</v>
       </c>
       <c r="I42">
-        <v>26829414000</v>
+        <v>25108936200</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-28T10:20:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1315540778000</v>
+        <v>1179269585600</v>
       </c>
       <c r="L42">
         <v>82387200</v>
@@ -2493,13 +2493,13 @@
         <v>-160300</v>
       </c>
       <c r="N42">
-        <v>669289000</v>
+        <v>1092765100</v>
       </c>
       <c r="O42">
         <v>-11091200</v>
       </c>
       <c r="P42">
-        <v>-152360109000</v>
+        <v>-127654439400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>8000</v>
       </c>
       <c r="E43">
-        <v>13523384000</v>
+        <v>11439270200</v>
       </c>
       <c r="F43">
-        <v>12554815000</v>
+        <v>10683288400</v>
       </c>
       <c r="G43">
-        <v>175595000</v>
+        <v>106863800</v>
       </c>
       <c r="H43">
         <v>1975000</v>
       </c>
       <c r="I43">
-        <v>26253794000</v>
+        <v>22229422400</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-28T10:22:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1341794572000</v>
+        <v>1201499008000</v>
       </c>
       <c r="L43">
         <v>84362200</v>
@@ -2543,13 +2543,13 @@
         <v>-558400</v>
       </c>
       <c r="N43">
-        <v>-968569000</v>
+        <v>-755981800</v>
       </c>
       <c r="O43">
         <v>-11649600</v>
       </c>
       <c r="P43">
-        <v>-153328678000</v>
+        <v>-128410421200</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>5300</v>
       </c>
       <c r="E44">
-        <v>9132521000</v>
+        <v>8264290100</v>
       </c>
       <c r="F44">
-        <v>21822837000</v>
+        <v>20585275800</v>
       </c>
       <c r="G44">
         <v>177560000</v>
@@ -2578,13 +2578,13 @@
         <v>1918700</v>
       </c>
       <c r="I44">
-        <v>31132918000</v>
+        <v>29027125900</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-28T10:24:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1372927490000</v>
+        <v>1230526133900</v>
       </c>
       <c r="L44">
         <v>86280900</v>
@@ -2593,13 +2593,13 @@
         <v>579600</v>
       </c>
       <c r="N44">
-        <v>12690316000</v>
+        <v>12320985700</v>
       </c>
       <c r="O44">
         <v>-11070000</v>
       </c>
       <c r="P44">
-        <v>-140638362000</v>
+        <v>-116089435500</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>2900</v>
       </c>
       <c r="E45">
-        <v>8791978000</v>
+        <v>8331039400</v>
       </c>
       <c r="F45">
-        <v>23157168000</v>
+        <v>22608816900</v>
       </c>
       <c r="G45">
-        <v>18011000</v>
+        <v>16212800</v>
       </c>
       <c r="H45">
         <v>2181500</v>
       </c>
       <c r="I45">
-        <v>31967157000</v>
+        <v>30956069100</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-28T10:26:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1404894647000</v>
+        <v>1261482203000</v>
       </c>
       <c r="L45">
         <v>88462400</v>
@@ -2643,13 +2643,13 @@
         <v>930800</v>
       </c>
       <c r="N45">
-        <v>14365190000</v>
+        <v>14277777500</v>
       </c>
       <c r="O45">
         <v>-10139200</v>
       </c>
       <c r="P45">
-        <v>-126273172000</v>
+        <v>-101811658000</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>18400</v>
       </c>
       <c r="E46">
-        <v>13751351000</v>
+        <v>13589513000</v>
       </c>
       <c r="F46">
-        <v>24506357000</v>
+        <v>23486777600</v>
       </c>
       <c r="G46">
-        <v>924420000</v>
+        <v>846498000</v>
       </c>
       <c r="H46">
         <v>2266600</v>
       </c>
       <c r="I46">
-        <v>39182128000</v>
+        <v>37922788600</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-28T10:28:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1444076775000</v>
+        <v>1299404991600</v>
       </c>
       <c r="L46">
         <v>90729000</v>
@@ -2693,13 +2693,13 @@
         <v>793200</v>
       </c>
       <c r="N46">
-        <v>10755006000</v>
+        <v>9897264600</v>
       </c>
       <c r="O46">
         <v>-9346000</v>
       </c>
       <c r="P46">
-        <v>-115518166000</v>
+        <v>-91914393400</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>15400</v>
       </c>
       <c r="E47">
-        <v>14568656000</v>
+        <v>14443381400</v>
       </c>
       <c r="F47">
-        <v>29759119000</v>
+        <v>25547734600</v>
       </c>
       <c r="G47">
         <v>1083512000</v>
@@ -2728,13 +2728,13 @@
         <v>2994500</v>
       </c>
       <c r="I47">
-        <v>45411287000</v>
+        <v>41074628000</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-28T10:30:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1489488062000</v>
+        <v>1340479619600</v>
       </c>
       <c r="L47">
         <v>93723500</v>
@@ -2743,13 +2743,13 @@
         <v>1197900</v>
       </c>
       <c r="N47">
-        <v>15190463000</v>
+        <v>11104353200</v>
       </c>
       <c r="O47">
         <v>-8148100</v>
       </c>
       <c r="P47">
-        <v>-100327703000</v>
+        <v>-80810040200</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>3100</v>
       </c>
       <c r="E48">
-        <v>8314082000</v>
+        <v>8176020200</v>
       </c>
       <c r="F48">
-        <v>42584418000</v>
+        <v>34261549200</v>
       </c>
       <c r="G48">
-        <v>86377000</v>
+        <v>24638800</v>
       </c>
       <c r="H48">
         <v>3736800</v>
       </c>
       <c r="I48">
-        <v>50984877000</v>
+        <v>42462208200</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-28T10:32:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1540472939000</v>
+        <v>1382941827800</v>
       </c>
       <c r="L48">
         <v>97460300</v>
@@ -2793,13 +2793,13 @@
         <v>2489300</v>
       </c>
       <c r="N48">
-        <v>34270336000</v>
+        <v>26085529000</v>
       </c>
       <c r="O48">
         <v>-5658800</v>
       </c>
       <c r="P48">
-        <v>-66057367000</v>
+        <v>-54724511200</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>82200</v>
       </c>
       <c r="E49">
-        <v>27037837000</v>
+        <v>26925549400</v>
       </c>
       <c r="F49">
-        <v>47360263000</v>
+        <v>43627799200</v>
       </c>
       <c r="G49">
-        <v>1010765000</v>
+        <v>873302600</v>
       </c>
       <c r="H49">
         <v>5693700</v>
       </c>
       <c r="I49">
-        <v>75408865000</v>
+        <v>71426651200</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-28T10:34:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1615881804000</v>
+        <v>1454368479000</v>
       </c>
       <c r="L49">
         <v>103154000</v>
@@ -2843,13 +2843,13 @@
         <v>1638900</v>
       </c>
       <c r="N49">
-        <v>20322426000</v>
+        <v>16702249800</v>
       </c>
       <c r="O49">
         <v>-4019900</v>
       </c>
       <c r="P49">
-        <v>-45734941000</v>
+        <v>-38022261400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>31300</v>
       </c>
       <c r="E50">
-        <v>47962254000</v>
+        <v>47049967200</v>
       </c>
       <c r="F50">
-        <v>27412037000</v>
+        <v>24103948400</v>
       </c>
       <c r="G50">
         <v>306753000</v>
@@ -2878,13 +2878,13 @@
         <v>5170500</v>
       </c>
       <c r="I50">
-        <v>75681044000</v>
+        <v>71460668600</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-28T10:36:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1691562848000</v>
+        <v>1525829147600</v>
       </c>
       <c r="L50">
         <v>108324500</v>
@@ -2893,13 +2893,13 @@
         <v>-1128200</v>
       </c>
       <c r="N50">
-        <v>-20550217000</v>
+        <v>-22946018800</v>
       </c>
       <c r="O50">
         <v>-5148100</v>
       </c>
       <c r="P50">
-        <v>-66285158000</v>
+        <v>-60968280200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>23900</v>
       </c>
       <c r="E51">
-        <v>16582201000</v>
+        <v>15627856300</v>
       </c>
       <c r="F51">
-        <v>18409363000</v>
+        <v>14478298000</v>
       </c>
       <c r="G51">
-        <v>627224000</v>
+        <v>127224500</v>
       </c>
       <c r="H51">
         <v>2404000</v>
       </c>
       <c r="I51">
-        <v>35618788000</v>
+        <v>30233378800</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-28T10:38:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1727181636000</v>
+        <v>1556062526400</v>
       </c>
       <c r="L51">
         <v>110728500</v>
@@ -2943,13 +2943,13 @@
         <v>151900</v>
       </c>
       <c r="N51">
-        <v>1827162000</v>
+        <v>-1149558300</v>
       </c>
       <c r="O51">
         <v>-4996200</v>
       </c>
       <c r="P51">
-        <v>-64457996000</v>
+        <v>-62117838500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>700</v>
       </c>
       <c r="E52">
-        <v>24215187000</v>
+        <v>23749053600</v>
       </c>
       <c r="F52">
-        <v>12990151000</v>
+        <v>12555286300</v>
       </c>
       <c r="G52">
         <v>78600000</v>
@@ -2978,13 +2978,13 @@
         <v>2011400</v>
       </c>
       <c r="I52">
-        <v>37283938000</v>
+        <v>36382939900</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-28T10:40:00.000Z</v>
       </c>
       <c r="K52">
-        <v>1764465574000</v>
+        <v>1592445466300</v>
       </c>
       <c r="L52">
         <v>112739900</v>
@@ -2993,13 +2993,13 @@
         <v>-659900</v>
       </c>
       <c r="N52">
-        <v>-11225036000</v>
+        <v>-11193767300</v>
       </c>
       <c r="O52">
         <v>-5656100</v>
       </c>
       <c r="P52">
-        <v>-75683032000</v>
+        <v>-73311605800</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>700</v>
       </c>
       <c r="E53">
-        <v>13439234000</v>
+        <v>12983889800</v>
       </c>
       <c r="F53">
-        <v>17386061000</v>
+        <v>17070976400</v>
       </c>
       <c r="G53">
         <v>6735000</v>
@@ -3028,13 +3028,13 @@
         <v>1651600</v>
       </c>
       <c r="I53">
-        <v>30832030000</v>
+        <v>30061601200</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-28T10:42:00.000Z</v>
       </c>
       <c r="K53">
-        <v>1795297604000</v>
+        <v>1622507067500</v>
       </c>
       <c r="L53">
         <v>114391500</v>
@@ -3043,13 +3043,13 @@
         <v>109900</v>
       </c>
       <c r="N53">
-        <v>3946827000</v>
+        <v>4087086600</v>
       </c>
       <c r="O53">
         <v>-5546200</v>
       </c>
       <c r="P53">
-        <v>-71736205000</v>
+        <v>-69224519200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>4100</v>
       </c>
       <c r="E54">
-        <v>7770512000</v>
+        <v>7571411300</v>
       </c>
       <c r="F54">
-        <v>16593451000</v>
+        <v>16390953700</v>
       </c>
       <c r="G54">
         <v>186883000</v>
@@ -3078,13 +3078,13 @@
         <v>1444400</v>
       </c>
       <c r="I54">
-        <v>24550846000</v>
+        <v>24149248000</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-28T10:44:00.000Z</v>
       </c>
       <c r="K54">
-        <v>1819848450000</v>
+        <v>1646656315500</v>
       </c>
       <c r="L54">
         <v>115835900</v>
@@ -3093,13 +3093,13 @@
         <v>354500</v>
       </c>
       <c r="N54">
-        <v>8822939000</v>
+        <v>8819542400</v>
       </c>
       <c r="O54">
         <v>-5191700</v>
       </c>
       <c r="P54">
-        <v>-62913266000</v>
+        <v>-60404976800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>13900</v>
       </c>
       <c r="E55">
-        <v>6211463000</v>
+        <v>5677797200</v>
       </c>
       <c r="F55">
-        <v>27435676000</v>
+        <v>27266445400</v>
       </c>
       <c r="G55">
         <v>308060000</v>
@@ -3128,13 +3128,13 @@
         <v>1617000</v>
       </c>
       <c r="I55">
-        <v>33955199000</v>
+        <v>33252302600</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-28T10:46:00.000Z</v>
       </c>
       <c r="K55">
-        <v>1853803649000</v>
+        <v>1679908618100</v>
       </c>
       <c r="L55">
         <v>117452900</v>
@@ -3143,13 +3143,13 @@
         <v>999100</v>
       </c>
       <c r="N55">
-        <v>21224213000</v>
+        <v>21588648200</v>
       </c>
       <c r="O55">
         <v>-4192600</v>
       </c>
       <c r="P55">
-        <v>-41689053000</v>
+        <v>-38816328600</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>500</v>
       </c>
       <c r="E56">
-        <v>10063832000</v>
+        <v>9949246700</v>
       </c>
       <c r="F56">
-        <v>32786177000</v>
+        <v>31656407900</v>
       </c>
       <c r="G56">
         <v>9100000</v>
@@ -3178,13 +3178,13 @@
         <v>2518000</v>
       </c>
       <c r="I56">
-        <v>42859109000</v>
+        <v>41614754600</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-28T10:48:00.000Z</v>
       </c>
       <c r="K56">
-        <v>1896662758000</v>
+        <v>1721523372700</v>
       </c>
       <c r="L56">
         <v>119970900</v>
@@ -3193,13 +3193,13 @@
         <v>1376300</v>
       </c>
       <c r="N56">
-        <v>22722345000</v>
+        <v>21707161200</v>
       </c>
       <c r="O56">
         <v>-2816300</v>
       </c>
       <c r="P56">
-        <v>-18966708000</v>
+        <v>-17109167400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>5500</v>
       </c>
       <c r="E57">
-        <v>11738888000</v>
+        <v>11528398700</v>
       </c>
       <c r="F57">
-        <v>34228577000</v>
+        <v>29525584700</v>
       </c>
       <c r="G57">
         <v>92480000</v>
@@ -3228,13 +3228,13 @@
         <v>2722200</v>
       </c>
       <c r="I57">
-        <v>46059945000</v>
+        <v>41146463400</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-28T10:50:00.000Z</v>
       </c>
       <c r="K57">
-        <v>1942722703000</v>
+        <v>1762669836100</v>
       </c>
       <c r="L57">
         <v>122693100</v>
@@ -3243,13 +3243,13 @@
         <v>1345300</v>
       </c>
       <c r="N57">
-        <v>22489689000</v>
+        <v>17997186000</v>
       </c>
       <c r="O57">
         <v>-1471000</v>
       </c>
       <c r="P57">
-        <v>3522981000</v>
+        <v>888018600</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>4400</v>
       </c>
       <c r="E58">
-        <v>13116082000</v>
+        <v>12107791300</v>
       </c>
       <c r="F58">
-        <v>44071302000</v>
+        <v>39457320600</v>
       </c>
       <c r="G58">
         <v>95241000</v>
@@ -3278,13 +3278,13 @@
         <v>3436200</v>
       </c>
       <c r="I58">
-        <v>57282625000</v>
+        <v>51660352900</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-28T10:52:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2000005328000</v>
+        <v>1814330189000</v>
       </c>
       <c r="L58">
         <v>126129300</v>
@@ -3293,13 +3293,13 @@
         <v>1569200</v>
       </c>
       <c r="N58">
-        <v>30955220000</v>
+        <v>27349529300</v>
       </c>
       <c r="O58">
         <v>98200</v>
       </c>
       <c r="P58">
-        <v>34478201000</v>
+        <v>28237547900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>20200</v>
       </c>
       <c r="E59">
-        <v>16447880000</v>
+        <v>16133594600</v>
       </c>
       <c r="F59">
-        <v>36013175000</v>
+        <v>32711280200</v>
       </c>
       <c r="G59">
         <v>236184000</v>
@@ -3328,13 +3328,13 @@
         <v>3074900</v>
       </c>
       <c r="I59">
-        <v>52697239000</v>
+        <v>49081058800</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-28T10:54:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2052702567000</v>
+        <v>1863411247800</v>
       </c>
       <c r="L59">
         <v>129204200</v>
@@ -3343,13 +3343,13 @@
         <v>909700</v>
       </c>
       <c r="N59">
-        <v>19565295000</v>
+        <v>16577685600</v>
       </c>
       <c r="O59">
         <v>1007900</v>
       </c>
       <c r="P59">
-        <v>54043496000</v>
+        <v>44815233500</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>21700</v>
       </c>
       <c r="E60">
-        <v>20401040000</v>
+        <v>19646195600</v>
       </c>
       <c r="F60">
-        <v>26689587000</v>
+        <v>24981596700</v>
       </c>
       <c r="G60">
         <v>281347000</v>
@@ -3378,13 +3378,13 @@
         <v>2983500</v>
       </c>
       <c r="I60">
-        <v>47371974000</v>
+        <v>44909139300</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-28T10:56:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2100074541000</v>
+        <v>1908320387100</v>
       </c>
       <c r="L60">
         <v>132187700</v>
@@ -3393,13 +3393,13 @@
         <v>548000</v>
       </c>
       <c r="N60">
-        <v>6288547000</v>
+        <v>5335401100</v>
       </c>
       <c r="O60">
         <v>1555900</v>
       </c>
       <c r="P60">
-        <v>60332043000</v>
+        <v>50150634600</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>5900</v>
       </c>
       <c r="E61">
-        <v>16812967000</v>
+        <v>15256125400</v>
       </c>
       <c r="F61">
-        <v>16641066000</v>
+        <v>15981426300</v>
       </c>
       <c r="G61">
         <v>90240000</v>
@@ -3428,13 +3428,13 @@
         <v>2084300</v>
       </c>
       <c r="I61">
-        <v>33544273000</v>
+        <v>31327791700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-28T10:58:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2133618814000</v>
+        <v>1939648178800</v>
       </c>
       <c r="L61">
         <v>134272000</v>
@@ -3443,13 +3443,13 @@
         <v>-212400</v>
       </c>
       <c r="N61">
-        <v>-171901000</v>
+        <v>725300900</v>
       </c>
       <c r="O61">
         <v>1343500</v>
       </c>
       <c r="P61">
-        <v>60160142000</v>
+        <v>50875935500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>12800</v>
       </c>
       <c r="E62">
-        <v>26553396000</v>
+        <v>25624326000</v>
       </c>
       <c r="F62">
-        <v>10121956000</v>
+        <v>9917760400</v>
       </c>
       <c r="G62">
         <v>376680000</v>
@@ -3478,13 +3478,13 @@
         <v>2229300</v>
       </c>
       <c r="I62">
-        <v>37052032000</v>
+        <v>35918766400</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-28T11:00:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2170670846000</v>
+        <v>1975566945200</v>
       </c>
       <c r="L62">
         <v>136501300</v>
@@ -3493,13 +3493,13 @@
         <v>-1101500</v>
       </c>
       <c r="N62">
-        <v>-16431440000</v>
+        <v>-15706565600</v>
       </c>
       <c r="O62">
         <v>242000</v>
       </c>
       <c r="P62">
-        <v>43728702000</v>
+        <v>35169369900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>9700</v>
       </c>
       <c r="E63">
-        <v>24506559000</v>
+        <v>23057809200</v>
       </c>
       <c r="F63">
-        <v>7938686000</v>
+        <v>7793831000</v>
       </c>
       <c r="G63">
         <v>124318000</v>
@@ -3528,13 +3528,13 @@
         <v>1986900</v>
       </c>
       <c r="I63">
-        <v>32569563000</v>
+        <v>30975958200</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-28T11:02:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2203240409000</v>
+        <v>2006542903400</v>
       </c>
       <c r="L63">
         <v>138488200</v>
@@ -3543,13 +3543,13 @@
         <v>-1156200</v>
       </c>
       <c r="N63">
-        <v>-16567873000</v>
+        <v>-15263978200</v>
       </c>
       <c r="O63">
         <v>-914200</v>
       </c>
       <c r="P63">
-        <v>27160829000</v>
+        <v>19905391700</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>5800</v>
       </c>
       <c r="E64">
-        <v>13654420000</v>
+        <v>13576697800</v>
       </c>
       <c r="F64">
-        <v>16319306000</v>
+        <v>16242882500</v>
       </c>
       <c r="G64">
         <v>219800000</v>
@@ -3578,13 +3578,13 @@
         <v>1791100</v>
       </c>
       <c r="I64">
-        <v>30193526000</v>
+        <v>30039380300</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-28T11:04:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2233433935000</v>
+        <v>2036582283700</v>
       </c>
       <c r="L64">
         <v>140279300</v>
@@ -3593,13 +3593,13 @@
         <v>136300</v>
       </c>
       <c r="N64">
-        <v>2664886000</v>
+        <v>2666184700</v>
       </c>
       <c r="O64">
         <v>-777900</v>
       </c>
       <c r="P64">
-        <v>29825715000</v>
+        <v>22571576400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>5300</v>
       </c>
       <c r="E65">
-        <v>17683969000</v>
+        <v>14406349900</v>
       </c>
       <c r="F65">
-        <v>15475127000</v>
+        <v>15359642600</v>
       </c>
       <c r="G65">
         <v>36209000</v>
@@ -3628,13 +3628,13 @@
         <v>2006700</v>
       </c>
       <c r="I65">
-        <v>33195305000</v>
+        <v>29802201500</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-28T11:06:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2266629240000</v>
+        <v>2066384485200</v>
       </c>
       <c r="L65">
         <v>142286000</v>
@@ -3643,13 +3643,13 @@
         <v>-106000</v>
       </c>
       <c r="N65">
-        <v>-2208842000</v>
+        <v>953292700</v>
       </c>
       <c r="O65">
         <v>-883900</v>
       </c>
       <c r="P65">
-        <v>27616873000</v>
+        <v>23524869100</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>5200</v>
       </c>
       <c r="E66">
-        <v>14472595000</v>
+        <v>14093674300</v>
       </c>
       <c r="F66">
-        <v>9629437000</v>
+        <v>8834932300</v>
       </c>
       <c r="G66">
         <v>29320000</v>
@@ -3678,13 +3678,13 @@
         <v>1323100</v>
       </c>
       <c r="I66">
-        <v>24131352000</v>
+        <v>22957926600</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-28T11:08:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2290760592000</v>
+        <v>2089342411800</v>
       </c>
       <c r="L66">
         <v>143609100</v>
@@ -3693,13 +3693,13 @@
         <v>-280900</v>
       </c>
       <c r="N66">
-        <v>-4843158000</v>
+        <v>-5258742000</v>
       </c>
       <c r="O66">
         <v>-1164800</v>
       </c>
       <c r="P66">
-        <v>22773715000</v>
+        <v>18266127100</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>19300</v>
       </c>
       <c r="E67">
-        <v>25367016000</v>
+        <v>25187196000</v>
       </c>
       <c r="F67">
-        <v>7784125000</v>
+        <v>7737771400</v>
       </c>
       <c r="G67">
         <v>467470000</v>
@@ -3728,13 +3728,13 @@
         <v>2084600</v>
       </c>
       <c r="I67">
-        <v>33618611000</v>
+        <v>33392437400</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-28T11:10:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2324379203000</v>
+        <v>2122734849200</v>
       </c>
       <c r="L67">
         <v>145693700</v>
@@ -3743,13 +3743,13 @@
         <v>-1353500</v>
       </c>
       <c r="N67">
-        <v>-17582891000</v>
+        <v>-17449424600</v>
       </c>
       <c r="O67">
         <v>-2518300</v>
       </c>
       <c r="P67">
-        <v>5190824000</v>
+        <v>816702500</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>9197560000</v>
+        <v>8548210000</v>
       </c>
       <c r="F68">
-        <v>7394278000</v>
+        <v>7106366200</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>914000</v>
       </c>
       <c r="I68">
-        <v>16591838000</v>
+        <v>15654576200</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-28T11:12:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2340971041000</v>
+        <v>2138389425400</v>
       </c>
       <c r="L68">
         <v>146607700</v>
@@ -3793,13 +3793,13 @@
         <v>-230800</v>
       </c>
       <c r="N68">
-        <v>-1803282000</v>
+        <v>-1441843800</v>
       </c>
       <c r="O68">
         <v>-2749100</v>
       </c>
       <c r="P68">
-        <v>3387542000</v>
+        <v>-625141300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>1000</v>
       </c>
       <c r="E69">
-        <v>13994761000</v>
+        <v>11866891000</v>
       </c>
       <c r="F69">
-        <v>10238061000</v>
+        <v>9935064300</v>
       </c>
       <c r="G69">
         <v>62300000</v>
@@ -3828,13 +3828,13 @@
         <v>1220500</v>
       </c>
       <c r="I69">
-        <v>24295122000</v>
+        <v>21864255300</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-28T11:14:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2365266163000</v>
+        <v>2160253680700</v>
       </c>
       <c r="L69">
         <v>147828200</v>
@@ -3843,13 +3843,13 @@
         <v>-133300</v>
       </c>
       <c r="N69">
-        <v>-3756700000</v>
+        <v>-1931826700</v>
       </c>
       <c r="O69">
         <v>-2882400</v>
       </c>
       <c r="P69">
-        <v>-369158000</v>
+        <v>-2556968000</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>4600</v>
       </c>
       <c r="E70">
-        <v>10471478000</v>
+        <v>10348401200</v>
       </c>
       <c r="F70">
-        <v>12098612000</v>
+        <v>11844965900</v>
       </c>
       <c r="G70">
         <v>82420000</v>
@@ -3878,13 +3878,13 @@
         <v>1219300</v>
       </c>
       <c r="I70">
-        <v>22652510000</v>
+        <v>22275787100</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-28T11:16:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2387918673000</v>
+        <v>2182529467800</v>
       </c>
       <c r="L70">
         <v>149047500</v>
@@ -3893,13 +3893,13 @@
         <v>-106500</v>
       </c>
       <c r="N70">
-        <v>1627134000</v>
+        <v>1496564700</v>
       </c>
       <c r="O70">
         <v>-2988900</v>
       </c>
       <c r="P70">
-        <v>1257976000</v>
+        <v>-1060403300</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>12633554000</v>
+        <v>12544243400</v>
       </c>
       <c r="F71">
-        <v>11227000000</v>
+        <v>11143983100</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3928,13 +3928,13 @@
         <v>1232100</v>
       </c>
       <c r="I71">
-        <v>23860554000</v>
+        <v>23688226500</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-28T11:18:00.000Z</v>
       </c>
       <c r="K71">
-        <v>2411779227000</v>
+        <v>2206217694300</v>
       </c>
       <c r="L71">
         <v>150279600</v>
@@ -3943,13 +3943,13 @@
         <v>-197900</v>
       </c>
       <c r="N71">
-        <v>-1406554000</v>
+        <v>-1400260300</v>
       </c>
       <c r="O71">
         <v>-3186800</v>
       </c>
       <c r="P71">
-        <v>-148578000</v>
+        <v>-2460663600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>100</v>
       </c>
       <c r="E72">
-        <v>25078373000</v>
+        <v>24353598500</v>
       </c>
       <c r="F72">
-        <v>10489619000</v>
+        <v>10133175800</v>
       </c>
       <c r="G72">
         <v>4240000</v>
@@ -3978,13 +3978,13 @@
         <v>1898400</v>
       </c>
       <c r="I72">
-        <v>35572232000</v>
+        <v>34491014300</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-28T11:20:00.000Z</v>
       </c>
       <c r="K72">
-        <v>2447351459000</v>
+        <v>2240708708600</v>
       </c>
       <c r="L72">
         <v>152178000</v>
@@ -3993,13 +3993,13 @@
         <v>-838700</v>
       </c>
       <c r="N72">
-        <v>-14588754000</v>
+        <v>-14220422700</v>
       </c>
       <c r="O72">
         <v>-4025500</v>
       </c>
       <c r="P72">
-        <v>-14737332000</v>
+        <v>-16681086300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>11900</v>
       </c>
       <c r="E73">
-        <v>26637524000</v>
+        <v>25821740600</v>
       </c>
       <c r="F73">
-        <v>13647851000</v>
+        <v>13607091800</v>
       </c>
       <c r="G73">
         <v>157500000</v>
@@ -4028,13 +4028,13 @@
         <v>2328100</v>
       </c>
       <c r="I73">
-        <v>40442875000</v>
+        <v>39586332400</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-28T11:22:00.000Z</v>
       </c>
       <c r="K73">
-        <v>2487794334000</v>
+        <v>2280295041000</v>
       </c>
       <c r="L73">
         <v>154506100</v>
@@ -4043,13 +4043,13 @@
         <v>-909000</v>
       </c>
       <c r="N73">
-        <v>-12989673000</v>
+        <v>-12214648800</v>
       </c>
       <c r="O73">
         <v>-4934500</v>
       </c>
       <c r="P73">
-        <v>-27727005000</v>
+        <v>-28895735100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>16181430000</v>
+        <v>14590622400</v>
       </c>
       <c r="F74">
-        <v>14318657000</v>
+        <v>14225949800</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4078,13 +4078,13 @@
         <v>1638100</v>
       </c>
       <c r="I74">
-        <v>30500087000</v>
+        <v>28816572200</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-28T11:24:00.000Z</v>
       </c>
       <c r="K74">
-        <v>2518294421000</v>
+        <v>2309111613200</v>
       </c>
       <c r="L74">
         <v>156144200</v>
@@ -4093,13 +4093,13 @@
         <v>-308900</v>
       </c>
       <c r="N74">
-        <v>-1862773000</v>
+        <v>-364672600</v>
       </c>
       <c r="O74">
         <v>-5243400</v>
       </c>
       <c r="P74">
-        <v>-29589778000</v>
+        <v>-29260407700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>1200</v>
       </c>
       <c r="E75">
-        <v>10570140000</v>
+        <v>8436675600</v>
       </c>
       <c r="F75">
-        <v>13787180000</v>
+        <v>13239128600</v>
       </c>
       <c r="G75">
         <v>27838000</v>
@@ -4128,13 +4128,13 @@
         <v>1480300</v>
       </c>
       <c r="I75">
-        <v>24385158000</v>
+        <v>21703642200</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-28T11:26:00.000Z</v>
       </c>
       <c r="K75">
-        <v>2542679579000</v>
+        <v>2330815255400</v>
       </c>
       <c r="L75">
         <v>157624500</v>
@@ -4143,13 +4143,13 @@
         <v>223100</v>
       </c>
       <c r="N75">
-        <v>3217040000</v>
+        <v>4802453000</v>
       </c>
       <c r="O75">
         <v>-5020300</v>
       </c>
       <c r="P75">
-        <v>-26372738000</v>
+        <v>-24457954700</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>8600</v>
       </c>
       <c r="E76">
-        <v>10009698000</v>
+        <v>9712595400</v>
       </c>
       <c r="F76">
-        <v>15979741000</v>
+        <v>12239485000</v>
       </c>
       <c r="G76">
         <v>457796000</v>
@@ -4178,13 +4178,13 @@
         <v>1306100</v>
       </c>
       <c r="I76">
-        <v>26447235000</v>
+        <v>22409876400</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-28T11:28:00.000Z</v>
       </c>
       <c r="K76">
-        <v>2569126814000</v>
+        <v>2353225131800</v>
       </c>
       <c r="L76">
         <v>158930600</v>
@@ -4193,13 +4193,13 @@
         <v>118500</v>
       </c>
       <c r="N76">
-        <v>5970043000</v>
+        <v>2526889600</v>
       </c>
       <c r="O76">
         <v>-4901800</v>
       </c>
       <c r="P76">
-        <v>-20402695000</v>
+        <v>-21931065100</v>
       </c>
     </row>
     <row r="77">
@@ -4234,7 +4234,7 @@
         <v>2022-12-28T11:30:00.000Z</v>
       </c>
       <c r="K77">
-        <v>2569153317000</v>
+        <v>2353251634800</v>
       </c>
       <c r="L77">
         <v>158932500</v>
@@ -4249,7 +4249,7 @@
         <v>-4901500</v>
       </c>
       <c r="P77">
-        <v>-20402308000</v>
+        <v>-21930678100</v>
       </c>
     </row>
     <row r="78">
@@ -4284,7 +4284,7 @@
         <v>2022-12-28T12:58:00.000Z</v>
       </c>
       <c r="K78">
-        <v>2569170567000</v>
+        <v>2353268884800</v>
       </c>
       <c r="L78">
         <v>158934000</v>
@@ -4299,7 +4299,7 @@
         <v>-4903000</v>
       </c>
       <c r="P78">
-        <v>-20419558000</v>
+        <v>-21947928100</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>159500</v>
       </c>
       <c r="E79">
-        <v>49601871000</v>
+        <v>45258718500</v>
       </c>
       <c r="F79">
-        <v>34124652000</v>
+        <v>30068911800</v>
       </c>
       <c r="G79">
-        <v>2244710000</v>
+        <v>2164390400</v>
       </c>
       <c r="H79">
         <v>5343400</v>
       </c>
       <c r="I79">
-        <v>85971233000</v>
+        <v>77492020700</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-28T13:00:00.000Z</v>
       </c>
       <c r="K79">
-        <v>2655141800000</v>
+        <v>2430760905500</v>
       </c>
       <c r="L79">
         <v>164277400</v>
@@ -4343,13 +4343,13 @@
         <v>-1320300</v>
       </c>
       <c r="N79">
-        <v>-15477219000</v>
+        <v>-15189806700</v>
       </c>
       <c r="O79">
         <v>-6223300</v>
       </c>
       <c r="P79">
-        <v>-35896777000</v>
+        <v>-37137734800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>5900</v>
       </c>
       <c r="E80">
-        <v>23782687000</v>
+        <v>20561411500</v>
       </c>
       <c r="F80">
-        <v>13925198000</v>
+        <v>13579144400</v>
       </c>
       <c r="G80">
         <v>216764000</v>
@@ -4378,13 +4378,13 @@
         <v>2163500</v>
       </c>
       <c r="I80">
-        <v>37924649000</v>
+        <v>34357319900</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-28T13:02:00.000Z</v>
       </c>
       <c r="K80">
-        <v>2693066449000</v>
+        <v>2465118225400</v>
       </c>
       <c r="L80">
         <v>166440900</v>
@@ -4393,13 +4393,13 @@
         <v>-466200</v>
       </c>
       <c r="N80">
-        <v>-9857489000</v>
+        <v>-6982267100</v>
       </c>
       <c r="O80">
         <v>-6689500</v>
       </c>
       <c r="P80">
-        <v>-45754266000</v>
+        <v>-44120001900</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>22500</v>
       </c>
       <c r="E81">
-        <v>18068957000</v>
+        <v>16861565600</v>
       </c>
       <c r="F81">
-        <v>17369967000</v>
+        <v>16518918900</v>
       </c>
       <c r="G81">
         <v>243687000</v>
@@ -4428,13 +4428,13 @@
         <v>2162300</v>
       </c>
       <c r="I81">
-        <v>35682611000</v>
+        <v>33624171500</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-28T13:04:00.000Z</v>
       </c>
       <c r="K81">
-        <v>2728749060000</v>
+        <v>2498742396900</v>
       </c>
       <c r="L81">
         <v>168603200</v>
@@ -4443,13 +4443,13 @@
         <v>-313400</v>
       </c>
       <c r="N81">
-        <v>-698990000</v>
+        <v>-342646700</v>
       </c>
       <c r="O81">
         <v>-7002900</v>
       </c>
       <c r="P81">
-        <v>-46453256000</v>
+        <v>-44462648600</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>2200</v>
       </c>
       <c r="E82">
-        <v>13022816000</v>
+        <v>12812426600</v>
       </c>
       <c r="F82">
-        <v>24671686000</v>
+        <v>24162295900</v>
       </c>
       <c r="G82">
         <v>21680000</v>
@@ -4478,13 +4478,13 @@
         <v>2512000</v>
       </c>
       <c r="I82">
-        <v>37716182000</v>
+        <v>36996402500</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-28T13:06:00.000Z</v>
       </c>
       <c r="K82">
-        <v>2766465242000</v>
+        <v>2535738799400</v>
       </c>
       <c r="L82">
         <v>171115200</v>
@@ -4493,13 +4493,13 @@
         <v>879600</v>
       </c>
       <c r="N82">
-        <v>11648870000</v>
+        <v>11349869300</v>
       </c>
       <c r="O82">
         <v>-6123300</v>
       </c>
       <c r="P82">
-        <v>-34804386000</v>
+        <v>-33112779300</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>27800</v>
       </c>
       <c r="E83">
-        <v>19061816000</v>
+        <v>17604175100</v>
       </c>
       <c r="F83">
-        <v>22155327000</v>
+        <v>14265624600</v>
       </c>
       <c r="G83">
         <v>364327000</v>
@@ -4528,13 +4528,13 @@
         <v>2627800</v>
       </c>
       <c r="I83">
-        <v>41581470000</v>
+        <v>32234126700</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-28T13:08:00.000Z</v>
       </c>
       <c r="K83">
-        <v>2808046712000</v>
+        <v>2567972926100</v>
       </c>
       <c r="L83">
         <v>173743000</v>
@@ -4543,13 +4543,13 @@
         <v>501000</v>
       </c>
       <c r="N83">
-        <v>3093511000</v>
+        <v>-3338550500</v>
       </c>
       <c r="O83">
         <v>-5622300</v>
       </c>
       <c r="P83">
-        <v>-31710875000</v>
+        <v>-36451329800</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>4100</v>
       </c>
       <c r="E84">
-        <v>14731442000</v>
+        <v>13434939800</v>
       </c>
       <c r="F84">
-        <v>9034309000</v>
+        <v>8452691200</v>
       </c>
       <c r="G84">
         <v>23535000</v>
@@ -4578,13 +4578,13 @@
         <v>1466700</v>
       </c>
       <c r="I84">
-        <v>23789286000</v>
+        <v>21911166000</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-28T13:10:00.000Z</v>
       </c>
       <c r="K84">
-        <v>2831835998000</v>
+        <v>2589884092100</v>
       </c>
       <c r="L84">
         <v>175209700</v>
@@ -4593,13 +4593,13 @@
         <v>-463800</v>
       </c>
       <c r="N84">
-        <v>-5697133000</v>
+        <v>-4982248600</v>
       </c>
       <c r="O84">
         <v>-6086100</v>
       </c>
       <c r="P84">
-        <v>-37408008000</v>
+        <v>-41433578400</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>8000</v>
       </c>
       <c r="E85">
-        <v>15084626000</v>
+        <v>13571940200</v>
       </c>
       <c r="F85">
-        <v>14981872000</v>
+        <v>14186168500</v>
       </c>
       <c r="G85">
         <v>135822000</v>
@@ -4628,13 +4628,13 @@
         <v>1762900</v>
       </c>
       <c r="I85">
-        <v>30202320000</v>
+        <v>27893930700</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-28T13:12:00.000Z</v>
       </c>
       <c r="K85">
-        <v>2862038318000</v>
+        <v>2617778022800</v>
       </c>
       <c r="L85">
         <v>176972600</v>
@@ -4643,13 +4643,13 @@
         <v>-98700</v>
       </c>
       <c r="N85">
-        <v>-102754000</v>
+        <v>614228300</v>
       </c>
       <c r="O85">
         <v>-6184800</v>
       </c>
       <c r="P85">
-        <v>-37510762000</v>
+        <v>-40819350100</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>6000</v>
       </c>
       <c r="E86">
-        <v>12002517000</v>
+        <v>11614605300</v>
       </c>
       <c r="F86">
-        <v>34936366000</v>
+        <v>31871434000</v>
       </c>
       <c r="G86">
         <v>96801000</v>
@@ -4678,13 +4678,13 @@
         <v>2588800</v>
       </c>
       <c r="I86">
-        <v>47035684000</v>
+        <v>43582840300</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-28T13:14:00.000Z</v>
       </c>
       <c r="K86">
-        <v>2909074002000</v>
+        <v>2661360863100</v>
       </c>
       <c r="L86">
         <v>179561400</v>
@@ -4693,13 +4693,13 @@
         <v>1216600</v>
       </c>
       <c r="N86">
-        <v>22933849000</v>
+        <v>20256828700</v>
       </c>
       <c r="O86">
         <v>-4968200</v>
       </c>
       <c r="P86">
-        <v>-14576913000</v>
+        <v>-20562521400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>24900</v>
       </c>
       <c r="E87">
-        <v>9444432000</v>
+        <v>8485591800</v>
       </c>
       <c r="F87">
-        <v>38789688000</v>
+        <v>34240741500</v>
       </c>
       <c r="G87">
         <v>459443000</v>
@@ -4728,13 +4728,13 @@
         <v>2876400</v>
       </c>
       <c r="I87">
-        <v>48693563000</v>
+        <v>43185776300</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-28T13:16:00.000Z</v>
       </c>
       <c r="K87">
-        <v>2957767565000</v>
+        <v>2704546639400</v>
       </c>
       <c r="L87">
         <v>182437800</v>
@@ -4743,13 +4743,13 @@
         <v>1890300</v>
       </c>
       <c r="N87">
-        <v>29345256000</v>
+        <v>25755149700</v>
       </c>
       <c r="O87">
         <v>-3077900</v>
       </c>
       <c r="P87">
-        <v>14768343000</v>
+        <v>5192628300</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>52400</v>
       </c>
       <c r="E88">
-        <v>12574762000</v>
+        <v>12026910400</v>
       </c>
       <c r="F88">
-        <v>36247354000</v>
+        <v>33302901400</v>
       </c>
       <c r="G88">
         <v>206372000</v>
@@ -4778,13 +4778,13 @@
         <v>2568200</v>
       </c>
       <c r="I88">
-        <v>49028488000</v>
+        <v>45536183800</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-28T13:18:00.000Z</v>
       </c>
       <c r="K88">
-        <v>3006796053000</v>
+        <v>2750082823200</v>
       </c>
       <c r="L88">
         <v>185006000</v>
@@ -4793,13 +4793,13 @@
         <v>1113000</v>
       </c>
       <c r="N88">
-        <v>23672592000</v>
+        <v>21275991000</v>
       </c>
       <c r="O88">
         <v>-1964900</v>
       </c>
       <c r="P88">
-        <v>38440935000</v>
+        <v>26468619300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>40800</v>
       </c>
       <c r="E89">
-        <v>16178575000</v>
+        <v>15990563200</v>
       </c>
       <c r="F89">
-        <v>27746512000</v>
+        <v>25461799000</v>
       </c>
       <c r="G89">
         <v>1970813000</v>
@@ -4828,13 +4828,13 @@
         <v>2734700</v>
       </c>
       <c r="I89">
-        <v>45895900000</v>
+        <v>43423175200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-28T13:20:00.000Z</v>
       </c>
       <c r="K89">
-        <v>3052691953000</v>
+        <v>2793505998400</v>
       </c>
       <c r="L89">
         <v>187740700</v>
@@ -4843,13 +4843,13 @@
         <v>637300</v>
       </c>
       <c r="N89">
-        <v>11567937000</v>
+        <v>9471235800</v>
       </c>
       <c r="O89">
         <v>-1327600</v>
       </c>
       <c r="P89">
-        <v>50008872000</v>
+        <v>35939855100</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>21200</v>
       </c>
       <c r="E90">
-        <v>16045968000</v>
+        <v>15430284300</v>
       </c>
       <c r="F90">
-        <v>27471254000</v>
+        <v>24017511200</v>
       </c>
       <c r="G90">
         <v>192365000</v>
@@ -4878,13 +4878,13 @@
         <v>3061200</v>
       </c>
       <c r="I90">
-        <v>43709587000</v>
+        <v>39640160500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-28T13:22:00.000Z</v>
       </c>
       <c r="K90">
-        <v>3096401540000</v>
+        <v>2833146158900</v>
       </c>
       <c r="L90">
         <v>190801900</v>
@@ -4893,13 +4893,13 @@
         <v>892600</v>
       </c>
       <c r="N90">
-        <v>11425286000</v>
+        <v>8587226900</v>
       </c>
       <c r="O90">
         <v>-435000</v>
       </c>
       <c r="P90">
-        <v>61434158000</v>
+        <v>44527082000</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>167400</v>
       </c>
       <c r="E91">
-        <v>25956959000</v>
+        <v>23814104000</v>
       </c>
       <c r="F91">
-        <v>23733665000</v>
+        <v>23204294900</v>
       </c>
       <c r="G91">
         <v>3308196000</v>
@@ -4928,13 +4928,13 @@
         <v>3330500</v>
       </c>
       <c r="I91">
-        <v>52998820000</v>
+        <v>50326594900</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-28T13:24:00.000Z</v>
       </c>
       <c r="K91">
-        <v>3149400360000</v>
+        <v>2883472753800</v>
       </c>
       <c r="L91">
         <v>194132400</v>
@@ -4943,13 +4943,13 @@
         <v>24500</v>
       </c>
       <c r="N91">
-        <v>-2223294000</v>
+        <v>-609809100</v>
       </c>
       <c r="O91">
         <v>-410500</v>
       </c>
       <c r="P91">
-        <v>59210864000</v>
+        <v>43917272900</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>25700</v>
       </c>
       <c r="E92">
-        <v>25173801000</v>
+        <v>25110464400</v>
       </c>
       <c r="F92">
-        <v>26555086000</v>
+        <v>24082261300</v>
       </c>
       <c r="G92">
         <v>164031000</v>
@@ -4978,13 +4978,13 @@
         <v>3103900</v>
       </c>
       <c r="I92">
-        <v>51892918000</v>
+        <v>49356756700</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-28T13:26:00.000Z</v>
       </c>
       <c r="K92">
-        <v>3201293278000</v>
+        <v>2932829510500</v>
       </c>
       <c r="L92">
         <v>197236300</v>
@@ -4993,13 +4993,13 @@
         <v>-281200</v>
       </c>
       <c r="N92">
-        <v>1381285000</v>
+        <v>-1028203100</v>
       </c>
       <c r="O92">
         <v>-691700</v>
       </c>
       <c r="P92">
-        <v>60592149000</v>
+        <v>42889069800</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>39100</v>
       </c>
       <c r="E93">
-        <v>23228336000</v>
+        <v>22458406700</v>
       </c>
       <c r="F93">
-        <v>41458663000</v>
+        <v>28432901800</v>
       </c>
       <c r="G93">
-        <v>1716860000</v>
+        <v>1713063800</v>
       </c>
       <c r="H93">
         <v>3721100</v>
       </c>
       <c r="I93">
-        <v>66403859000</v>
+        <v>52604372300</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-28T13:28:00.000Z</v>
       </c>
       <c r="K93">
-        <v>3267697137000</v>
+        <v>2985433882800</v>
       </c>
       <c r="L93">
         <v>200957400</v>
@@ -5043,13 +5043,13 @@
         <v>857000</v>
       </c>
       <c r="N93">
-        <v>18230327000</v>
+        <v>5974495100</v>
       </c>
       <c r="O93">
         <v>165300</v>
       </c>
       <c r="P93">
-        <v>78822476000</v>
+        <v>48863564900</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>5500</v>
       </c>
       <c r="E94">
-        <v>20337512000</v>
+        <v>14753901200</v>
       </c>
       <c r="F94">
-        <v>16275675000</v>
+        <v>13525627800</v>
       </c>
       <c r="G94">
         <v>92785000</v>
@@ -5078,13 +5078,13 @@
         <v>2021500</v>
       </c>
       <c r="I94">
-        <v>36705972000</v>
+        <v>28372314000</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-28T13:30:00.000Z</v>
       </c>
       <c r="K94">
-        <v>3304403109000</v>
+        <v>3013806196800</v>
       </c>
       <c r="L94">
         <v>202978900</v>
@@ -5093,13 +5093,13 @@
         <v>-294000</v>
       </c>
       <c r="N94">
-        <v>-4061837000</v>
+        <v>-1228273400</v>
       </c>
       <c r="O94">
         <v>-128700</v>
       </c>
       <c r="P94">
-        <v>74760639000</v>
+        <v>47635291500</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>34200</v>
       </c>
       <c r="E95">
-        <v>17876511000</v>
+        <v>16798689900</v>
       </c>
       <c r="F95">
-        <v>17554313000</v>
+        <v>16784983100</v>
       </c>
       <c r="G95">
         <v>417127000</v>
@@ -5128,13 +5128,13 @@
         <v>2007600</v>
       </c>
       <c r="I95">
-        <v>35847951000</v>
+        <v>34000800000</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-28T13:32:00.000Z</v>
       </c>
       <c r="K95">
-        <v>3340251060000</v>
+        <v>3047806996800</v>
       </c>
       <c r="L95">
         <v>204986500</v>
@@ -5143,13 +5143,13 @@
         <v>-164000</v>
       </c>
       <c r="N95">
-        <v>-322198000</v>
+        <v>-13706800</v>
       </c>
       <c r="O95">
         <v>-292700</v>
       </c>
       <c r="P95">
-        <v>74438441000</v>
+        <v>47621584700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>2300</v>
       </c>
       <c r="E96">
-        <v>21505694000</v>
+        <v>19465935800</v>
       </c>
       <c r="F96">
-        <v>21464974000</v>
+        <v>20524115800</v>
       </c>
       <c r="G96">
         <v>29877000</v>
@@ -5178,13 +5178,13 @@
         <v>2397700</v>
       </c>
       <c r="I96">
-        <v>43000545000</v>
+        <v>40019928600</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-28T13:34:00.000Z</v>
       </c>
       <c r="K96">
-        <v>3383251605000</v>
+        <v>3087826925400</v>
       </c>
       <c r="L96">
         <v>207384200</v>
@@ -5193,13 +5193,13 @@
         <v>-287400</v>
       </c>
       <c r="N96">
-        <v>-40720000</v>
+        <v>1058180000</v>
       </c>
       <c r="O96">
         <v>-580100</v>
       </c>
       <c r="P96">
-        <v>74397721000</v>
+        <v>48679764700</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>32500</v>
       </c>
       <c r="E97">
-        <v>11539162000</v>
+        <v>11291609800</v>
       </c>
       <c r="F97">
-        <v>27205181000</v>
+        <v>25481006900</v>
       </c>
       <c r="G97">
         <v>239781000</v>
@@ -5228,13 +5228,13 @@
         <v>2078700</v>
       </c>
       <c r="I97">
-        <v>38984124000</v>
+        <v>37012397700</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-28T13:36:00.000Z</v>
       </c>
       <c r="K97">
-        <v>3422235729000</v>
+        <v>3124839323100</v>
       </c>
       <c r="L97">
         <v>209462900</v>
@@ -5243,13 +5243,13 @@
         <v>808400</v>
       </c>
       <c r="N97">
-        <v>15666019000</v>
+        <v>14189397100</v>
       </c>
       <c r="O97">
         <v>228300</v>
       </c>
       <c r="P97">
-        <v>90063740000</v>
+        <v>62869161800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>25600</v>
       </c>
       <c r="E98">
-        <v>15094900000</v>
+        <v>13856439700</v>
       </c>
       <c r="F98">
-        <v>75439193000</v>
+        <v>59866681100</v>
       </c>
       <c r="G98">
-        <v>2873260000</v>
+        <v>590345200</v>
       </c>
       <c r="H98">
         <v>4776700</v>
       </c>
       <c r="I98">
-        <v>93407353000</v>
+        <v>74313466000</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-28T13:38:00.000Z</v>
       </c>
       <c r="K98">
-        <v>3515643082000</v>
+        <v>3199152789100</v>
       </c>
       <c r="L98">
         <v>214239600</v>
@@ -5293,13 +5293,13 @@
         <v>3272100</v>
       </c>
       <c r="N98">
-        <v>60344293000</v>
+        <v>46010241400</v>
       </c>
       <c r="O98">
         <v>3500400</v>
       </c>
       <c r="P98">
-        <v>150408033000</v>
+        <v>108879403200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>111500</v>
       </c>
       <c r="E99">
-        <v>26184080000</v>
+        <v>25284180800</v>
       </c>
       <c r="F99">
-        <v>89311564000</v>
+        <v>80982501400</v>
       </c>
       <c r="G99">
         <v>1835821000</v>
@@ -5328,13 +5328,13 @@
         <v>6718500</v>
       </c>
       <c r="I99">
-        <v>117331465000</v>
+        <v>108102503200</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-28T13:40:00.000Z</v>
       </c>
       <c r="K99">
-        <v>3632974547000</v>
+        <v>3307255292300</v>
       </c>
       <c r="L99">
         <v>220958100</v>
@@ -5343,13 +5343,13 @@
         <v>3446200</v>
       </c>
       <c r="N99">
-        <v>63127484000</v>
+        <v>55698320600</v>
       </c>
       <c r="O99">
         <v>6946600</v>
       </c>
       <c r="P99">
-        <v>213535517000</v>
+        <v>164577723800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>7000</v>
       </c>
       <c r="E100">
-        <v>27897592000</v>
+        <v>25674117700</v>
       </c>
       <c r="F100">
-        <v>58290476000</v>
+        <v>46397480900</v>
       </c>
       <c r="G100">
         <v>239745000</v>
@@ -5378,13 +5378,13 @@
         <v>4822400</v>
       </c>
       <c r="I100">
-        <v>86427813000</v>
+        <v>72311343600</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-28T13:42:00.000Z</v>
       </c>
       <c r="K100">
-        <v>3719402360000</v>
+        <v>3379566635900</v>
       </c>
       <c r="L100">
         <v>225780500</v>
@@ -5393,13 +5393,13 @@
         <v>1599000</v>
       </c>
       <c r="N100">
-        <v>30392884000</v>
+        <v>20723363200</v>
       </c>
       <c r="O100">
         <v>8545600</v>
       </c>
       <c r="P100">
-        <v>243928401000</v>
+        <v>185301087000</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>9100</v>
       </c>
       <c r="E101">
-        <v>23760070000</v>
+        <v>20229104500</v>
       </c>
       <c r="F101">
-        <v>37511180000</v>
+        <v>33389006300</v>
       </c>
       <c r="G101">
         <v>97625000</v>
@@ -5428,13 +5428,13 @@
         <v>3520400</v>
       </c>
       <c r="I101">
-        <v>61368875000</v>
+        <v>53715735800</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-28T13:44:00.000Z</v>
       </c>
       <c r="K101">
-        <v>3780771235000</v>
+        <v>3433282371700</v>
       </c>
       <c r="L101">
         <v>229300900</v>
@@ -5443,13 +5443,13 @@
         <v>675900</v>
       </c>
       <c r="N101">
-        <v>13751110000</v>
+        <v>13159901800</v>
       </c>
       <c r="O101">
         <v>9221500</v>
       </c>
       <c r="P101">
-        <v>257679511000</v>
+        <v>198460988800</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>27900</v>
       </c>
       <c r="E102">
-        <v>18635547000</v>
+        <v>17645837700</v>
       </c>
       <c r="F102">
-        <v>51280130000</v>
+        <v>48735177500</v>
       </c>
       <c r="G102">
         <v>474970000</v>
@@ -5478,13 +5478,13 @@
         <v>3938200</v>
       </c>
       <c r="I102">
-        <v>70390647000</v>
+        <v>66855985200</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-28T13:46:00.000Z</v>
       </c>
       <c r="K102">
-        <v>3851161882000</v>
+        <v>3500138356900</v>
       </c>
       <c r="L102">
         <v>233239100</v>
@@ -5493,13 +5493,13 @@
         <v>1775300</v>
       </c>
       <c r="N102">
-        <v>32644583000</v>
+        <v>31089339800</v>
       </c>
       <c r="O102">
         <v>10996800</v>
       </c>
       <c r="P102">
-        <v>290324094000</v>
+        <v>229550328600</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>11600</v>
       </c>
       <c r="E103">
-        <v>32817144000</v>
+        <v>30128235600</v>
       </c>
       <c r="F103">
-        <v>35920819000</v>
+        <v>33604537600</v>
       </c>
       <c r="G103">
         <v>205644000</v>
@@ -5528,13 +5528,13 @@
         <v>4061000</v>
       </c>
       <c r="I103">
-        <v>68943607000</v>
+        <v>63938417200</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-28T13:48:00.000Z</v>
       </c>
       <c r="K103">
-        <v>3920105489000</v>
+        <v>3564076774100</v>
       </c>
       <c r="L103">
         <v>237300100</v>
@@ -5543,13 +5543,13 @@
         <v>259000</v>
       </c>
       <c r="N103">
-        <v>3103675000</v>
+        <v>3476302000</v>
       </c>
       <c r="O103">
         <v>11255800</v>
       </c>
       <c r="P103">
-        <v>293427769000</v>
+        <v>233026630600</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>23600</v>
       </c>
       <c r="E104">
-        <v>55291449000</v>
+        <v>43510741500</v>
       </c>
       <c r="F104">
-        <v>30335264000</v>
+        <v>26162640800</v>
       </c>
       <c r="G104">
         <v>347284000</v>
@@ -5578,13 +5578,13 @@
         <v>5032000</v>
       </c>
       <c r="I104">
-        <v>85973997000</v>
+        <v>70020666300</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-28T13:50:00.000Z</v>
       </c>
       <c r="K104">
-        <v>4006079486000</v>
+        <v>3634097440400</v>
       </c>
       <c r="L104">
         <v>242332100</v>
@@ -5593,13 +5593,13 @@
         <v>-1990000</v>
       </c>
       <c r="N104">
-        <v>-24956185000</v>
+        <v>-17348100700</v>
       </c>
       <c r="O104">
         <v>9265800</v>
       </c>
       <c r="P104">
-        <v>268471584000</v>
+        <v>215678529900</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>18500</v>
       </c>
       <c r="E105">
-        <v>39528854000</v>
+        <v>38788095500</v>
       </c>
       <c r="F105">
-        <v>15522470000</v>
+        <v>15153139700</v>
       </c>
       <c r="G105">
         <v>320755000</v>
@@ -5628,13 +5628,13 @@
         <v>3757200</v>
       </c>
       <c r="I105">
-        <v>55372079000</v>
+        <v>54261990200</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-28T13:52:00.000Z</v>
       </c>
       <c r="K105">
-        <v>4061451565000</v>
+        <v>3688359430600</v>
       </c>
       <c r="L105">
         <v>246089300</v>
@@ -5643,13 +5643,13 @@
         <v>-2116900</v>
       </c>
       <c r="N105">
-        <v>-24006384000</v>
+        <v>-23634955800</v>
       </c>
       <c r="O105">
         <v>7148900</v>
       </c>
       <c r="P105">
-        <v>244465200000</v>
+        <v>192043574100</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>10800</v>
       </c>
       <c r="E106">
-        <v>27261698000</v>
+        <v>26777083100</v>
       </c>
       <c r="F106">
-        <v>15130702000</v>
+        <v>14522610700</v>
       </c>
       <c r="G106">
         <v>87590000</v>
@@ -5678,13 +5678,13 @@
         <v>2536200</v>
       </c>
       <c r="I106">
-        <v>42479990000</v>
+        <v>41387283800</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-28T13:54:00.000Z</v>
       </c>
       <c r="K106">
-        <v>4103931555000</v>
+        <v>3729746714400</v>
       </c>
       <c r="L106">
         <v>248625500</v>
@@ -5693,13 +5693,13 @@
         <v>-781200</v>
       </c>
       <c r="N106">
-        <v>-12130996000</v>
+        <v>-12254472400</v>
       </c>
       <c r="O106">
         <v>6367700</v>
       </c>
       <c r="P106">
-        <v>232334204000</v>
+        <v>179789101700</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>3800</v>
       </c>
       <c r="E107">
-        <v>31228881000</v>
+        <v>29503608000</v>
       </c>
       <c r="F107">
-        <v>20611405000</v>
+        <v>17118401500</v>
       </c>
       <c r="G107">
         <v>38644000</v>
@@ -5728,13 +5728,13 @@
         <v>3286500</v>
       </c>
       <c r="I107">
-        <v>51878930000</v>
+        <v>46660653500</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-28T13:56:00.000Z</v>
       </c>
       <c r="K107">
-        <v>4155810485000</v>
+        <v>3776407367900</v>
       </c>
       <c r="L107">
         <v>251912000</v>
@@ -5743,13 +5743,13 @@
         <v>-813100</v>
       </c>
       <c r="N107">
-        <v>-10617476000</v>
+        <v>-12385206500</v>
       </c>
       <c r="O107">
         <v>5554600</v>
       </c>
       <c r="P107">
-        <v>221716728000</v>
+        <v>167403895200</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>48000</v>
       </c>
       <c r="E108">
-        <v>10714500000</v>
+        <v>10352362500</v>
       </c>
       <c r="F108">
-        <v>17847490000</v>
+        <v>16014724600</v>
       </c>
       <c r="G108">
         <v>1025716000</v>
@@ -5778,13 +5778,13 @@
         <v>1854200</v>
       </c>
       <c r="I108">
-        <v>29587706000</v>
+        <v>27392803100</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-28T13:58:00.000Z</v>
       </c>
       <c r="K108">
-        <v>4185398191000</v>
+        <v>3803800171000</v>
       </c>
       <c r="L108">
         <v>253766200</v>
@@ -5793,13 +5793,13 @@
         <v>253200</v>
       </c>
       <c r="N108">
-        <v>7132990000</v>
+        <v>5662362100</v>
       </c>
       <c r="O108">
         <v>5807800</v>
       </c>
       <c r="P108">
-        <v>228849718000</v>
+        <v>173066257300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>33100</v>
       </c>
       <c r="E109">
-        <v>12997261000</v>
+        <v>12475783000</v>
       </c>
       <c r="F109">
-        <v>29030792000</v>
+        <v>27786038000</v>
       </c>
       <c r="G109">
         <v>455425000</v>
@@ -5828,13 +5828,13 @@
         <v>2569200</v>
       </c>
       <c r="I109">
-        <v>42483478000</v>
+        <v>40717246000</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-28T14:00:00.000Z</v>
       </c>
       <c r="K109">
-        <v>4227881669000</v>
+        <v>3844517417000</v>
       </c>
       <c r="L109">
         <v>256335400</v>
@@ -5843,13 +5843,13 @@
         <v>914500</v>
       </c>
       <c r="N109">
-        <v>16033531000</v>
+        <v>15310255000</v>
       </c>
       <c r="O109">
         <v>6722300</v>
       </c>
       <c r="P109">
-        <v>244883249000</v>
+        <v>188376512300</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>55500</v>
       </c>
       <c r="E110">
-        <v>20665648000</v>
+        <v>20157556600</v>
       </c>
       <c r="F110">
-        <v>37983058000</v>
+        <v>34572571900</v>
       </c>
       <c r="G110">
         <v>720469000</v>
@@ -5878,13 +5878,13 @@
         <v>3097100</v>
       </c>
       <c r="I110">
-        <v>59369175000</v>
+        <v>55450597500</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-28T14:02:00.000Z</v>
       </c>
       <c r="K110">
-        <v>4287250844000</v>
+        <v>3899968014500</v>
       </c>
       <c r="L110">
         <v>259432500</v>
@@ -5893,13 +5893,13 @@
         <v>721000</v>
       </c>
       <c r="N110">
-        <v>17317410000</v>
+        <v>14415015300</v>
       </c>
       <c r="O110">
         <v>7443300</v>
       </c>
       <c r="P110">
-        <v>262200659000</v>
+        <v>202791527600</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>4500</v>
       </c>
       <c r="E111">
-        <v>13521098000</v>
+        <v>13104215300</v>
       </c>
       <c r="F111">
-        <v>69833444000</v>
+        <v>61293192800</v>
       </c>
       <c r="G111">
         <v>41721000</v>
@@ -5928,13 +5928,13 @@
         <v>4593200</v>
       </c>
       <c r="I111">
-        <v>83396263000</v>
+        <v>74439129100</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-28T14:04:00.000Z</v>
       </c>
       <c r="K111">
-        <v>4370647107000</v>
+        <v>3974407143600</v>
       </c>
       <c r="L111">
         <v>264025700</v>
@@ -5943,13 +5943,13 @@
         <v>3141500</v>
       </c>
       <c r="N111">
-        <v>56312346000</v>
+        <v>48188977500</v>
       </c>
       <c r="O111">
         <v>10584800</v>
       </c>
       <c r="P111">
-        <v>318513005000</v>
+        <v>250980505100</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>1600</v>
       </c>
       <c r="E112">
-        <v>19305666000</v>
+        <v>18062410500</v>
       </c>
       <c r="F112">
-        <v>34654530000</v>
+        <v>27991599600</v>
       </c>
       <c r="G112">
         <v>35471000</v>
@@ -5978,13 +5978,13 @@
         <v>3091600</v>
       </c>
       <c r="I112">
-        <v>53995667000</v>
+        <v>46089481100</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-28T14:06:00.000Z</v>
       </c>
       <c r="K112">
-        <v>4424642774000</v>
+        <v>4020496624700</v>
       </c>
       <c r="L112">
         <v>267117300</v>
@@ -5993,13 +5993,13 @@
         <v>939200</v>
       </c>
       <c r="N112">
-        <v>15348864000</v>
+        <v>9929189100</v>
       </c>
       <c r="O112">
         <v>11524000</v>
       </c>
       <c r="P112">
-        <v>333861869000</v>
+        <v>260909694200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>3500</v>
       </c>
       <c r="E113">
-        <v>23036898000</v>
+        <v>21655380900</v>
       </c>
       <c r="F113">
-        <v>88645496000</v>
+        <v>84950394800</v>
       </c>
       <c r="G113">
         <v>45185000</v>
@@ -6028,13 +6028,13 @@
         <v>6350800</v>
       </c>
       <c r="I113">
-        <v>111727579000</v>
+        <v>106650960700</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-28T14:08:00.000Z</v>
       </c>
       <c r="K113">
-        <v>4536370353000</v>
+        <v>4127147585400</v>
       </c>
       <c r="L113">
         <v>273468100</v>
@@ -6043,13 +6043,13 @@
         <v>3720900</v>
       </c>
       <c r="N113">
-        <v>65608598000</v>
+        <v>63295013900</v>
       </c>
       <c r="O113">
         <v>15244900</v>
       </c>
       <c r="P113">
-        <v>399470467000</v>
+        <v>324204708100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>34900</v>
       </c>
       <c r="E114">
-        <v>17242164000</v>
+        <v>16376330700</v>
       </c>
       <c r="F114">
-        <v>147823898000</v>
+        <v>140719909100</v>
       </c>
       <c r="G114">
         <v>749135000</v>
@@ -6078,13 +6078,13 @@
         <v>8817500</v>
       </c>
       <c r="I114">
-        <v>165815197000</v>
+        <v>157845374800</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-28T14:10:00.000Z</v>
       </c>
       <c r="K114">
-        <v>4702185550000</v>
+        <v>4284992960200</v>
       </c>
       <c r="L114">
         <v>282285600</v>
@@ -6093,13 +6093,13 @@
         <v>7091800</v>
       </c>
       <c r="N114">
-        <v>130581734000</v>
+        <v>124343578400</v>
       </c>
       <c r="O114">
         <v>22336700</v>
       </c>
       <c r="P114">
-        <v>530052201000</v>
+        <v>448548286500</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>135200</v>
       </c>
       <c r="E115">
-        <v>51735656000</v>
+        <v>46693003700</v>
       </c>
       <c r="F115">
-        <v>183001225000</v>
+        <v>167394447400</v>
       </c>
       <c r="G115">
-        <v>2515261000</v>
+        <v>2467708600</v>
       </c>
       <c r="H115">
         <v>13102200</v>
       </c>
       <c r="I115">
-        <v>237252142000</v>
+        <v>216555159700</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-28T14:12:00.000Z</v>
       </c>
       <c r="K115">
-        <v>4939437692000</v>
+        <v>4501548119900</v>
       </c>
       <c r="L115">
         <v>295387800</v>
@@ -6143,13 +6143,13 @@
         <v>7436400</v>
       </c>
       <c r="N115">
-        <v>131265569000</v>
+        <v>120701443700</v>
       </c>
       <c r="O115">
         <v>29773100</v>
       </c>
       <c r="P115">
-        <v>661317770000</v>
+        <v>569249730200</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>16900</v>
       </c>
       <c r="E116">
-        <v>86437385000</v>
+        <v>83523102200</v>
       </c>
       <c r="F116">
-        <v>66464666000</v>
+        <v>64352979800</v>
       </c>
       <c r="G116">
-        <v>560345000</v>
+        <v>551553800</v>
       </c>
       <c r="H116">
         <v>8461700</v>
       </c>
       <c r="I116">
-        <v>153462396000</v>
+        <v>148427635800</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-28T14:14:00.000Z</v>
       </c>
       <c r="K116">
-        <v>5092900088000</v>
+        <v>4649975755700</v>
       </c>
       <c r="L116">
         <v>303849500</v>
@@ -6193,13 +6193,13 @@
         <v>-603000</v>
       </c>
       <c r="N116">
-        <v>-19972719000</v>
+        <v>-19170122400</v>
       </c>
       <c r="O116">
         <v>29170100</v>
       </c>
       <c r="P116">
-        <v>641345051000</v>
+        <v>550079607800</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>20200</v>
       </c>
       <c r="E117">
-        <v>42214190000</v>
+        <v>41486418500</v>
       </c>
       <c r="F117">
-        <v>49984458000</v>
+        <v>48561382500</v>
       </c>
       <c r="G117">
-        <v>318145000</v>
+        <v>312750400</v>
       </c>
       <c r="H117">
         <v>4978100</v>
       </c>
       <c r="I117">
-        <v>92516793000</v>
+        <v>90360551400</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-28T14:16:00.000Z</v>
       </c>
       <c r="K117">
-        <v>5185416881000</v>
+        <v>4740336307100</v>
       </c>
       <c r="L117">
         <v>308827600</v>
@@ -6243,13 +6243,13 @@
         <v>5100</v>
       </c>
       <c r="N117">
-        <v>7770268000</v>
+        <v>7074964000</v>
       </c>
       <c r="O117">
         <v>29175200</v>
       </c>
       <c r="P117">
-        <v>649115319000</v>
+        <v>557154571800</v>
       </c>
     </row>
     <row r="118">
@@ -6266,10 +6266,10 @@
         <v>39500</v>
       </c>
       <c r="E118">
-        <v>58418916000</v>
+        <v>54874364100</v>
       </c>
       <c r="F118">
-        <v>61033549000</v>
+        <v>55159029400</v>
       </c>
       <c r="G118">
         <v>465378000</v>
@@ -6278,13 +6278,13 @@
         <v>6086200</v>
       </c>
       <c r="I118">
-        <v>119917843000</v>
+        <v>110498771500</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-28T14:18:00.000Z</v>
       </c>
       <c r="K118">
-        <v>5305334724000</v>
+        <v>4850835078600</v>
       </c>
       <c r="L118">
         <v>314913800</v>
@@ -6293,13 +6293,13 @@
         <v>190100</v>
       </c>
       <c r="N118">
-        <v>2614633000</v>
+        <v>284665300</v>
       </c>
       <c r="O118">
         <v>29365300</v>
       </c>
       <c r="P118">
-        <v>651729952000</v>
+        <v>557439237100</v>
       </c>
     </row>
     <row r="119">
@@ -6316,10 +6316,10 @@
         <v>44500</v>
       </c>
       <c r="E119">
-        <v>67149396000</v>
+        <v>62298351900</v>
       </c>
       <c r="F119">
-        <v>50868697000</v>
+        <v>46299171100</v>
       </c>
       <c r="G119">
         <v>1100368000</v>
@@ -6328,13 +6328,13 @@
         <v>6136400</v>
       </c>
       <c r="I119">
-        <v>119118461000</v>
+        <v>109697891000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-28T14:20:00.000Z</v>
       </c>
       <c r="K119">
-        <v>5424453185000</v>
+        <v>4960532969600</v>
       </c>
       <c r="L119">
         <v>321050200</v>
@@ -6343,13 +6343,13 @@
         <v>-865100</v>
       </c>
       <c r="N119">
-        <v>-16280699000</v>
+        <v>-15999180800</v>
       </c>
       <c r="O119">
         <v>28500200</v>
       </c>
       <c r="P119">
-        <v>635449253000</v>
+        <v>541440056300</v>
       </c>
     </row>
     <row r="120">
@@ -6366,25 +6366,25 @@
         <v>27000</v>
       </c>
       <c r="E120">
-        <v>67185545000</v>
+        <v>60197440100</v>
       </c>
       <c r="F120">
-        <v>57646883000</v>
+        <v>53970363200</v>
       </c>
       <c r="G120">
-        <v>505133000</v>
+        <v>498539600</v>
       </c>
       <c r="H120">
         <v>7759800</v>
       </c>
       <c r="I120">
-        <v>125337561000</v>
+        <v>114666342900</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-28T14:22:00.000Z</v>
       </c>
       <c r="K120">
-        <v>5549790746000</v>
+        <v>5075199312500</v>
       </c>
       <c r="L120">
         <v>328810000</v>
@@ -6393,13 +6393,13 @@
         <v>-1182200</v>
       </c>
       <c r="N120">
-        <v>-9538662000</v>
+        <v>-6227076900</v>
       </c>
       <c r="O120">
         <v>27318000</v>
       </c>
       <c r="P120">
-        <v>625910591000</v>
+        <v>535212979400</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>15100</v>
       </c>
       <c r="E121">
-        <v>34505194000</v>
+        <v>31696705300</v>
       </c>
       <c r="F121">
-        <v>55801813000</v>
+        <v>49892728000</v>
       </c>
       <c r="G121">
-        <v>909446000</v>
+        <v>905849600</v>
       </c>
       <c r="H121">
         <v>4880500</v>
       </c>
       <c r="I121">
-        <v>91216453000</v>
+        <v>82495282900</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-28T14:24:00.000Z</v>
       </c>
       <c r="K121">
-        <v>5641007199000</v>
+        <v>5157694595400</v>
       </c>
       <c r="L121">
         <v>333690500</v>
@@ -6443,13 +6443,13 @@
         <v>872200</v>
       </c>
       <c r="N121">
-        <v>21296619000</v>
+        <v>18196022700</v>
       </c>
       <c r="O121">
         <v>28190200</v>
       </c>
       <c r="P121">
-        <v>647207210000</v>
+        <v>553409002100</v>
       </c>
     </row>
     <row r="122">
@@ -6466,25 +6466,25 @@
         <v>120300</v>
       </c>
       <c r="E122">
-        <v>39447707000</v>
+        <v>37194262700</v>
       </c>
       <c r="F122">
-        <v>44476569000</v>
+        <v>38987064000</v>
       </c>
       <c r="G122">
-        <v>3832101000</v>
+        <v>1792942200</v>
       </c>
       <c r="H122">
         <v>5058700</v>
       </c>
       <c r="I122">
-        <v>87756377000</v>
+        <v>77974268900</v>
       </c>
       <c r="J122" t="str">
         <v>2022-12-28T14:26:00.000Z</v>
       </c>
       <c r="K122">
-        <v>5728763576000</v>
+        <v>5235668864300</v>
       </c>
       <c r="L122">
         <v>338749200</v>
@@ -6493,13 +6493,13 @@
         <v>-90600</v>
       </c>
       <c r="N122">
-        <v>5028862000</v>
+        <v>1792801300</v>
       </c>
       <c r="O122">
         <v>28099600</v>
       </c>
       <c r="P122">
-        <v>652236072000</v>
+        <v>555201803400</v>
       </c>
     </row>
     <row r="123">
@@ -6516,25 +6516,25 @@
         <v>44700</v>
       </c>
       <c r="E123">
-        <v>89677194000</v>
+        <v>81866812200</v>
       </c>
       <c r="F123">
-        <v>40355606000</v>
+        <v>34294273400</v>
       </c>
       <c r="G123">
-        <v>617984000</v>
+        <v>393708500</v>
       </c>
       <c r="H123">
         <v>8536300</v>
       </c>
       <c r="I123">
-        <v>130650784000</v>
+        <v>116554794100</v>
       </c>
       <c r="J123" t="str">
         <v>2022-12-28T14:28:00.000Z</v>
       </c>
       <c r="K123">
-        <v>5859414360000</v>
+        <v>5352223658400</v>
       </c>
       <c r="L123">
         <v>347285500</v>
@@ -6543,13 +6543,13 @@
         <v>-3668600</v>
       </c>
       <c r="N123">
-        <v>-49321588000</v>
+        <v>-47572538800</v>
       </c>
       <c r="O123">
         <v>24431000</v>
       </c>
       <c r="P123">
-        <v>602914484000</v>
+        <v>507629264600</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2022-12-28T14:30:00.000Z</v>
       </c>
       <c r="K124">
-        <v>5859673779000</v>
+        <v>5352483077400</v>
       </c>
       <c r="L124">
         <v>347305500</v>
@@ -6599,7 +6599,7 @@
         <v>24416000</v>
       </c>
       <c r="P124">
-        <v>602747165000</v>
+        <v>507461945600</v>
       </c>
     </row>
     <row r="125">
@@ -6616,25 +6616,25 @@
         <v>22042300</v>
       </c>
       <c r="E125">
-        <v>37746554000</v>
+        <v>23810803700</v>
       </c>
       <c r="F125">
-        <v>56690325000</v>
+        <v>52513605900</v>
       </c>
       <c r="G125">
-        <v>439254909000</v>
+        <v>375348679200</v>
       </c>
       <c r="H125">
         <v>26253200</v>
       </c>
       <c r="I125">
-        <v>533691788000</v>
+        <v>451673088800</v>
       </c>
       <c r="J125" t="str">
         <v>2022-12-28T14:44:00.000Z</v>
       </c>
       <c r="K125">
-        <v>6393365567000</v>
+        <v>5804156166200</v>
       </c>
       <c r="L125">
         <v>373558700</v>
@@ -6643,13 +6643,13 @@
         <v>-188700</v>
       </c>
       <c r="N125">
-        <v>18943771000</v>
+        <v>28702802200</v>
       </c>
       <c r="O125">
         <v>24227300</v>
       </c>
       <c r="P125">
-        <v>621690936000</v>
+        <v>536164747800</v>
       </c>
     </row>
     <row r="126">
@@ -6684,7 +6684,7 @@
         <v>2022-12-28T14:46:00.000Z</v>
       </c>
       <c r="K126">
-        <v>6393397767000</v>
+        <v>5804188366200</v>
       </c>
       <c r="L126">
         <v>373561500</v>
@@ -6699,7 +6699,7 @@
         <v>24224500</v>
       </c>
       <c r="P126">
-        <v>621658736000</v>
+        <v>536132547800</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
+++ b/name/vnindex/20221228/VNINDEX_HOSE_5p_20221228.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>243530000</v>
       </c>
+      <c r="Q2">
+        <v>246620000</v>
+      </c>
+      <c r="R2">
+        <v>3090000</v>
+      </c>
+      <c r="S2">
+        <v>24100</v>
+      </c>
+      <c r="T2">
+        <v>300</v>
+      </c>
+      <c r="U2">
+        <v>23544775680</v>
+      </c>
+      <c r="V2">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W2">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X2">
+        <v>2988492</v>
+      </c>
+      <c r="Y2">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z2">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA2">
+        <v>193796</v>
+      </c>
+      <c r="AB2">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>231170000</v>
       </c>
+      <c r="Q3">
+        <v>246620000</v>
+      </c>
+      <c r="R3">
+        <v>15450000</v>
+      </c>
+      <c r="S3">
+        <v>24100</v>
+      </c>
+      <c r="T3">
+        <v>1500</v>
+      </c>
+      <c r="U3">
+        <v>23544775680</v>
+      </c>
+      <c r="V3">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W3">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X3">
+        <v>2988492</v>
+      </c>
+      <c r="Y3">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z3">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA3">
+        <v>193796</v>
+      </c>
+      <c r="AB3">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>226020000</v>
       </c>
+      <c r="Q4">
+        <v>246620000</v>
+      </c>
+      <c r="R4">
+        <v>20600000</v>
+      </c>
+      <c r="S4">
+        <v>24100</v>
+      </c>
+      <c r="T4">
+        <v>2000</v>
+      </c>
+      <c r="U4">
+        <v>23544775680</v>
+      </c>
+      <c r="V4">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W4">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X4">
+        <v>2988492</v>
+      </c>
+      <c r="Y4">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z4">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA4">
+        <v>193796</v>
+      </c>
+      <c r="AB4">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>220870000</v>
       </c>
+      <c r="Q5">
+        <v>246620000</v>
+      </c>
+      <c r="R5">
+        <v>25750000</v>
+      </c>
+      <c r="S5">
+        <v>24100</v>
+      </c>
+      <c r="T5">
+        <v>2500</v>
+      </c>
+      <c r="U5">
+        <v>23544775680</v>
+      </c>
+      <c r="V5">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W5">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X5">
+        <v>2988492</v>
+      </c>
+      <c r="Y5">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z5">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA5">
+        <v>193796</v>
+      </c>
+      <c r="AB5">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>198210000</v>
       </c>
+      <c r="Q6">
+        <v>246620000</v>
+      </c>
+      <c r="R6">
+        <v>48410000</v>
+      </c>
+      <c r="S6">
+        <v>24100</v>
+      </c>
+      <c r="T6">
+        <v>4700</v>
+      </c>
+      <c r="U6">
+        <v>23544775680</v>
+      </c>
+      <c r="V6">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W6">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X6">
+        <v>2988492</v>
+      </c>
+      <c r="Y6">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z6">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA6">
+        <v>193796</v>
+      </c>
+      <c r="AB6">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>167310000</v>
       </c>
+      <c r="Q7">
+        <v>246620000</v>
+      </c>
+      <c r="R7">
+        <v>79310000</v>
+      </c>
+      <c r="S7">
+        <v>24100</v>
+      </c>
+      <c r="T7">
+        <v>7700</v>
+      </c>
+      <c r="U7">
+        <v>23544775680</v>
+      </c>
+      <c r="V7">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W7">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X7">
+        <v>2988492</v>
+      </c>
+      <c r="Y7">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z7">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA7">
+        <v>193796</v>
+      </c>
+      <c r="AB7">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>184990000</v>
       </c>
+      <c r="Q8">
+        <v>264300000</v>
+      </c>
+      <c r="R8">
+        <v>79310000</v>
+      </c>
+      <c r="S8">
+        <v>25800</v>
+      </c>
+      <c r="T8">
+        <v>7700</v>
+      </c>
+      <c r="U8">
+        <v>23544775680</v>
+      </c>
+      <c r="V8">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W8">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X8">
+        <v>2988492</v>
+      </c>
+      <c r="Y8">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z8">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA8">
+        <v>193796</v>
+      </c>
+      <c r="AB8">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-6092795100</v>
       </c>
+      <c r="Q9">
+        <v>24958236700</v>
+      </c>
+      <c r="R9">
+        <v>31051031800</v>
+      </c>
+      <c r="S9">
+        <v>1796000</v>
+      </c>
+      <c r="T9">
+        <v>2681000</v>
+      </c>
+      <c r="U9">
+        <v>23544775680</v>
+      </c>
+      <c r="V9">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W9">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X9">
+        <v>2988492</v>
+      </c>
+      <c r="Y9">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z9">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA9">
+        <v>193796</v>
+      </c>
+      <c r="AB9">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC9">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-14730701500</v>
       </c>
+      <c r="Q10">
+        <v>46436494700</v>
+      </c>
+      <c r="R10">
+        <v>61167196200</v>
+      </c>
+      <c r="S10">
+        <v>3491100</v>
+      </c>
+      <c r="T10">
+        <v>4668000</v>
+      </c>
+      <c r="U10">
+        <v>23544775680</v>
+      </c>
+      <c r="V10">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W10">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X10">
+        <v>2988492</v>
+      </c>
+      <c r="Y10">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z10">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA10">
+        <v>193796</v>
+      </c>
+      <c r="AB10">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-13371157800</v>
       </c>
+      <c r="Q11">
+        <v>68806426900</v>
+      </c>
+      <c r="R11">
+        <v>82177584700</v>
+      </c>
+      <c r="S11">
+        <v>5203300</v>
+      </c>
+      <c r="T11">
+        <v>6419000</v>
+      </c>
+      <c r="U11">
+        <v>23544775680</v>
+      </c>
+      <c r="V11">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W11">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X11">
+        <v>2988492</v>
+      </c>
+      <c r="Y11">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z11">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA11">
+        <v>193796</v>
+      </c>
+      <c r="AB11">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC11">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-16837824100</v>
       </c>
+      <c r="Q12">
+        <v>83913283900</v>
+      </c>
+      <c r="R12">
+        <v>100751108000</v>
+      </c>
+      <c r="S12">
+        <v>6532500</v>
+      </c>
+      <c r="T12">
+        <v>7862900</v>
+      </c>
+      <c r="U12">
+        <v>23544775680</v>
+      </c>
+      <c r="V12">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W12">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X12">
+        <v>2988492</v>
+      </c>
+      <c r="Y12">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z12">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA12">
+        <v>193796</v>
+      </c>
+      <c r="AB12">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-12116799800</v>
       </c>
+      <c r="Q13">
+        <v>104593277500</v>
+      </c>
+      <c r="R13">
+        <v>116710077300</v>
+      </c>
+      <c r="S13">
+        <v>7750300</v>
+      </c>
+      <c r="T13">
+        <v>9058400</v>
+      </c>
+      <c r="U13">
+        <v>23544775680</v>
+      </c>
+      <c r="V13">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W13">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X13">
+        <v>2988492</v>
+      </c>
+      <c r="Y13">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z13">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA13">
+        <v>193796</v>
+      </c>
+      <c r="AB13">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC13">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-10212317700</v>
       </c>
+      <c r="Q14">
+        <v>124817976400</v>
+      </c>
+      <c r="R14">
+        <v>135030294100</v>
+      </c>
+      <c r="S14">
+        <v>9120000</v>
+      </c>
+      <c r="T14">
+        <v>10518500</v>
+      </c>
+      <c r="U14">
+        <v>23544775680</v>
+      </c>
+      <c r="V14">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W14">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X14">
+        <v>2988492</v>
+      </c>
+      <c r="Y14">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z14">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA14">
+        <v>193796</v>
+      </c>
+      <c r="AB14">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-25595886400</v>
       </c>
+      <c r="Q15">
+        <v>137851954400</v>
+      </c>
+      <c r="R15">
+        <v>163447840800</v>
+      </c>
+      <c r="S15">
+        <v>10213300</v>
+      </c>
+      <c r="T15">
+        <v>12426800</v>
+      </c>
+      <c r="U15">
+        <v>23544775680</v>
+      </c>
+      <c r="V15">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W15">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X15">
+        <v>2988492</v>
+      </c>
+      <c r="Y15">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z15">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA15">
+        <v>193796</v>
+      </c>
+      <c r="AB15">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC15">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-35282042200</v>
       </c>
+      <c r="Q16">
+        <v>146427249900</v>
+      </c>
+      <c r="R16">
+        <v>181709292100</v>
+      </c>
+      <c r="S16">
+        <v>10759000</v>
+      </c>
+      <c r="T16">
+        <v>13932300</v>
+      </c>
+      <c r="U16">
+        <v>23544775680</v>
+      </c>
+      <c r="V16">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W16">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X16">
+        <v>2988492</v>
+      </c>
+      <c r="Y16">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z16">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA16">
+        <v>193796</v>
+      </c>
+      <c r="AB16">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC16">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-35968905500</v>
       </c>
+      <c r="Q17">
+        <v>165736230800</v>
+      </c>
+      <c r="R17">
+        <v>201705136300</v>
+      </c>
+      <c r="S17">
+        <v>12120300</v>
+      </c>
+      <c r="T17">
+        <v>15266200</v>
+      </c>
+      <c r="U17">
+        <v>23544775680</v>
+      </c>
+      <c r="V17">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W17">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X17">
+        <v>2988492</v>
+      </c>
+      <c r="Y17">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z17">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA17">
+        <v>193796</v>
+      </c>
+      <c r="AB17">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC17">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-27615919800</v>
       </c>
+      <c r="Q18">
+        <v>184779527300</v>
+      </c>
+      <c r="R18">
+        <v>212395447100</v>
+      </c>
+      <c r="S18">
+        <v>13412700</v>
+      </c>
+      <c r="T18">
+        <v>16248000</v>
+      </c>
+      <c r="U18">
+        <v>23544775680</v>
+      </c>
+      <c r="V18">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W18">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X18">
+        <v>2988492</v>
+      </c>
+      <c r="Y18">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z18">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA18">
+        <v>193796</v>
+      </c>
+      <c r="AB18">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC18">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-26836792800</v>
       </c>
+      <c r="Q19">
+        <v>202078950700</v>
+      </c>
+      <c r="R19">
+        <v>228915743500</v>
+      </c>
+      <c r="S19">
+        <v>14514400</v>
+      </c>
+      <c r="T19">
+        <v>17292000</v>
+      </c>
+      <c r="U19">
+        <v>23544775680</v>
+      </c>
+      <c r="V19">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W19">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X19">
+        <v>2988492</v>
+      </c>
+      <c r="Y19">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z19">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA19">
+        <v>193796</v>
+      </c>
+      <c r="AB19">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC19">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-16275123300</v>
       </c>
+      <c r="Q20">
+        <v>223408164800</v>
+      </c>
+      <c r="R20">
+        <v>239683288100</v>
+      </c>
+      <c r="S20">
+        <v>16267500</v>
+      </c>
+      <c r="T20">
+        <v>18240200</v>
+      </c>
+      <c r="U20">
+        <v>23544775680</v>
+      </c>
+      <c r="V20">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W20">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X20">
+        <v>2988492</v>
+      </c>
+      <c r="Y20">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z20">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA20">
+        <v>193796</v>
+      </c>
+      <c r="AB20">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC20">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-9006819700</v>
       </c>
+      <c r="Q21">
+        <v>240093113900</v>
+      </c>
+      <c r="R21">
+        <v>249099933600</v>
+      </c>
+      <c r="S21">
+        <v>17466500</v>
+      </c>
+      <c r="T21">
+        <v>18842500</v>
+      </c>
+      <c r="U21">
+        <v>23544775680</v>
+      </c>
+      <c r="V21">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W21">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X21">
+        <v>2988492</v>
+      </c>
+      <c r="Y21">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z21">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA21">
+        <v>193796</v>
+      </c>
+      <c r="AB21">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC21">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-25023543300</v>
       </c>
+      <c r="Q22">
+        <v>252775758700</v>
+      </c>
+      <c r="R22">
+        <v>277799302000</v>
+      </c>
+      <c r="S22">
+        <v>18387300</v>
+      </c>
+      <c r="T22">
+        <v>20804000</v>
+      </c>
+      <c r="U22">
+        <v>23544775680</v>
+      </c>
+      <c r="V22">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W22">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X22">
+        <v>2988492</v>
+      </c>
+      <c r="Y22">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z22">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA22">
+        <v>193796</v>
+      </c>
+      <c r="AB22">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC22">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-49614358800</v>
       </c>
+      <c r="Q23">
+        <v>260579037400</v>
+      </c>
+      <c r="R23">
+        <v>310193396200</v>
+      </c>
+      <c r="S23">
+        <v>18921000</v>
+      </c>
+      <c r="T23">
+        <v>22953300</v>
+      </c>
+      <c r="U23">
+        <v>23544775680</v>
+      </c>
+      <c r="V23">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W23">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X23">
+        <v>2988492</v>
+      </c>
+      <c r="Y23">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z23">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA23">
+        <v>193796</v>
+      </c>
+      <c r="AB23">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC23">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-60341496800</v>
       </c>
+      <c r="Q24">
+        <v>270600715400</v>
+      </c>
+      <c r="R24">
+        <v>330942212200</v>
+      </c>
+      <c r="S24">
+        <v>19572500</v>
+      </c>
+      <c r="T24">
+        <v>24320200</v>
+      </c>
+      <c r="U24">
+        <v>23544775680</v>
+      </c>
+      <c r="V24">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W24">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X24">
+        <v>2988492</v>
+      </c>
+      <c r="Y24">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z24">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA24">
+        <v>193796</v>
+      </c>
+      <c r="AB24">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC24">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-80459549500</v>
       </c>
+      <c r="Q25">
+        <v>282787873100</v>
+      </c>
+      <c r="R25">
+        <v>363247422600</v>
+      </c>
+      <c r="S25">
+        <v>20235100</v>
+      </c>
+      <c r="T25">
+        <v>26624900</v>
+      </c>
+      <c r="U25">
+        <v>23544775680</v>
+      </c>
+      <c r="V25">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W25">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X25">
+        <v>2988492</v>
+      </c>
+      <c r="Y25">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z25">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA25">
+        <v>193796</v>
+      </c>
+      <c r="AB25">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC25">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-96339320400</v>
       </c>
+      <c r="Q26">
+        <v>294027711400</v>
+      </c>
+      <c r="R26">
+        <v>390367031800</v>
+      </c>
+      <c r="S26">
+        <v>20913100</v>
+      </c>
+      <c r="T26">
+        <v>28862600</v>
+      </c>
+      <c r="U26">
+        <v>23544775680</v>
+      </c>
+      <c r="V26">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W26">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X26">
+        <v>2988492</v>
+      </c>
+      <c r="Y26">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z26">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA26">
+        <v>193796</v>
+      </c>
+      <c r="AB26">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC26">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-108628312600</v>
       </c>
+      <c r="Q27">
+        <v>302685920800</v>
+      </c>
+      <c r="R27">
+        <v>411314233400</v>
+      </c>
+      <c r="S27">
+        <v>21577600</v>
+      </c>
+      <c r="T27">
+        <v>30453300</v>
+      </c>
+      <c r="U27">
+        <v>23544775680</v>
+      </c>
+      <c r="V27">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W27">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X27">
+        <v>2988492</v>
+      </c>
+      <c r="Y27">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z27">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA27">
+        <v>193796</v>
+      </c>
+      <c r="AB27">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC27">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-113956136200</v>
       </c>
+      <c r="Q28">
+        <v>312918870700</v>
+      </c>
+      <c r="R28">
+        <v>426875006900</v>
+      </c>
+      <c r="S28">
+        <v>22281100</v>
+      </c>
+      <c r="T28">
+        <v>31668000</v>
+      </c>
+      <c r="U28">
+        <v>23544775680</v>
+      </c>
+      <c r="V28">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W28">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X28">
+        <v>2988492</v>
+      </c>
+      <c r="Y28">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z28">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA28">
+        <v>193796</v>
+      </c>
+      <c r="AB28">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC28">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-112053659400</v>
       </c>
+      <c r="Q29">
+        <v>327112791600</v>
+      </c>
+      <c r="R29">
+        <v>439166451000</v>
+      </c>
+      <c r="S29">
+        <v>23308100</v>
+      </c>
+      <c r="T29">
+        <v>32440400</v>
+      </c>
+      <c r="U29">
+        <v>23544775680</v>
+      </c>
+      <c r="V29">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W29">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X29">
+        <v>2988492</v>
+      </c>
+      <c r="Y29">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z29">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA29">
+        <v>193796</v>
+      </c>
+      <c r="AB29">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC29">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-92355915900</v>
       </c>
+      <c r="Q30">
+        <v>354454998400</v>
+      </c>
+      <c r="R30">
+        <v>446810914300</v>
+      </c>
+      <c r="S30">
+        <v>25044500</v>
+      </c>
+      <c r="T30">
+        <v>33053500</v>
+      </c>
+      <c r="U30">
+        <v>23544775680</v>
+      </c>
+      <c r="V30">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W30">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X30">
+        <v>2988492</v>
+      </c>
+      <c r="Y30">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z30">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA30">
+        <v>193796</v>
+      </c>
+      <c r="AB30">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC30">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-78353888600</v>
       </c>
+      <c r="Q31">
+        <v>381002320000</v>
+      </c>
+      <c r="R31">
+        <v>459356208600</v>
+      </c>
+      <c r="S31">
+        <v>26660200</v>
+      </c>
+      <c r="T31">
+        <v>33753600</v>
+      </c>
+      <c r="U31">
+        <v>23544775680</v>
+      </c>
+      <c r="V31">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W31">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X31">
+        <v>2988492</v>
+      </c>
+      <c r="Y31">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z31">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA31">
+        <v>193796</v>
+      </c>
+      <c r="AB31">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC31">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-72003719800</v>
       </c>
+      <c r="Q32">
+        <v>403689289600</v>
+      </c>
+      <c r="R32">
+        <v>475693009400</v>
+      </c>
+      <c r="S32">
+        <v>28225800</v>
+      </c>
+      <c r="T32">
+        <v>34802400</v>
+      </c>
+      <c r="U32">
+        <v>23544775680</v>
+      </c>
+      <c r="V32">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W32">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X32">
+        <v>2988492</v>
+      </c>
+      <c r="Y32">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z32">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA32">
+        <v>193796</v>
+      </c>
+      <c r="AB32">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC32">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-95716093700</v>
       </c>
+      <c r="Q33">
+        <v>412117754800</v>
+      </c>
+      <c r="R33">
+        <v>507833848500</v>
+      </c>
+      <c r="S33">
+        <v>28783600</v>
+      </c>
+      <c r="T33">
+        <v>36663700</v>
+      </c>
+      <c r="U33">
+        <v>23544775680</v>
+      </c>
+      <c r="V33">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W33">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X33">
+        <v>2988492</v>
+      </c>
+      <c r="Y33">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z33">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA33">
+        <v>193796</v>
+      </c>
+      <c r="AB33">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC33">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-97945899200</v>
       </c>
+      <c r="Q34">
+        <v>421502417000</v>
+      </c>
+      <c r="R34">
+        <v>519448316200</v>
+      </c>
+      <c r="S34">
+        <v>29337700</v>
+      </c>
+      <c r="T34">
+        <v>37459000</v>
+      </c>
+      <c r="U34">
+        <v>23544775680</v>
+      </c>
+      <c r="V34">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W34">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X34">
+        <v>2988492</v>
+      </c>
+      <c r="Y34">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z34">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA34">
+        <v>193796</v>
+      </c>
+      <c r="AB34">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-102256939000</v>
       </c>
+      <c r="Q35">
+        <v>431730537900</v>
+      </c>
+      <c r="R35">
+        <v>533987476900</v>
+      </c>
+      <c r="S35">
+        <v>30070300</v>
+      </c>
+      <c r="T35">
+        <v>38386700</v>
+      </c>
+      <c r="U35">
+        <v>23544775680</v>
+      </c>
+      <c r="V35">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W35">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X35">
+        <v>2988492</v>
+      </c>
+      <c r="Y35">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z35">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA35">
+        <v>193796</v>
+      </c>
+      <c r="AB35">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-115404841000</v>
       </c>
+      <c r="Q36">
+        <v>439680982600</v>
+      </c>
+      <c r="R36">
+        <v>555085823600</v>
+      </c>
+      <c r="S36">
+        <v>30455800</v>
+      </c>
+      <c r="T36">
+        <v>39743400</v>
+      </c>
+      <c r="U36">
+        <v>23544775680</v>
+      </c>
+      <c r="V36">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W36">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X36">
+        <v>2988492</v>
+      </c>
+      <c r="Y36">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z36">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA36">
+        <v>193796</v>
+      </c>
+      <c r="AB36">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC36">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-126038554500</v>
       </c>
+      <c r="Q37">
+        <v>447636625400</v>
+      </c>
+      <c r="R37">
+        <v>573675179900</v>
+      </c>
+      <c r="S37">
+        <v>30919000</v>
+      </c>
+      <c r="T37">
+        <v>40850200</v>
+      </c>
+      <c r="U37">
+        <v>23544775680</v>
+      </c>
+      <c r="V37">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W37">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X37">
+        <v>2988492</v>
+      </c>
+      <c r="Y37">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z37">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA37">
+        <v>193796</v>
+      </c>
+      <c r="AB37">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-122264620500</v>
       </c>
+      <c r="Q38">
+        <v>459988749200</v>
+      </c>
+      <c r="R38">
+        <v>582253369700</v>
+      </c>
+      <c r="S38">
+        <v>31615700</v>
+      </c>
+      <c r="T38">
+        <v>41406700</v>
+      </c>
+      <c r="U38">
+        <v>23544775680</v>
+      </c>
+      <c r="V38">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W38">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X38">
+        <v>2988492</v>
+      </c>
+      <c r="Y38">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z38">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA38">
+        <v>193796</v>
+      </c>
+      <c r="AB38">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC38">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-121497276500</v>
       </c>
+      <c r="Q39">
+        <v>470377793300</v>
+      </c>
+      <c r="R39">
+        <v>591875069800</v>
+      </c>
+      <c r="S39">
+        <v>32155500</v>
+      </c>
+      <c r="T39">
+        <v>42062900</v>
+      </c>
+      <c r="U39">
+        <v>23544775680</v>
+      </c>
+      <c r="V39">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W39">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X39">
+        <v>2988492</v>
+      </c>
+      <c r="Y39">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z39">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA39">
+        <v>193796</v>
+      </c>
+      <c r="AB39">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC39">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-131153399100</v>
       </c>
+      <c r="Q40">
+        <v>476365025600</v>
+      </c>
+      <c r="R40">
+        <v>607518424700</v>
+      </c>
+      <c r="S40">
+        <v>32554900</v>
+      </c>
+      <c r="T40">
+        <v>43392700</v>
+      </c>
+      <c r="U40">
+        <v>23544775680</v>
+      </c>
+      <c r="V40">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W40">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X40">
+        <v>2988492</v>
+      </c>
+      <c r="Y40">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z40">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA40">
+        <v>193796</v>
+      </c>
+      <c r="AB40">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC40">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-128747204500</v>
       </c>
+      <c r="Q41">
+        <v>490841121900</v>
+      </c>
+      <c r="R41">
+        <v>619588326400</v>
+      </c>
+      <c r="S41">
+        <v>33337300</v>
+      </c>
+      <c r="T41">
+        <v>44268200</v>
+      </c>
+      <c r="U41">
+        <v>23544775680</v>
+      </c>
+      <c r="V41">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W41">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X41">
+        <v>2988492</v>
+      </c>
+      <c r="Y41">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z41">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA41">
+        <v>193796</v>
+      </c>
+      <c r="AB41">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC41">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-127654439400</v>
       </c>
+      <c r="Q42">
+        <v>503845681000</v>
+      </c>
+      <c r="R42">
+        <v>631500120400</v>
+      </c>
+      <c r="S42">
+        <v>33964200</v>
+      </c>
+      <c r="T42">
+        <v>45055400</v>
+      </c>
+      <c r="U42">
+        <v>23544775680</v>
+      </c>
+      <c r="V42">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W42">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X42">
+        <v>2988492</v>
+      </c>
+      <c r="Y42">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z42">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA42">
+        <v>193796</v>
+      </c>
+      <c r="AB42">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC42">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-128410421200</v>
       </c>
+      <c r="Q43">
+        <v>514528969400</v>
+      </c>
+      <c r="R43">
+        <v>642939390600</v>
+      </c>
+      <c r="S43">
+        <v>34668500</v>
+      </c>
+      <c r="T43">
+        <v>46318100</v>
+      </c>
+      <c r="U43">
+        <v>23544775680</v>
+      </c>
+      <c r="V43">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W43">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X43">
+        <v>2988492</v>
+      </c>
+      <c r="Y43">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z43">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA43">
+        <v>193796</v>
+      </c>
+      <c r="AB43">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC43">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-116089435500</v>
       </c>
+      <c r="Q44">
+        <v>535114245200</v>
+      </c>
+      <c r="R44">
+        <v>651203680700</v>
+      </c>
+      <c r="S44">
+        <v>35915000</v>
+      </c>
+      <c r="T44">
+        <v>46985000</v>
+      </c>
+      <c r="U44">
+        <v>23544775680</v>
+      </c>
+      <c r="V44">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W44">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X44">
+        <v>2988492</v>
+      </c>
+      <c r="Y44">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z44">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA44">
+        <v>193796</v>
+      </c>
+      <c r="AB44">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC44">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-101811658000</v>
       </c>
+      <c r="Q45">
+        <v>557723062100</v>
+      </c>
+      <c r="R45">
+        <v>659534720100</v>
+      </c>
+      <c r="S45">
+        <v>37469700</v>
+      </c>
+      <c r="T45">
+        <v>47608900</v>
+      </c>
+      <c r="U45">
+        <v>23544775680</v>
+      </c>
+      <c r="V45">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W45">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X45">
+        <v>2988492</v>
+      </c>
+      <c r="Y45">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z45">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA45">
+        <v>193796</v>
+      </c>
+      <c r="AB45">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC45">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-91914393400</v>
       </c>
+      <c r="Q46">
+        <v>581209839700</v>
+      </c>
+      <c r="R46">
+        <v>673124233100</v>
+      </c>
+      <c r="S46">
+        <v>38990400</v>
+      </c>
+      <c r="T46">
+        <v>48336400</v>
+      </c>
+      <c r="U46">
+        <v>23544775680</v>
+      </c>
+      <c r="V46">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W46">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X46">
+        <v>2988492</v>
+      </c>
+      <c r="Y46">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z46">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA46">
+        <v>193796</v>
+      </c>
+      <c r="AB46">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC46">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-80810040200</v>
       </c>
+      <c r="Q47">
+        <v>606757574300</v>
+      </c>
+      <c r="R47">
+        <v>687567614500</v>
+      </c>
+      <c r="S47">
+        <v>41078900</v>
+      </c>
+      <c r="T47">
+        <v>49227000</v>
+      </c>
+      <c r="U47">
+        <v>23544775680</v>
+      </c>
+      <c r="V47">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W47">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X47">
+        <v>2988492</v>
+      </c>
+      <c r="Y47">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z47">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA47">
+        <v>193796</v>
+      </c>
+      <c r="AB47">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC47">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-54724511200</v>
       </c>
+      <c r="Q48">
+        <v>641019123500</v>
+      </c>
+      <c r="R48">
+        <v>695743634700</v>
+      </c>
+      <c r="S48">
+        <v>44190400</v>
+      </c>
+      <c r="T48">
+        <v>49849200</v>
+      </c>
+      <c r="U48">
+        <v>23544775680</v>
+      </c>
+      <c r="V48">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W48">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X48">
+        <v>2988492</v>
+      </c>
+      <c r="Y48">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z48">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA48">
+        <v>193796</v>
+      </c>
+      <c r="AB48">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC48">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-38022261400</v>
       </c>
+      <c r="Q49">
+        <v>684646922700</v>
+      </c>
+      <c r="R49">
+        <v>722669184100</v>
+      </c>
+      <c r="S49">
+        <v>47815600</v>
+      </c>
+      <c r="T49">
+        <v>51835500</v>
+      </c>
+      <c r="U49">
+        <v>23544775680</v>
+      </c>
+      <c r="V49">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W49">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X49">
+        <v>2988492</v>
+      </c>
+      <c r="Y49">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z49">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA49">
+        <v>193796</v>
+      </c>
+      <c r="AB49">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC49">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-60968280200</v>
       </c>
+      <c r="Q50">
+        <v>708750871100</v>
+      </c>
+      <c r="R50">
+        <v>769719151300</v>
+      </c>
+      <c r="S50">
+        <v>49821100</v>
+      </c>
+      <c r="T50">
+        <v>54969200</v>
+      </c>
+      <c r="U50">
+        <v>23544775680</v>
+      </c>
+      <c r="V50">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W50">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X50">
+        <v>2988492</v>
+      </c>
+      <c r="Y50">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z50">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA50">
+        <v>193796</v>
+      </c>
+      <c r="AB50">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC50">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-62117838500</v>
       </c>
+      <c r="Q51">
+        <v>723229169100</v>
+      </c>
+      <c r="R51">
+        <v>785347007600</v>
+      </c>
+      <c r="S51">
+        <v>51087100</v>
+      </c>
+      <c r="T51">
+        <v>56083300</v>
+      </c>
+      <c r="U51">
+        <v>23544775680</v>
+      </c>
+      <c r="V51">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W51">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X51">
+        <v>2988492</v>
+      </c>
+      <c r="Y51">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z51">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA51">
+        <v>193796</v>
+      </c>
+      <c r="AB51">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC51">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-73311605800</v>
       </c>
+      <c r="Q52">
+        <v>735784455400</v>
+      </c>
+      <c r="R52">
+        <v>809096061200</v>
+      </c>
+      <c r="S52">
+        <v>51762500</v>
+      </c>
+      <c r="T52">
+        <v>57418600</v>
+      </c>
+      <c r="U52">
+        <v>23544775680</v>
+      </c>
+      <c r="V52">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W52">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X52">
+        <v>2988492</v>
+      </c>
+      <c r="Y52">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z52">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA52">
+        <v>193796</v>
+      </c>
+      <c r="AB52">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC52">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-69224519200</v>
       </c>
+      <c r="Q53">
+        <v>752855431800</v>
+      </c>
+      <c r="R53">
+        <v>822079951000</v>
+      </c>
+      <c r="S53">
+        <v>52642900</v>
+      </c>
+      <c r="T53">
+        <v>58189100</v>
+      </c>
+      <c r="U53">
+        <v>23544775680</v>
+      </c>
+      <c r="V53">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W53">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X53">
+        <v>2988492</v>
+      </c>
+      <c r="Y53">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z53">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA53">
+        <v>193796</v>
+      </c>
+      <c r="AB53">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-60404976800</v>
       </c>
+      <c r="Q54">
+        <v>769246385500</v>
+      </c>
+      <c r="R54">
+        <v>829651362300</v>
+      </c>
+      <c r="S54">
+        <v>53540300</v>
+      </c>
+      <c r="T54">
+        <v>58732000</v>
+      </c>
+      <c r="U54">
+        <v>23544775680</v>
+      </c>
+      <c r="V54">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W54">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X54">
+        <v>2988492</v>
+      </c>
+      <c r="Y54">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z54">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA54">
+        <v>193796</v>
+      </c>
+      <c r="AB54">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC54">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-38816328600</v>
       </c>
+      <c r="Q55">
+        <v>796512830900</v>
+      </c>
+      <c r="R55">
+        <v>835329159500</v>
+      </c>
+      <c r="S55">
+        <v>54841400</v>
+      </c>
+      <c r="T55">
+        <v>59034000</v>
+      </c>
+      <c r="U55">
+        <v>23544775680</v>
+      </c>
+      <c r="V55">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W55">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X55">
+        <v>2988492</v>
+      </c>
+      <c r="Y55">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z55">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA55">
+        <v>193796</v>
+      </c>
+      <c r="AB55">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-17109167400</v>
       </c>
+      <c r="Q56">
+        <v>828169238800</v>
+      </c>
+      <c r="R56">
+        <v>845278406200</v>
+      </c>
+      <c r="S56">
+        <v>56788300</v>
+      </c>
+      <c r="T56">
+        <v>59604600</v>
+      </c>
+      <c r="U56">
+        <v>23544775680</v>
+      </c>
+      <c r="V56">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W56">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X56">
+        <v>2988492</v>
+      </c>
+      <c r="Y56">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z56">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA56">
+        <v>193796</v>
+      </c>
+      <c r="AB56">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC56">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>888018600</v>
       </c>
+      <c r="Q57">
+        <v>857694823500</v>
+      </c>
+      <c r="R57">
+        <v>856806804900</v>
+      </c>
+      <c r="S57">
+        <v>58819300</v>
+      </c>
+      <c r="T57">
+        <v>60290300</v>
+      </c>
+      <c r="U57">
+        <v>23544775680</v>
+      </c>
+      <c r="V57">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W57">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X57">
+        <v>2988492</v>
+      </c>
+      <c r="Y57">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z57">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA57">
+        <v>193796</v>
+      </c>
+      <c r="AB57">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC57">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>28237547900</v>
       </c>
+      <c r="Q58">
+        <v>897152144100</v>
+      </c>
+      <c r="R58">
+        <v>868914596200</v>
+      </c>
+      <c r="S58">
+        <v>61319800</v>
+      </c>
+      <c r="T58">
+        <v>61221600</v>
+      </c>
+      <c r="U58">
+        <v>23544775680</v>
+      </c>
+      <c r="V58">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W58">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X58">
+        <v>2988492</v>
+      </c>
+      <c r="Y58">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z58">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA58">
+        <v>193796</v>
+      </c>
+      <c r="AB58">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC58">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>44815233500</v>
       </c>
+      <c r="Q59">
+        <v>929863424300</v>
+      </c>
+      <c r="R59">
+        <v>885048190800</v>
+      </c>
+      <c r="S59">
+        <v>63302000</v>
+      </c>
+      <c r="T59">
+        <v>62294100</v>
+      </c>
+      <c r="U59">
+        <v>23544775680</v>
+      </c>
+      <c r="V59">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W59">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X59">
+        <v>2988492</v>
+      </c>
+      <c r="Y59">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z59">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA59">
+        <v>193796</v>
+      </c>
+      <c r="AB59">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC59">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>50150634600</v>
       </c>
+      <c r="Q60">
+        <v>954845021000</v>
+      </c>
+      <c r="R60">
+        <v>904694386400</v>
+      </c>
+      <c r="S60">
+        <v>65056900</v>
+      </c>
+      <c r="T60">
+        <v>63501000</v>
+      </c>
+      <c r="U60">
+        <v>23544775680</v>
+      </c>
+      <c r="V60">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W60">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X60">
+        <v>2988492</v>
+      </c>
+      <c r="Y60">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z60">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA60">
+        <v>193796</v>
+      </c>
+      <c r="AB60">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC60">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>50875935500</v>
       </c>
+      <c r="Q61">
+        <v>970826447300</v>
+      </c>
+      <c r="R61">
+        <v>919950511800</v>
+      </c>
+      <c r="S61">
+        <v>65989900</v>
+      </c>
+      <c r="T61">
+        <v>64646400</v>
+      </c>
+      <c r="U61">
+        <v>23544775680</v>
+      </c>
+      <c r="V61">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W61">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X61">
+        <v>2988492</v>
+      </c>
+      <c r="Y61">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z61">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA61">
+        <v>193796</v>
+      </c>
+      <c r="AB61">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC61">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>35169369900</v>
       </c>
+      <c r="Q62">
+        <v>980744207700</v>
+      </c>
+      <c r="R62">
+        <v>945574837800</v>
+      </c>
+      <c r="S62">
+        <v>66547400</v>
+      </c>
+      <c r="T62">
+        <v>66305400</v>
+      </c>
+      <c r="U62">
+        <v>23544775680</v>
+      </c>
+      <c r="V62">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W62">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X62">
+        <v>2988492</v>
+      </c>
+      <c r="Y62">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z62">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA62">
+        <v>193796</v>
+      </c>
+      <c r="AB62">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC62">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>19905391700</v>
       </c>
+      <c r="Q63">
+        <v>988538038700</v>
+      </c>
+      <c r="R63">
+        <v>968632647000</v>
+      </c>
+      <c r="S63">
+        <v>66957900</v>
+      </c>
+      <c r="T63">
+        <v>67872100</v>
+      </c>
+      <c r="U63">
+        <v>23544775680</v>
+      </c>
+      <c r="V63">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W63">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X63">
+        <v>2988492</v>
+      </c>
+      <c r="Y63">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z63">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA63">
+        <v>193796</v>
+      </c>
+      <c r="AB63">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC63">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>22571576400</v>
       </c>
+      <c r="Q64">
+        <v>1004780921200</v>
+      </c>
+      <c r="R64">
+        <v>982209344800</v>
+      </c>
+      <c r="S64">
+        <v>67918700</v>
+      </c>
+      <c r="T64">
+        <v>68696600</v>
+      </c>
+      <c r="U64">
+        <v>23544775680</v>
+      </c>
+      <c r="V64">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W64">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X64">
+        <v>2988492</v>
+      </c>
+      <c r="Y64">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z64">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA64">
+        <v>193796</v>
+      </c>
+      <c r="AB64">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC64">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>23524869100</v>
       </c>
+      <c r="Q65">
+        <v>1020140563800</v>
+      </c>
+      <c r="R65">
+        <v>996615694700</v>
+      </c>
+      <c r="S65">
+        <v>68866400</v>
+      </c>
+      <c r="T65">
+        <v>69750300</v>
+      </c>
+      <c r="U65">
+        <v>23544775680</v>
+      </c>
+      <c r="V65">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W65">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X65">
+        <v>2988492</v>
+      </c>
+      <c r="Y65">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z65">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA65">
+        <v>193796</v>
+      </c>
+      <c r="AB65">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC65">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>18266127100</v>
       </c>
+      <c r="Q66">
+        <v>1028975496100</v>
+      </c>
+      <c r="R66">
+        <v>1010709369000</v>
+      </c>
+      <c r="S66">
+        <v>69384900</v>
+      </c>
+      <c r="T66">
+        <v>70549700</v>
+      </c>
+      <c r="U66">
+        <v>23544775680</v>
+      </c>
+      <c r="V66">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W66">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X66">
+        <v>2988492</v>
+      </c>
+      <c r="Y66">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z66">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA66">
+        <v>193796</v>
+      </c>
+      <c r="AB66">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC66">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>816702500</v>
       </c>
+      <c r="Q67">
+        <v>1036713267500</v>
+      </c>
+      <c r="R67">
+        <v>1035896565000</v>
+      </c>
+      <c r="S67">
+        <v>69740800</v>
+      </c>
+      <c r="T67">
+        <v>72259100</v>
+      </c>
+      <c r="U67">
+        <v>23544775680</v>
+      </c>
+      <c r="V67">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W67">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X67">
+        <v>2988492</v>
+      </c>
+      <c r="Y67">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z67">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA67">
+        <v>193796</v>
+      </c>
+      <c r="AB67">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC67">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-625141300</v>
       </c>
+      <c r="Q68">
+        <v>1043819633700</v>
+      </c>
+      <c r="R68">
+        <v>1044444775000</v>
+      </c>
+      <c r="S68">
+        <v>70082400</v>
+      </c>
+      <c r="T68">
+        <v>72831500</v>
+      </c>
+      <c r="U68">
+        <v>23544775680</v>
+      </c>
+      <c r="V68">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W68">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X68">
+        <v>2988492</v>
+      </c>
+      <c r="Y68">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z68">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA68">
+        <v>193796</v>
+      </c>
+      <c r="AB68">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC68">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-2556968000</v>
       </c>
+      <c r="Q69">
+        <v>1053754698000</v>
+      </c>
+      <c r="R69">
+        <v>1056311666000</v>
+      </c>
+      <c r="S69">
+        <v>70625500</v>
+      </c>
+      <c r="T69">
+        <v>73507900</v>
+      </c>
+      <c r="U69">
+        <v>23544775680</v>
+      </c>
+      <c r="V69">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W69">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X69">
+        <v>2988492</v>
+      </c>
+      <c r="Y69">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z69">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA69">
+        <v>193796</v>
+      </c>
+      <c r="AB69">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC69">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-1060403300</v>
       </c>
+      <c r="Q70">
+        <v>1065599663900</v>
+      </c>
+      <c r="R70">
+        <v>1066660067200</v>
+      </c>
+      <c r="S70">
+        <v>71179600</v>
+      </c>
+      <c r="T70">
+        <v>74168500</v>
+      </c>
+      <c r="U70">
+        <v>23544775680</v>
+      </c>
+      <c r="V70">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W70">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X70">
+        <v>2988492</v>
+      </c>
+      <c r="Y70">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z70">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA70">
+        <v>193796</v>
+      </c>
+      <c r="AB70">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC70">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-2460663600</v>
       </c>
+      <c r="Q71">
+        <v>1076743647000</v>
+      </c>
+      <c r="R71">
+        <v>1079204310600</v>
+      </c>
+      <c r="S71">
+        <v>71696700</v>
+      </c>
+      <c r="T71">
+        <v>74883500</v>
+      </c>
+      <c r="U71">
+        <v>23544775680</v>
+      </c>
+      <c r="V71">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W71">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X71">
+        <v>2988492</v>
+      </c>
+      <c r="Y71">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z71">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA71">
+        <v>193796</v>
+      </c>
+      <c r="AB71">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC71">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-16681086300</v>
       </c>
+      <c r="Q72">
+        <v>1086876822800</v>
+      </c>
+      <c r="R72">
+        <v>1103557909100</v>
+      </c>
+      <c r="S72">
+        <v>72226500</v>
+      </c>
+      <c r="T72">
+        <v>76252000</v>
+      </c>
+      <c r="U72">
+        <v>23544775680</v>
+      </c>
+      <c r="V72">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W72">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X72">
+        <v>2988492</v>
+      </c>
+      <c r="Y72">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z72">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA72">
+        <v>193796</v>
+      </c>
+      <c r="AB72">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC72">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-28895735100</v>
       </c>
+      <c r="Q73">
+        <v>1100483914600</v>
+      </c>
+      <c r="R73">
+        <v>1129379649700</v>
+      </c>
+      <c r="S73">
+        <v>72930100</v>
+      </c>
+      <c r="T73">
+        <v>77864600</v>
+      </c>
+      <c r="U73">
+        <v>23544775680</v>
+      </c>
+      <c r="V73">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W73">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X73">
+        <v>2988492</v>
+      </c>
+      <c r="Y73">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z73">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA73">
+        <v>193796</v>
+      </c>
+      <c r="AB73">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC73">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-29260407700</v>
       </c>
+      <c r="Q74">
+        <v>1114709864400</v>
+      </c>
+      <c r="R74">
+        <v>1143970272100</v>
+      </c>
+      <c r="S74">
+        <v>73594700</v>
+      </c>
+      <c r="T74">
+        <v>78838100</v>
+      </c>
+      <c r="U74">
+        <v>23544775680</v>
+      </c>
+      <c r="V74">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W74">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X74">
+        <v>2988492</v>
+      </c>
+      <c r="Y74">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z74">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA74">
+        <v>193796</v>
+      </c>
+      <c r="AB74">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC74">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-24457954700</v>
       </c>
+      <c r="Q75">
+        <v>1127948993000</v>
+      </c>
+      <c r="R75">
+        <v>1152406947700</v>
+      </c>
+      <c r="S75">
+        <v>74445800</v>
+      </c>
+      <c r="T75">
+        <v>79466100</v>
+      </c>
+      <c r="U75">
+        <v>23544775680</v>
+      </c>
+      <c r="V75">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W75">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X75">
+        <v>2988492</v>
+      </c>
+      <c r="Y75">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z75">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA75">
+        <v>193796</v>
+      </c>
+      <c r="AB75">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC75">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-21931065100</v>
       </c>
+      <c r="Q76">
+        <v>1140188478000</v>
+      </c>
+      <c r="R76">
+        <v>1162119543100</v>
+      </c>
+      <c r="S76">
+        <v>75153800</v>
+      </c>
+      <c r="T76">
+        <v>80055600</v>
+      </c>
+      <c r="U76">
+        <v>23544775680</v>
+      </c>
+      <c r="V76">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W76">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X76">
+        <v>2988492</v>
+      </c>
+      <c r="Y76">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z76">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA76">
+        <v>193796</v>
+      </c>
+      <c r="AB76">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC76">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-21930678100</v>
       </c>
+      <c r="Q77">
+        <v>1140201923000</v>
+      </c>
+      <c r="R77">
+        <v>1162132601100</v>
+      </c>
+      <c r="S77">
+        <v>75154900</v>
+      </c>
+      <c r="T77">
+        <v>80056400</v>
+      </c>
+      <c r="U77">
+        <v>23544775680</v>
+      </c>
+      <c r="V77">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W77">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X77">
+        <v>2988492</v>
+      </c>
+      <c r="Y77">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z77">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA77">
+        <v>193796</v>
+      </c>
+      <c r="AB77">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-21947928100</v>
       </c>
+      <c r="Q78">
+        <v>1140201923000</v>
+      </c>
+      <c r="R78">
+        <v>1162149851100</v>
+      </c>
+      <c r="S78">
+        <v>75154900</v>
+      </c>
+      <c r="T78">
+        <v>80057900</v>
+      </c>
+      <c r="U78">
+        <v>23544775680</v>
+      </c>
+      <c r="V78">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W78">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X78">
+        <v>2988492</v>
+      </c>
+      <c r="Y78">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z78">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA78">
+        <v>193796</v>
+      </c>
+      <c r="AB78">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-37137734800</v>
       </c>
+      <c r="Q79">
+        <v>1170270834800</v>
+      </c>
+      <c r="R79">
+        <v>1207408569600</v>
+      </c>
+      <c r="S79">
+        <v>77086700</v>
+      </c>
+      <c r="T79">
+        <v>83310000</v>
+      </c>
+      <c r="U79">
+        <v>23544775680</v>
+      </c>
+      <c r="V79">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W79">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X79">
+        <v>2988492</v>
+      </c>
+      <c r="Y79">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z79">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA79">
+        <v>193796</v>
+      </c>
+      <c r="AB79">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC79">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-44120001900</v>
       </c>
+      <c r="Q80">
+        <v>1183849979200</v>
+      </c>
+      <c r="R80">
+        <v>1227969981100</v>
+      </c>
+      <c r="S80">
+        <v>77932400</v>
+      </c>
+      <c r="T80">
+        <v>84621900</v>
+      </c>
+      <c r="U80">
+        <v>23544775680</v>
+      </c>
+      <c r="V80">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W80">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X80">
+        <v>2988492</v>
+      </c>
+      <c r="Y80">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z80">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA80">
+        <v>193796</v>
+      </c>
+      <c r="AB80">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC80">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-44462648600</v>
       </c>
+      <c r="Q81">
+        <v>1200368898100</v>
+      </c>
+      <c r="R81">
+        <v>1244831546700</v>
+      </c>
+      <c r="S81">
+        <v>78845600</v>
+      </c>
+      <c r="T81">
+        <v>85848500</v>
+      </c>
+      <c r="U81">
+        <v>23544775680</v>
+      </c>
+      <c r="V81">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W81">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X81">
+        <v>2988492</v>
+      </c>
+      <c r="Y81">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z81">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA81">
+        <v>193796</v>
+      </c>
+      <c r="AB81">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC81">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-33112779300</v>
       </c>
+      <c r="Q82">
+        <v>1224531194000</v>
+      </c>
+      <c r="R82">
+        <v>1257643973300</v>
+      </c>
+      <c r="S82">
+        <v>80540300</v>
+      </c>
+      <c r="T82">
+        <v>86663600</v>
+      </c>
+      <c r="U82">
+        <v>23544775680</v>
+      </c>
+      <c r="V82">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W82">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X82">
+        <v>2988492</v>
+      </c>
+      <c r="Y82">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z82">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA82">
+        <v>193796</v>
+      </c>
+      <c r="AB82">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC82">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-36451329800</v>
       </c>
+      <c r="Q83">
+        <v>1238796818600</v>
+      </c>
+      <c r="R83">
+        <v>1275248148400</v>
+      </c>
+      <c r="S83">
+        <v>82090800</v>
+      </c>
+      <c r="T83">
+        <v>87713100</v>
+      </c>
+      <c r="U83">
+        <v>23544775680</v>
+      </c>
+      <c r="V83">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W83">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X83">
+        <v>2988492</v>
+      </c>
+      <c r="Y83">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z83">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA83">
+        <v>193796</v>
+      </c>
+      <c r="AB83">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC83">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-41433578400</v>
       </c>
+      <c r="Q84">
+        <v>1247249509800</v>
+      </c>
+      <c r="R84">
+        <v>1288683088200</v>
+      </c>
+      <c r="S84">
+        <v>82590200</v>
+      </c>
+      <c r="T84">
+        <v>88676300</v>
+      </c>
+      <c r="U84">
+        <v>23544775680</v>
+      </c>
+      <c r="V84">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W84">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X84">
+        <v>2988492</v>
+      </c>
+      <c r="Y84">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z84">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA84">
+        <v>193796</v>
+      </c>
+      <c r="AB84">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC84">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-40819350100</v>
       </c>
+      <c r="Q85">
+        <v>1261435678300</v>
+      </c>
+      <c r="R85">
+        <v>1302255028400</v>
+      </c>
+      <c r="S85">
+        <v>83418300</v>
+      </c>
+      <c r="T85">
+        <v>89603100</v>
+      </c>
+      <c r="U85">
+        <v>23544775680</v>
+      </c>
+      <c r="V85">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W85">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X85">
+        <v>2988492</v>
+      </c>
+      <c r="Y85">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z85">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA85">
+        <v>193796</v>
+      </c>
+      <c r="AB85">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC85">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-20562521400</v>
       </c>
+      <c r="Q86">
+        <v>1293307112300</v>
+      </c>
+      <c r="R86">
+        <v>1313869633700</v>
+      </c>
+      <c r="S86">
+        <v>85318000</v>
+      </c>
+      <c r="T86">
+        <v>90286200</v>
+      </c>
+      <c r="U86">
+        <v>23544775680</v>
+      </c>
+      <c r="V86">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W86">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X86">
+        <v>2988492</v>
+      </c>
+      <c r="Y86">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z86">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA86">
+        <v>193796</v>
+      </c>
+      <c r="AB86">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC86">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>5192628300</v>
       </c>
+      <c r="Q87">
+        <v>1327547853800</v>
+      </c>
+      <c r="R87">
+        <v>1322355225500</v>
+      </c>
+      <c r="S87">
+        <v>87688900</v>
+      </c>
+      <c r="T87">
+        <v>90766800</v>
+      </c>
+      <c r="U87">
+        <v>23544775680</v>
+      </c>
+      <c r="V87">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W87">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X87">
+        <v>2988492</v>
+      </c>
+      <c r="Y87">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z87">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA87">
+        <v>193796</v>
+      </c>
+      <c r="AB87">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC87">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>26468619300</v>
       </c>
+      <c r="Q88">
+        <v>1360850755200</v>
+      </c>
+      <c r="R88">
+        <v>1334382135900</v>
+      </c>
+      <c r="S88">
+        <v>89503300</v>
+      </c>
+      <c r="T88">
+        <v>91468200</v>
+      </c>
+      <c r="U88">
+        <v>23544775680</v>
+      </c>
+      <c r="V88">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W88">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X88">
+        <v>2988492</v>
+      </c>
+      <c r="Y88">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z88">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA88">
+        <v>193796</v>
+      </c>
+      <c r="AB88">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC88">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>35939855100</v>
       </c>
+      <c r="Q89">
+        <v>1386312554200</v>
+      </c>
+      <c r="R89">
+        <v>1350372699100</v>
+      </c>
+      <c r="S89">
+        <v>91168900</v>
+      </c>
+      <c r="T89">
+        <v>92496500</v>
+      </c>
+      <c r="U89">
+        <v>23544775680</v>
+      </c>
+      <c r="V89">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W89">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X89">
+        <v>2988492</v>
+      </c>
+      <c r="Y89">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z89">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA89">
+        <v>193796</v>
+      </c>
+      <c r="AB89">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC89">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>44527082000</v>
       </c>
+      <c r="Q90">
+        <v>1410330065400</v>
+      </c>
+      <c r="R90">
+        <v>1365802983400</v>
+      </c>
+      <c r="S90">
+        <v>93135200</v>
+      </c>
+      <c r="T90">
+        <v>93570200</v>
+      </c>
+      <c r="U90">
+        <v>23544775680</v>
+      </c>
+      <c r="V90">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W90">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X90">
+        <v>2988492</v>
+      </c>
+      <c r="Y90">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z90">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA90">
+        <v>193796</v>
+      </c>
+      <c r="AB90">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>43917272900</v>
       </c>
+      <c r="Q91">
+        <v>1433534360300</v>
+      </c>
+      <c r="R91">
+        <v>1389617087400</v>
+      </c>
+      <c r="S91">
+        <v>94729000</v>
+      </c>
+      <c r="T91">
+        <v>95139500</v>
+      </c>
+      <c r="U91">
+        <v>23544775680</v>
+      </c>
+      <c r="V91">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W91">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X91">
+        <v>2988492</v>
+      </c>
+      <c r="Y91">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z91">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA91">
+        <v>193796</v>
+      </c>
+      <c r="AB91">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC91">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>42889069800</v>
       </c>
+      <c r="Q92">
+        <v>1457616621600</v>
+      </c>
+      <c r="R92">
+        <v>1414727551800</v>
+      </c>
+      <c r="S92">
+        <v>96127500</v>
+      </c>
+      <c r="T92">
+        <v>96819200</v>
+      </c>
+      <c r="U92">
+        <v>23544775680</v>
+      </c>
+      <c r="V92">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W92">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X92">
+        <v>2988492</v>
+      </c>
+      <c r="Y92">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z92">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA92">
+        <v>193796</v>
+      </c>
+      <c r="AB92">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC92">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>48863564900</v>
       </c>
+      <c r="Q93">
+        <v>1486049523400</v>
+      </c>
+      <c r="R93">
+        <v>1437185958500</v>
+      </c>
+      <c r="S93">
+        <v>98397000</v>
+      </c>
+      <c r="T93">
+        <v>98231700</v>
+      </c>
+      <c r="U93">
+        <v>23544775680</v>
+      </c>
+      <c r="V93">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W93">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X93">
+        <v>2988492</v>
+      </c>
+      <c r="Y93">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z93">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA93">
+        <v>193796</v>
+      </c>
+      <c r="AB93">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC93">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>47635291500</v>
       </c>
+      <c r="Q94">
+        <v>1499575151200</v>
+      </c>
+      <c r="R94">
+        <v>1451939859700</v>
+      </c>
+      <c r="S94">
+        <v>99258000</v>
+      </c>
+      <c r="T94">
+        <v>99386700</v>
+      </c>
+      <c r="U94">
+        <v>23544775680</v>
+      </c>
+      <c r="V94">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W94">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X94">
+        <v>2988492</v>
+      </c>
+      <c r="Y94">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z94">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA94">
+        <v>193796</v>
+      </c>
+      <c r="AB94">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>47621584700</v>
       </c>
+      <c r="Q95">
+        <v>1516360134300</v>
+      </c>
+      <c r="R95">
+        <v>1468738549600</v>
+      </c>
+      <c r="S95">
+        <v>100162700</v>
+      </c>
+      <c r="T95">
+        <v>100455400</v>
+      </c>
+      <c r="U95">
+        <v>23544775680</v>
+      </c>
+      <c r="V95">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W95">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X95">
+        <v>2988492</v>
+      </c>
+      <c r="Y95">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z95">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA95">
+        <v>193796</v>
+      </c>
+      <c r="AB95">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>48679764700</v>
       </c>
+      <c r="Q96">
+        <v>1536884250100</v>
+      </c>
+      <c r="R96">
+        <v>1488204485400</v>
+      </c>
+      <c r="S96">
+        <v>101216700</v>
+      </c>
+      <c r="T96">
+        <v>101796800</v>
+      </c>
+      <c r="U96">
+        <v>23544775680</v>
+      </c>
+      <c r="V96">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W96">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X96">
+        <v>2988492</v>
+      </c>
+      <c r="Y96">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z96">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA96">
+        <v>193796</v>
+      </c>
+      <c r="AB96">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC96">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>62869161800</v>
       </c>
+      <c r="Q97">
+        <v>1562365257000</v>
+      </c>
+      <c r="R97">
+        <v>1499496095200</v>
+      </c>
+      <c r="S97">
+        <v>102644000</v>
+      </c>
+      <c r="T97">
+        <v>102415700</v>
+      </c>
+      <c r="U97">
+        <v>23544775680</v>
+      </c>
+      <c r="V97">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W97">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X97">
+        <v>2988492</v>
+      </c>
+      <c r="Y97">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z97">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA97">
+        <v>193796</v>
+      </c>
+      <c r="AB97">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC97">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>108879403200</v>
       </c>
+      <c r="Q98">
+        <v>1622231938100</v>
+      </c>
+      <c r="R98">
+        <v>1513352534900</v>
+      </c>
+      <c r="S98">
+        <v>106655600</v>
+      </c>
+      <c r="T98">
+        <v>103155200</v>
+      </c>
+      <c r="U98">
+        <v>23544775680</v>
+      </c>
+      <c r="V98">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W98">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X98">
+        <v>2988492</v>
+      </c>
+      <c r="Y98">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z98">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA98">
+        <v>193796</v>
+      </c>
+      <c r="AB98">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC98">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>164577723800</v>
       </c>
+      <c r="Q99">
+        <v>1703214439500</v>
+      </c>
+      <c r="R99">
+        <v>1538636715700</v>
+      </c>
+      <c r="S99">
+        <v>111682200</v>
+      </c>
+      <c r="T99">
+        <v>104735600</v>
+      </c>
+      <c r="U99">
+        <v>23544775680</v>
+      </c>
+      <c r="V99">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W99">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X99">
+        <v>2988492</v>
+      </c>
+      <c r="Y99">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z99">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA99">
+        <v>193796</v>
+      </c>
+      <c r="AB99">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC99">
+        <v>13</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>185301087000</v>
       </c>
+      <c r="Q100">
+        <v>1749611920400</v>
+      </c>
+      <c r="R100">
+        <v>1564310833400</v>
+      </c>
+      <c r="S100">
+        <v>114889400</v>
+      </c>
+      <c r="T100">
+        <v>106343800</v>
+      </c>
+      <c r="U100">
+        <v>23544775680</v>
+      </c>
+      <c r="V100">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W100">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X100">
+        <v>2988492</v>
+      </c>
+      <c r="Y100">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z100">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA100">
+        <v>193796</v>
+      </c>
+      <c r="AB100">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC100">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>198460988800</v>
       </c>
+      <c r="Q101">
+        <v>1783000926700</v>
+      </c>
+      <c r="R101">
+        <v>1584539937900</v>
+      </c>
+      <c r="S101">
+        <v>116983000</v>
+      </c>
+      <c r="T101">
+        <v>107761500</v>
+      </c>
+      <c r="U101">
+        <v>23544775680</v>
+      </c>
+      <c r="V101">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W101">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X101">
+        <v>2988492</v>
+      </c>
+      <c r="Y101">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z101">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA101">
+        <v>193796</v>
+      </c>
+      <c r="AB101">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC101">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>229550328600</v>
       </c>
+      <c r="Q102">
+        <v>1831736104200</v>
+      </c>
+      <c r="R102">
+        <v>1602185775600</v>
+      </c>
+      <c r="S102">
+        <v>119825800</v>
+      </c>
+      <c r="T102">
+        <v>108829000</v>
+      </c>
+      <c r="U102">
+        <v>23544775680</v>
+      </c>
+      <c r="V102">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W102">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X102">
+        <v>2988492</v>
+      </c>
+      <c r="Y102">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z102">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA102">
+        <v>193796</v>
+      </c>
+      <c r="AB102">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC102">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>233026630600</v>
       </c>
+      <c r="Q103">
+        <v>1865340641800</v>
+      </c>
+      <c r="R103">
+        <v>1632314011200</v>
+      </c>
+      <c r="S103">
+        <v>121980000</v>
+      </c>
+      <c r="T103">
+        <v>110724200</v>
+      </c>
+      <c r="U103">
+        <v>23544775680</v>
+      </c>
+      <c r="V103">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W103">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X103">
+        <v>2988492</v>
+      </c>
+      <c r="Y103">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z103">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA103">
+        <v>193796</v>
+      </c>
+      <c r="AB103">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC103">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>215678529900</v>
       </c>
+      <c r="Q104">
+        <v>1891503282600</v>
+      </c>
+      <c r="R104">
+        <v>1675824752700</v>
+      </c>
+      <c r="S104">
+        <v>123489200</v>
+      </c>
+      <c r="T104">
+        <v>114223400</v>
+      </c>
+      <c r="U104">
+        <v>23544775680</v>
+      </c>
+      <c r="V104">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W104">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X104">
+        <v>2988492</v>
+      </c>
+      <c r="Y104">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z104">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA104">
+        <v>193796</v>
+      </c>
+      <c r="AB104">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC104">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>192043574100</v>
       </c>
+      <c r="Q105">
+        <v>1906656422300</v>
+      </c>
+      <c r="R105">
+        <v>1714612848200</v>
+      </c>
+      <c r="S105">
+        <v>124300100</v>
+      </c>
+      <c r="T105">
+        <v>117151200</v>
+      </c>
+      <c r="U105">
+        <v>23544775680</v>
+      </c>
+      <c r="V105">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W105">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X105">
+        <v>2988492</v>
+      </c>
+      <c r="Y105">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z105">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA105">
+        <v>193796</v>
+      </c>
+      <c r="AB105">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC105">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>179789101700</v>
       </c>
+      <c r="Q106">
+        <v>1921179033000</v>
+      </c>
+      <c r="R106">
+        <v>1741389931300</v>
+      </c>
+      <c r="S106">
+        <v>125172200</v>
+      </c>
+      <c r="T106">
+        <v>118804500</v>
+      </c>
+      <c r="U106">
+        <v>23544775680</v>
+      </c>
+      <c r="V106">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W106">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X106">
+        <v>2988492</v>
+      </c>
+      <c r="Y106">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z106">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA106">
+        <v>193796</v>
+      </c>
+      <c r="AB106">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC106">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>167403895200</v>
       </c>
+      <c r="Q107">
+        <v>1938297434500</v>
+      </c>
+      <c r="R107">
+        <v>1770893539300</v>
+      </c>
+      <c r="S107">
+        <v>126407000</v>
+      </c>
+      <c r="T107">
+        <v>120852400</v>
+      </c>
+      <c r="U107">
+        <v>23544775680</v>
+      </c>
+      <c r="V107">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W107">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X107">
+        <v>2988492</v>
+      </c>
+      <c r="Y107">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z107">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA107">
+        <v>193796</v>
+      </c>
+      <c r="AB107">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC107">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>173066257300</v>
       </c>
+      <c r="Q108">
+        <v>1954312159100</v>
+      </c>
+      <c r="R108">
+        <v>1781245901800</v>
+      </c>
+      <c r="S108">
+        <v>127436700</v>
+      </c>
+      <c r="T108">
+        <v>121628900</v>
+      </c>
+      <c r="U108">
+        <v>23544775680</v>
+      </c>
+      <c r="V108">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W108">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X108">
+        <v>2988492</v>
+      </c>
+      <c r="Y108">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z108">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA108">
+        <v>193796</v>
+      </c>
+      <c r="AB108">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC108">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>188376512300</v>
       </c>
+      <c r="Q109">
+        <v>1982098197100</v>
+      </c>
+      <c r="R109">
+        <v>1793721684800</v>
+      </c>
+      <c r="S109">
+        <v>129162000</v>
+      </c>
+      <c r="T109">
+        <v>122439700</v>
+      </c>
+      <c r="U109">
+        <v>23544775680</v>
+      </c>
+      <c r="V109">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W109">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X109">
+        <v>2988492</v>
+      </c>
+      <c r="Y109">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z109">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA109">
+        <v>193796</v>
+      </c>
+      <c r="AB109">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC109">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>202791527600</v>
       </c>
+      <c r="Q110">
+        <v>2016670769000</v>
+      </c>
+      <c r="R110">
+        <v>1813879241400</v>
+      </c>
+      <c r="S110">
+        <v>131043300</v>
+      </c>
+      <c r="T110">
+        <v>123600000</v>
+      </c>
+      <c r="U110">
+        <v>23544775680</v>
+      </c>
+      <c r="V110">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W110">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X110">
+        <v>2988492</v>
+      </c>
+      <c r="Y110">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z110">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA110">
+        <v>193796</v>
+      </c>
+      <c r="AB110">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC110">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>250980505100</v>
       </c>
+      <c r="Q111">
+        <v>2077963961800</v>
+      </c>
+      <c r="R111">
+        <v>1826983456700</v>
+      </c>
+      <c r="S111">
+        <v>134908400</v>
+      </c>
+      <c r="T111">
+        <v>124323600</v>
+      </c>
+      <c r="U111">
+        <v>23544775680</v>
+      </c>
+      <c r="V111">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W111">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X111">
+        <v>2988492</v>
+      </c>
+      <c r="Y111">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z111">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA111">
+        <v>193796</v>
+      </c>
+      <c r="AB111">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC111">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>260909694200</v>
       </c>
+      <c r="Q112">
+        <v>2105955561400</v>
+      </c>
+      <c r="R112">
+        <v>1845045867200</v>
+      </c>
+      <c r="S112">
+        <v>136923000</v>
+      </c>
+      <c r="T112">
+        <v>125399000</v>
+      </c>
+      <c r="U112">
+        <v>23544775680</v>
+      </c>
+      <c r="V112">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W112">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X112">
+        <v>2988492</v>
+      </c>
+      <c r="Y112">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z112">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA112">
+        <v>193796</v>
+      </c>
+      <c r="AB112">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC112">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>324204708100</v>
       </c>
+      <c r="Q113">
+        <v>2190905956200</v>
+      </c>
+      <c r="R113">
+        <v>1866701248100</v>
+      </c>
+      <c r="S113">
+        <v>141957100</v>
+      </c>
+      <c r="T113">
+        <v>126712200</v>
+      </c>
+      <c r="U113">
+        <v>23544775680</v>
+      </c>
+      <c r="V113">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W113">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X113">
+        <v>2988492</v>
+      </c>
+      <c r="Y113">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z113">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA113">
+        <v>193796</v>
+      </c>
+      <c r="AB113">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC113">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>448548286500</v>
       </c>
+      <c r="Q114">
+        <v>2331625865300</v>
+      </c>
+      <c r="R114">
+        <v>1883077578800</v>
+      </c>
+      <c r="S114">
+        <v>149894300</v>
+      </c>
+      <c r="T114">
+        <v>127557600</v>
+      </c>
+      <c r="U114">
+        <v>23544775680</v>
+      </c>
+      <c r="V114">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W114">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X114">
+        <v>2988492</v>
+      </c>
+      <c r="Y114">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z114">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA114">
+        <v>193796</v>
+      </c>
+      <c r="AB114">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC114">
+        <v>29</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>569249730200</v>
       </c>
+      <c r="Q115">
+        <v>2499020312700</v>
+      </c>
+      <c r="R115">
+        <v>1929770582500</v>
+      </c>
+      <c r="S115">
+        <v>160096000</v>
+      </c>
+      <c r="T115">
+        <v>130322900</v>
+      </c>
+      <c r="U115">
+        <v>23544775680</v>
+      </c>
+      <c r="V115">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W115">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X115">
+        <v>2988492</v>
+      </c>
+      <c r="Y115">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z115">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA115">
+        <v>193796</v>
+      </c>
+      <c r="AB115">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC115">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>550079607800</v>
       </c>
+      <c r="Q116">
+        <v>2563373292500</v>
+      </c>
+      <c r="R116">
+        <v>2013293684700</v>
+      </c>
+      <c r="S116">
+        <v>164016900</v>
+      </c>
+      <c r="T116">
+        <v>134846800</v>
+      </c>
+      <c r="U116">
+        <v>23544775680</v>
+      </c>
+      <c r="V116">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W116">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X116">
+        <v>2988492</v>
+      </c>
+      <c r="Y116">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z116">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA116">
+        <v>193796</v>
+      </c>
+      <c r="AB116">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC116">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>557154571800</v>
       </c>
+      <c r="Q117">
+        <v>2611934675000</v>
+      </c>
+      <c r="R117">
+        <v>2054780103200</v>
+      </c>
+      <c r="S117">
+        <v>166498400</v>
+      </c>
+      <c r="T117">
+        <v>137323200</v>
+      </c>
+      <c r="U117">
+        <v>23544775680</v>
+      </c>
+      <c r="V117">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W117">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X117">
+        <v>2988492</v>
+      </c>
+      <c r="Y117">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z117">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA117">
+        <v>193796</v>
+      </c>
+      <c r="AB117">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC117">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>557439237100</v>
       </c>
+      <c r="Q118">
+        <v>2667093704400</v>
+      </c>
+      <c r="R118">
+        <v>2109654467300</v>
+      </c>
+      <c r="S118">
+        <v>169616800</v>
+      </c>
+      <c r="T118">
+        <v>140251500</v>
+      </c>
+      <c r="U118">
+        <v>23544775680</v>
+      </c>
+      <c r="V118">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W118">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X118">
+        <v>2988492</v>
+      </c>
+      <c r="Y118">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z118">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA118">
+        <v>193796</v>
+      </c>
+      <c r="AB118">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC118">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>541440056300</v>
       </c>
+      <c r="Q119">
+        <v>2713392875500</v>
+      </c>
+      <c r="R119">
+        <v>2171952819200</v>
+      </c>
+      <c r="S119">
+        <v>172230200</v>
+      </c>
+      <c r="T119">
+        <v>143730000</v>
+      </c>
+      <c r="U119">
+        <v>23544775680</v>
+      </c>
+      <c r="V119">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W119">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X119">
+        <v>2988492</v>
+      </c>
+      <c r="Y119">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z119">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA119">
+        <v>193796</v>
+      </c>
+      <c r="AB119">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC119">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>535212979400</v>
       </c>
+      <c r="Q120">
+        <v>2767363238700</v>
+      </c>
+      <c r="R120">
+        <v>2232150259300</v>
+      </c>
+      <c r="S120">
+        <v>175505500</v>
+      </c>
+      <c r="T120">
+        <v>148187500</v>
+      </c>
+      <c r="U120">
+        <v>23544775680</v>
+      </c>
+      <c r="V120">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W120">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X120">
+        <v>2988492</v>
+      </c>
+      <c r="Y120">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z120">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA120">
+        <v>193796</v>
+      </c>
+      <c r="AB120">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC120">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>553409002100</v>
       </c>
+      <c r="Q121">
+        <v>2817255966700</v>
+      </c>
+      <c r="R121">
+        <v>2263846964600</v>
+      </c>
+      <c r="S121">
+        <v>178374300</v>
+      </c>
+      <c r="T121">
+        <v>150184100</v>
+      </c>
+      <c r="U121">
+        <v>23544775680</v>
+      </c>
+      <c r="V121">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W121">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X121">
+        <v>2988492</v>
+      </c>
+      <c r="Y121">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z121">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA121">
+        <v>193796</v>
+      </c>
+      <c r="AB121">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC121">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>555201803400</v>
       </c>
+      <c r="Q122">
+        <v>2856243030700</v>
+      </c>
+      <c r="R122">
+        <v>2301041227300</v>
+      </c>
+      <c r="S122">
+        <v>180798200</v>
+      </c>
+      <c r="T122">
+        <v>152698600</v>
+      </c>
+      <c r="U122">
+        <v>23544775680</v>
+      </c>
+      <c r="V122">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W122">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X122">
+        <v>2988492</v>
+      </c>
+      <c r="Y122">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z122">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA122">
+        <v>193796</v>
+      </c>
+      <c r="AB122">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC122">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>507629264600</v>
       </c>
+      <c r="Q123">
+        <v>2890537304100</v>
+      </c>
+      <c r="R123">
+        <v>2382908039500</v>
+      </c>
+      <c r="S123">
+        <v>183209700</v>
+      </c>
+      <c r="T123">
+        <v>158778700</v>
+      </c>
+      <c r="U123">
+        <v>23544775680</v>
+      </c>
+      <c r="V123">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W123">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X123">
+        <v>2988492</v>
+      </c>
+      <c r="Y123">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z123">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA123">
+        <v>193796</v>
+      </c>
+      <c r="AB123">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC123">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>507461945600</v>
       </c>
+      <c r="Q124">
+        <v>2890583354100</v>
+      </c>
+      <c r="R124">
+        <v>2383121408500</v>
+      </c>
+      <c r="S124">
+        <v>183212200</v>
+      </c>
+      <c r="T124">
+        <v>158796200</v>
+      </c>
+      <c r="U124">
+        <v>23544775680</v>
+      </c>
+      <c r="V124">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W124">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X124">
+        <v>2988492</v>
+      </c>
+      <c r="Y124">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z124">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA124">
+        <v>193796</v>
+      </c>
+      <c r="AB124">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>536164747800</v>
       </c>
+      <c r="Q125">
+        <v>2943096960000</v>
+      </c>
+      <c r="R125">
+        <v>2406932212200</v>
+      </c>
+      <c r="S125">
+        <v>185223300</v>
+      </c>
+      <c r="T125">
+        <v>160996000</v>
+      </c>
+      <c r="U125">
+        <v>23544775680</v>
+      </c>
+      <c r="V125">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W125">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X125">
+        <v>2988492</v>
+      </c>
+      <c r="Y125">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z125">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA125">
+        <v>193796</v>
+      </c>
+      <c r="AB125">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC125">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,10 +11576,49 @@
       <c r="P126">
         <v>536132547800</v>
       </c>
+      <c r="Q126">
+        <v>2943096960000</v>
+      </c>
+      <c r="R126">
+        <v>2406964412200</v>
+      </c>
+      <c r="S126">
+        <v>185223300</v>
+      </c>
+      <c r="T126">
+        <v>160998800</v>
+      </c>
+      <c r="U126">
+        <v>23544775680</v>
+      </c>
+      <c r="V126">
+        <v>19255715297.6</v>
+      </c>
+      <c r="W126">
+        <v>46433506929.6</v>
+      </c>
+      <c r="X126">
+        <v>2988492</v>
+      </c>
+      <c r="Y126">
+        <v>1481786.4</v>
+      </c>
+      <c r="Z126">
+        <v>1287990.4</v>
+      </c>
+      <c r="AA126">
+        <v>193796</v>
+      </c>
+      <c r="AB126">
+        <v>4289060382.4</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC126"/>
   </ignoredErrors>
 </worksheet>
 </file>